--- a/00_create_template.xlsx
+++ b/00_create_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sap-my.sharepoint.com/personal/mark_csaszar_sap_com/Documents/Projects/Scrum Master/START/MPA/python_scripts/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="227" documentId="11_054DCBBE86079F92FCDA360A36A5264A2DFC5A56" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E52158B9-3930-CA48-B8C5-BB28853E3758}"/>
+  <xr:revisionPtr revIDLastSave="231" documentId="11_054DCBBE86079F92FCDA360A36A5264A2DFC5A56" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB31B97C-679E-1842-A334-40EF26CCA3AA}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="290">
   <si>
     <t>Asset Mass Create</t>
   </si>
@@ -839,9 +839,6 @@
     <t>2021.01.01</t>
   </si>
   <si>
-    <t>2020.01.01</t>
-  </si>
-  <si>
     <t>MPA_CHANGE_SCENARIO_1</t>
   </si>
   <si>
@@ -906,6 +903,9 @@
   </si>
   <si>
     <t>SUL3</t>
+  </si>
+  <si>
+    <t>3L</t>
   </si>
 </sst>
 </file>
@@ -2728,8 +2728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BO47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6:R11"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
+      <selection activeCell="AP9" sqref="AP9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3237,13 +3237,13 @@
       <c r="E6" s="8"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>257</v>
@@ -3252,10 +3252,10 @@
         <v>266</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="N6" s="8"/>
       <c r="O6" s="8" t="s">
@@ -3275,7 +3275,7 @@
         <v>1710</v>
       </c>
       <c r="U6" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="V6" s="8">
         <v>10.33</v>
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="AR6" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AS6" s="8">
         <v>2</v>
@@ -3344,7 +3344,7 @@
         <v>34</v>
       </c>
       <c r="BB6" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="BC6" s="8">
         <v>6</v>
@@ -3378,18 +3378,18 @@
       <c r="E7" s="8"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>257</v>
       </c>
       <c r="K7" s="11"/>
       <c r="L7" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
@@ -3433,7 +3433,7 @@
         <v>1</v>
       </c>
       <c r="AR7" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AS7" s="8">
         <v>2</v>
@@ -3459,7 +3459,7 @@
         <v>34</v>
       </c>
       <c r="BB7" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="BC7" s="8">
         <v>6</v>
@@ -3495,13 +3495,13 @@
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>257</v>
@@ -3510,7 +3510,7 @@
         <v>266</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
@@ -3556,7 +3556,7 @@
         <v>1</v>
       </c>
       <c r="AR8" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AS8" s="8">
         <v>2</v>
@@ -3582,7 +3582,7 @@
         <v>34</v>
       </c>
       <c r="BB8" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="BC8" s="8">
         <v>6</v>
@@ -3618,18 +3618,18 @@
       <c r="E9" s="8"/>
       <c r="F9" s="7"/>
       <c r="G9" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>257</v>
       </c>
       <c r="K9" s="11"/>
       <c r="L9" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
@@ -3667,21 +3667,25 @@
         <v>264</v>
       </c>
       <c r="AL9" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AM9" s="7" t="s">
         <v>265</v>
       </c>
       <c r="AN9" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="AO9" s="7"/>
-      <c r="AP9" s="7"/>
+        <v>266</v>
+      </c>
+      <c r="AO9" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="AP9" s="10" t="s">
+        <v>266</v>
+      </c>
       <c r="AQ9" s="8">
         <v>1</v>
       </c>
       <c r="AR9" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AS9" s="8">
         <v>2</v>
@@ -3707,7 +3711,7 @@
         <v>34</v>
       </c>
       <c r="BB9" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="BC9" s="8">
         <v>6</v>
@@ -3743,18 +3747,18 @@
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>257</v>
       </c>
       <c r="K10" s="11"/>
       <c r="L10" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
@@ -3800,7 +3804,7 @@
         <v>1</v>
       </c>
       <c r="AR10" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AS10" s="8">
         <v>2</v>
@@ -3826,7 +3830,7 @@
         <v>34</v>
       </c>
       <c r="BB10" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="BC10" s="8">
         <v>6</v>
@@ -3860,13 +3864,13 @@
       <c r="E11" s="8"/>
       <c r="F11" s="7"/>
       <c r="G11" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>257</v>
@@ -3875,7 +3879,7 @@
         <v>266</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
@@ -3921,7 +3925,7 @@
         <v>1</v>
       </c>
       <c r="AR11" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AS11" s="8">
         <v>2</v>
@@ -3947,7 +3951,7 @@
         <v>34</v>
       </c>
       <c r="BB11" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="BC11" s="8">
         <v>6</v>

--- a/00_create_template.xlsx
+++ b/00_create_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sap-my.sharepoint.com/personal/mark_csaszar_sap_com/Documents/Projects/Scrum Master/START/MPA/python_scripts/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="231" documentId="11_054DCBBE86079F92FCDA360A36A5264A2DFC5A56" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB31B97C-679E-1842-A334-40EF26CCA3AA}"/>
+  <xr:revisionPtr revIDLastSave="251" documentId="11_054DCBBE86079F92FCDA360A36A5264A2DFC5A56" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D330D6B-35B5-F944-B61C-DED0F4ACDB97}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="354">
   <si>
     <t>Asset Mass Create</t>
   </si>
@@ -906,6 +906,198 @@
   </si>
   <si>
     <t>3L</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_SCENARIO_1</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_SCENARIO_2</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_SCENARIO_3</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_SCENARIO_4</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_SCENARIO_5</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_SCENARIO_6</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_SCENARIO_7</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_SCENARIO_8</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_SCENARIO_9</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_SCENARIO_10</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_SCENARIO_11</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_SCENARIO_12</t>
+  </si>
+  <si>
+    <t>MPA_TRANSFER_SCENARIO_1</t>
+  </si>
+  <si>
+    <t>MPA_TRANSFER_SCENARIO_2</t>
+  </si>
+  <si>
+    <t>MPA_TRANSFER_SCENARIO_3</t>
+  </si>
+  <si>
+    <t>MPA_TRANSFER_SCENARIO_4</t>
+  </si>
+  <si>
+    <t>MPA_TRANSFER_SCENARIO_5</t>
+  </si>
+  <si>
+    <t>MPA_TRANSFER_SCENARIO_6</t>
+  </si>
+  <si>
+    <t>MPA_TRANSFER_SCENARIO_7</t>
+  </si>
+  <si>
+    <t>MPA_TRANSFER_SCENARIO_8</t>
+  </si>
+  <si>
+    <t>MPA_TRANSFER_SCENARIO_9</t>
+  </si>
+  <si>
+    <t>MPA_TRANSFER_SCENARIO_10</t>
+  </si>
+  <si>
+    <t>MPA_TRANSFER_SCENARIO_11</t>
+  </si>
+  <si>
+    <t>MPA_TRANSFER_SCENARIO_12</t>
+  </si>
+  <si>
+    <t>MPA_TRANSFER_SCENARIO_13</t>
+  </si>
+  <si>
+    <t>MPA_TRANSFER_SCENARIO_14</t>
+  </si>
+  <si>
+    <t>MPA_TRANSFER_SCENARIO_15</t>
+  </si>
+  <si>
+    <t>MPA_TRANSFER_SCENARIO_16</t>
+  </si>
+  <si>
+    <t>MPA_TRANSFER_SCENARIO_17</t>
+  </si>
+  <si>
+    <t>MPA_TRANSFER_SCENARIO_18</t>
+  </si>
+  <si>
+    <t>MPA_RETIREMENT_SCENARIO_1</t>
   </si>
 </sst>
 </file>
@@ -983,7 +1175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1011,10 +1203,6 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2726,10 +2914,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:BO47"/>
+  <dimension ref="A1:BO53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="AP9" sqref="AP9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2740,7 +2928,7 @@
     <col min="4" max="4" width="37" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24" style="1" bestFit="1" customWidth="1"/>
@@ -3972,61 +4160,134 @@
       <c r="BO11" s="7"/>
     </row>
     <row r="12" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
+      <c r="A12" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1710</v>
+      </c>
+      <c r="C12" s="8">
+        <v>2000</v>
+      </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
+      <c r="G12" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>285</v>
+      </c>
       <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
+      <c r="O12" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="P12" s="8">
+        <v>17101101</v>
+      </c>
       <c r="Q12" s="7"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="8"/>
+      <c r="R12" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="S12" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="T12" s="8">
+        <v>1710</v>
+      </c>
+      <c r="U12" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="V12" s="8">
+        <v>10.33</v>
+      </c>
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
-      <c r="Y12" s="8"/>
+      <c r="Y12" s="8" t="s">
+        <v>256</v>
+      </c>
       <c r="Z12" s="8"/>
-      <c r="AA12" s="8"/>
-      <c r="AB12" s="8"/>
-      <c r="AC12" s="8"/>
+      <c r="AA12" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB12" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="AC12" s="8">
+        <v>50</v>
+      </c>
       <c r="AD12" s="8"/>
       <c r="AE12" s="11"/>
       <c r="AF12" s="7"/>
       <c r="AG12" s="12"/>
-      <c r="AH12" s="8"/>
-      <c r="AI12" s="8"/>
-      <c r="AJ12" s="8"/>
+      <c r="AH12" s="8">
+        <v>2020</v>
+      </c>
+      <c r="AI12" s="8">
+        <v>15000</v>
+      </c>
+      <c r="AJ12" s="8" t="s">
+        <v>262</v>
+      </c>
       <c r="AK12" s="7"/>
       <c r="AL12" s="7"/>
       <c r="AM12" s="7"/>
       <c r="AN12" s="7"/>
       <c r="AO12" s="7"/>
       <c r="AP12" s="7"/>
-      <c r="AQ12" s="8"/>
-      <c r="AR12" s="8"/>
-      <c r="AS12" s="8"/>
-      <c r="AT12" s="8"/>
+      <c r="AQ12" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR12" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AS12" s="8">
+        <v>2</v>
+      </c>
+      <c r="AT12" s="8">
+        <v>1</v>
+      </c>
       <c r="AU12" s="7"/>
-      <c r="AV12" s="8"/>
-      <c r="AW12" s="9"/>
-      <c r="AX12" s="8"/>
-      <c r="AY12" s="8"/>
+      <c r="AV12" s="8">
+        <v>32</v>
+      </c>
+      <c r="AW12" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="AX12" s="8">
+        <v>4</v>
+      </c>
+      <c r="AY12" s="8">
+        <v>2</v>
+      </c>
       <c r="AZ12" s="7"/>
-      <c r="BA12" s="8"/>
-      <c r="BB12" s="8"/>
-      <c r="BC12" s="8"/>
-      <c r="BD12" s="8"/>
+      <c r="BA12" s="8">
+        <v>34</v>
+      </c>
+      <c r="BB12" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="BC12" s="8">
+        <v>6</v>
+      </c>
+      <c r="BD12" s="8">
+        <v>3</v>
+      </c>
       <c r="BE12" s="7"/>
       <c r="BF12" s="9"/>
       <c r="BG12" s="8"/>
@@ -4040,25 +4301,48 @@
       <c r="BO12" s="7"/>
     </row>
     <row r="13" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
+      <c r="A13" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" s="8">
+        <v>1710</v>
+      </c>
+      <c r="C13" s="8">
+        <v>3200</v>
+      </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="8"/>
+      <c r="G13" s="8" t="s">
+        <v>324</v>
+      </c>
       <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
+      <c r="I13" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>257</v>
+      </c>
       <c r="K13" s="11"/>
-      <c r="L13" s="8"/>
+      <c r="L13" s="8" t="s">
+        <v>280</v>
+      </c>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
+      <c r="P13" s="8">
+        <v>17101101</v>
+      </c>
       <c r="Q13" s="7"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
+      <c r="R13" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="S13" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="T13" s="8">
+        <v>1710</v>
+      </c>
       <c r="U13" s="8"/>
       <c r="V13" s="8"/>
       <c r="W13" s="7"/>
@@ -4081,20 +4365,44 @@
       <c r="AN13" s="7"/>
       <c r="AO13" s="7"/>
       <c r="AP13" s="7"/>
-      <c r="AQ13" s="8"/>
-      <c r="AR13" s="8"/>
-      <c r="AS13" s="8"/>
-      <c r="AT13" s="8"/>
+      <c r="AQ13" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR13" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AS13" s="8">
+        <v>2</v>
+      </c>
+      <c r="AT13" s="8">
+        <v>1</v>
+      </c>
       <c r="AU13" s="7"/>
-      <c r="AV13" s="8"/>
-      <c r="AW13" s="9"/>
-      <c r="AX13" s="8"/>
-      <c r="AY13" s="8"/>
+      <c r="AV13" s="8">
+        <v>32</v>
+      </c>
+      <c r="AW13" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="AX13" s="8">
+        <v>4</v>
+      </c>
+      <c r="AY13" s="8">
+        <v>2</v>
+      </c>
       <c r="AZ13" s="7"/>
-      <c r="BA13" s="9"/>
-      <c r="BB13" s="8"/>
-      <c r="BC13" s="8"/>
-      <c r="BD13" s="8"/>
+      <c r="BA13" s="8">
+        <v>34</v>
+      </c>
+      <c r="BB13" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="BC13" s="8">
+        <v>6</v>
+      </c>
+      <c r="BD13" s="8">
+        <v>3</v>
+      </c>
       <c r="BE13" s="7"/>
       <c r="BF13" s="8"/>
       <c r="BG13" s="8"/>
@@ -4108,25 +4416,56 @@
       <c r="BO13" s="7"/>
     </row>
     <row r="14" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
+      <c r="A14" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B14" s="8">
+        <v>1710</v>
+      </c>
+      <c r="C14" s="8">
+        <v>3200</v>
+      </c>
       <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="E14" s="8">
+        <v>60000000</v>
+      </c>
       <c r="F14" s="7"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="8"/>
+      <c r="G14" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>281</v>
+      </c>
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
+      <c r="O14" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="P14" s="8">
+        <v>17101101</v>
+      </c>
       <c r="Q14" s="7"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
+      <c r="R14" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="S14" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="T14" s="8">
+        <v>1710</v>
+      </c>
       <c r="U14" s="8"/>
       <c r="V14" s="8"/>
       <c r="W14" s="7"/>
@@ -4149,20 +4488,44 @@
       <c r="AN14" s="7"/>
       <c r="AO14" s="7"/>
       <c r="AP14" s="7"/>
-      <c r="AQ14" s="8"/>
-      <c r="AR14" s="8"/>
-      <c r="AS14" s="8"/>
-      <c r="AT14" s="8"/>
+      <c r="AQ14" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR14" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AS14" s="8">
+        <v>2</v>
+      </c>
+      <c r="AT14" s="8">
+        <v>1</v>
+      </c>
       <c r="AU14" s="7"/>
-      <c r="AV14" s="8"/>
-      <c r="AW14" s="9"/>
-      <c r="AX14" s="8"/>
-      <c r="AY14" s="8"/>
+      <c r="AV14" s="8">
+        <v>32</v>
+      </c>
+      <c r="AW14" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="AX14" s="8">
+        <v>4</v>
+      </c>
+      <c r="AY14" s="8">
+        <v>2</v>
+      </c>
       <c r="AZ14" s="7"/>
-      <c r="BA14" s="8"/>
-      <c r="BB14" s="8"/>
-      <c r="BC14" s="8"/>
-      <c r="BD14" s="8"/>
+      <c r="BA14" s="8">
+        <v>34</v>
+      </c>
+      <c r="BB14" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="BC14" s="8">
+        <v>6</v>
+      </c>
+      <c r="BD14" s="8">
+        <v>3</v>
+      </c>
       <c r="BE14" s="7"/>
       <c r="BF14" s="8"/>
       <c r="BG14" s="8"/>
@@ -4176,25 +4539,50 @@
       <c r="BO14" s="7"/>
     </row>
     <row r="15" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="A15" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" s="8">
+        <v>1710</v>
+      </c>
+      <c r="C15" s="8">
+        <v>3200</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>256</v>
+      </c>
       <c r="E15" s="8"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="8"/>
+      <c r="G15" s="8" t="s">
+        <v>326</v>
+      </c>
       <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
+      <c r="I15" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>257</v>
+      </c>
       <c r="K15" s="11"/>
-      <c r="L15" s="8"/>
+      <c r="L15" s="8" t="s">
+        <v>282</v>
+      </c>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
+      <c r="P15" s="8">
+        <v>17101101</v>
+      </c>
       <c r="Q15" s="7"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
+      <c r="R15" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="S15" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="T15" s="8">
+        <v>1710</v>
+      </c>
       <c r="U15" s="8"/>
       <c r="V15" s="8"/>
       <c r="W15" s="7"/>
@@ -4211,26 +4599,62 @@
       <c r="AH15" s="7"/>
       <c r="AI15" s="7"/>
       <c r="AJ15" s="7"/>
-      <c r="AK15" s="7"/>
-      <c r="AL15" s="10"/>
-      <c r="AM15" s="7"/>
-      <c r="AN15" s="10"/>
-      <c r="AO15" s="7"/>
-      <c r="AP15" s="7"/>
-      <c r="AQ15" s="8"/>
-      <c r="AR15" s="8"/>
-      <c r="AS15" s="8"/>
-      <c r="AT15" s="8"/>
+      <c r="AK15" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="AL15" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="AM15" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="AN15" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="AO15" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="AP15" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="AQ15" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR15" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AS15" s="8">
+        <v>2</v>
+      </c>
+      <c r="AT15" s="8">
+        <v>1</v>
+      </c>
       <c r="AU15" s="7"/>
-      <c r="AV15" s="8"/>
-      <c r="AW15" s="9"/>
-      <c r="AX15" s="8"/>
-      <c r="AY15" s="8"/>
+      <c r="AV15" s="8">
+        <v>32</v>
+      </c>
+      <c r="AW15" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="AX15" s="8">
+        <v>4</v>
+      </c>
+      <c r="AY15" s="8">
+        <v>2</v>
+      </c>
       <c r="AZ15" s="7"/>
-      <c r="BA15" s="8"/>
-      <c r="BB15" s="8"/>
-      <c r="BC15" s="8"/>
-      <c r="BD15" s="8"/>
+      <c r="BA15" s="8">
+        <v>34</v>
+      </c>
+      <c r="BB15" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="BC15" s="8">
+        <v>6</v>
+      </c>
+      <c r="BD15" s="8">
+        <v>3</v>
+      </c>
       <c r="BE15" s="7"/>
       <c r="BF15" s="8"/>
       <c r="BG15" s="8"/>
@@ -4244,25 +4668,52 @@
       <c r="BO15" s="7"/>
     </row>
     <row r="16" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
+      <c r="A16" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B16" s="8">
+        <v>1710</v>
+      </c>
+      <c r="C16" s="8">
+        <v>3200</v>
+      </c>
       <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+      <c r="E16" s="8">
+        <v>60000000</v>
+      </c>
       <c r="F16" s="7"/>
-      <c r="G16" s="8"/>
+      <c r="G16" s="8" t="s">
+        <v>327</v>
+      </c>
       <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
+      <c r="I16" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>257</v>
+      </c>
       <c r="K16" s="11"/>
-      <c r="L16" s="8"/>
+      <c r="L16" s="8" t="s">
+        <v>283</v>
+      </c>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
+      <c r="O16" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="P16" s="8">
+        <v>17101101</v>
+      </c>
       <c r="Q16" s="7"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
+      <c r="R16" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="S16" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="T16" s="8">
+        <v>1710</v>
+      </c>
       <c r="U16" s="8"/>
       <c r="V16" s="8"/>
       <c r="W16" s="7"/>
@@ -4285,20 +4736,44 @@
       <c r="AN16" s="7"/>
       <c r="AO16" s="7"/>
       <c r="AP16" s="7"/>
-      <c r="AQ16" s="8"/>
-      <c r="AR16" s="8"/>
-      <c r="AS16" s="8"/>
-      <c r="AT16" s="8"/>
+      <c r="AQ16" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR16" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AS16" s="8">
+        <v>2</v>
+      </c>
+      <c r="AT16" s="8">
+        <v>1</v>
+      </c>
       <c r="AU16" s="7"/>
-      <c r="AV16" s="8"/>
-      <c r="AW16" s="9"/>
-      <c r="AX16" s="8"/>
-      <c r="AY16" s="8"/>
+      <c r="AV16" s="8">
+        <v>32</v>
+      </c>
+      <c r="AW16" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="AX16" s="8">
+        <v>4</v>
+      </c>
+      <c r="AY16" s="8">
+        <v>2</v>
+      </c>
       <c r="AZ16" s="7"/>
-      <c r="BA16" s="8"/>
-      <c r="BB16" s="8"/>
-      <c r="BC16" s="8"/>
-      <c r="BD16" s="8"/>
+      <c r="BA16" s="8">
+        <v>34</v>
+      </c>
+      <c r="BB16" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="BC16" s="8">
+        <v>6</v>
+      </c>
+      <c r="BD16" s="8">
+        <v>3</v>
+      </c>
       <c r="BE16" s="7"/>
       <c r="BF16" s="8"/>
       <c r="BG16" s="8"/>
@@ -4311,26 +4786,55 @@
       <c r="BN16" s="8"/>
       <c r="BO16" s="7"/>
     </row>
-    <row r="17" spans="2:67" x14ac:dyDescent="0.2">
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
+    <row r="17" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" s="8">
+        <v>1710</v>
+      </c>
+      <c r="C17" s="8">
+        <v>3200</v>
+      </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="8"/>
+      <c r="G17" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>284</v>
+      </c>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
+      <c r="O17" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="P17" s="8">
+        <v>17101101</v>
+      </c>
       <c r="Q17" s="7"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
+      <c r="R17" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="S17" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="T17" s="8">
+        <v>1710</v>
+      </c>
       <c r="U17" s="8"/>
       <c r="V17" s="8"/>
       <c r="W17" s="7"/>
@@ -4353,20 +4857,44 @@
       <c r="AN17" s="7"/>
       <c r="AO17" s="7"/>
       <c r="AP17" s="7"/>
-      <c r="AQ17" s="8"/>
-      <c r="AR17" s="8"/>
-      <c r="AS17" s="8"/>
-      <c r="AT17" s="8"/>
+      <c r="AQ17" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR17" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AS17" s="8">
+        <v>2</v>
+      </c>
+      <c r="AT17" s="8">
+        <v>1</v>
+      </c>
       <c r="AU17" s="7"/>
-      <c r="AV17" s="8"/>
-      <c r="AW17" s="9"/>
-      <c r="AX17" s="8"/>
-      <c r="AY17" s="8"/>
+      <c r="AV17" s="8">
+        <v>32</v>
+      </c>
+      <c r="AW17" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="AX17" s="8">
+        <v>4</v>
+      </c>
+      <c r="AY17" s="8">
+        <v>2</v>
+      </c>
       <c r="AZ17" s="7"/>
-      <c r="BA17" s="8"/>
-      <c r="BB17" s="8"/>
-      <c r="BC17" s="8"/>
-      <c r="BD17" s="8"/>
+      <c r="BA17" s="8">
+        <v>34</v>
+      </c>
+      <c r="BB17" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="BC17" s="8">
+        <v>6</v>
+      </c>
+      <c r="BD17" s="8">
+        <v>3</v>
+      </c>
       <c r="BE17" s="7"/>
       <c r="BF17" s="8"/>
       <c r="BG17" s="8"/>
@@ -4379,62 +4907,135 @@
       <c r="BN17" s="8"/>
       <c r="BO17" s="7"/>
     </row>
-    <row r="18" spans="2:67" x14ac:dyDescent="0.2">
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
+    <row r="18" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B18" s="8">
+        <v>1710</v>
+      </c>
+      <c r="C18" s="8">
+        <v>2000</v>
+      </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
+      <c r="G18" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>285</v>
+      </c>
       <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
+      <c r="O18" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="P18" s="8">
+        <v>17101101</v>
+      </c>
       <c r="Q18" s="7"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="8"/>
+      <c r="R18" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="S18" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="T18" s="8">
+        <v>1710</v>
+      </c>
+      <c r="U18" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="V18" s="8">
+        <v>10.33</v>
+      </c>
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
-      <c r="Y18" s="8"/>
+      <c r="Y18" s="8" t="s">
+        <v>256</v>
+      </c>
       <c r="Z18" s="8"/>
-      <c r="AA18" s="8"/>
-      <c r="AB18" s="8"/>
-      <c r="AC18" s="8"/>
+      <c r="AA18" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB18" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="AC18" s="8">
+        <v>50</v>
+      </c>
       <c r="AD18" s="8"/>
       <c r="AE18" s="11"/>
       <c r="AF18" s="7"/>
       <c r="AG18" s="12"/>
-      <c r="AH18" s="8"/>
-      <c r="AI18" s="8"/>
-      <c r="AJ18" s="8"/>
+      <c r="AH18" s="8">
+        <v>2020</v>
+      </c>
+      <c r="AI18" s="8">
+        <v>15000</v>
+      </c>
+      <c r="AJ18" s="8" t="s">
+        <v>262</v>
+      </c>
       <c r="AK18" s="7"/>
       <c r="AL18" s="7"/>
       <c r="AM18" s="7"/>
       <c r="AN18" s="7"/>
       <c r="AO18" s="7"/>
       <c r="AP18" s="7"/>
-      <c r="AQ18" s="8"/>
-      <c r="AR18" s="8"/>
-      <c r="AS18" s="8"/>
-      <c r="AT18" s="8"/>
+      <c r="AQ18" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR18" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AS18" s="8">
+        <v>2</v>
+      </c>
+      <c r="AT18" s="8">
+        <v>1</v>
+      </c>
       <c r="AU18" s="7"/>
-      <c r="AV18" s="8"/>
-      <c r="AW18" s="9"/>
-      <c r="AX18" s="8"/>
-      <c r="AY18" s="8"/>
+      <c r="AV18" s="8">
+        <v>32</v>
+      </c>
+      <c r="AW18" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="AX18" s="8">
+        <v>4</v>
+      </c>
+      <c r="AY18" s="8">
+        <v>2</v>
+      </c>
       <c r="AZ18" s="7"/>
-      <c r="BA18" s="8"/>
-      <c r="BB18" s="8"/>
-      <c r="BC18" s="8"/>
-      <c r="BD18" s="8"/>
+      <c r="BA18" s="8">
+        <v>34</v>
+      </c>
+      <c r="BB18" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="BC18" s="8">
+        <v>6</v>
+      </c>
+      <c r="BD18" s="8">
+        <v>3</v>
+      </c>
       <c r="BE18" s="7"/>
       <c r="BF18" s="9"/>
       <c r="BG18" s="8"/>
@@ -4447,26 +5048,49 @@
       <c r="BN18" s="8"/>
       <c r="BO18" s="7"/>
     </row>
-    <row r="19" spans="2:67" x14ac:dyDescent="0.2">
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
+    <row r="19" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B19" s="8">
+        <v>1710</v>
+      </c>
+      <c r="C19" s="8">
+        <v>3200</v>
+      </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="8"/>
+      <c r="G19" s="8" t="s">
+        <v>330</v>
+      </c>
       <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
+      <c r="I19" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>257</v>
+      </c>
       <c r="K19" s="11"/>
-      <c r="L19" s="8"/>
+      <c r="L19" s="8" t="s">
+        <v>280</v>
+      </c>
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
+      <c r="P19" s="8">
+        <v>17101101</v>
+      </c>
       <c r="Q19" s="7"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
+      <c r="R19" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="S19" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="T19" s="8">
+        <v>1710</v>
+      </c>
       <c r="U19" s="8"/>
       <c r="V19" s="8"/>
       <c r="W19" s="7"/>
@@ -4489,20 +5113,44 @@
       <c r="AN19" s="7"/>
       <c r="AO19" s="7"/>
       <c r="AP19" s="7"/>
-      <c r="AQ19" s="8"/>
-      <c r="AR19" s="8"/>
-      <c r="AS19" s="8"/>
-      <c r="AT19" s="8"/>
+      <c r="AQ19" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR19" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AS19" s="8">
+        <v>2</v>
+      </c>
+      <c r="AT19" s="8">
+        <v>1</v>
+      </c>
       <c r="AU19" s="7"/>
-      <c r="AV19" s="8"/>
-      <c r="AW19" s="9"/>
-      <c r="AX19" s="8"/>
-      <c r="AY19" s="8"/>
+      <c r="AV19" s="8">
+        <v>32</v>
+      </c>
+      <c r="AW19" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="AX19" s="8">
+        <v>4</v>
+      </c>
+      <c r="AY19" s="8">
+        <v>2</v>
+      </c>
       <c r="AZ19" s="7"/>
-      <c r="BA19" s="9"/>
-      <c r="BB19" s="8"/>
-      <c r="BC19" s="8"/>
-      <c r="BD19" s="8"/>
+      <c r="BA19" s="8">
+        <v>34</v>
+      </c>
+      <c r="BB19" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="BC19" s="8">
+        <v>6</v>
+      </c>
+      <c r="BD19" s="8">
+        <v>3</v>
+      </c>
       <c r="BE19" s="7"/>
       <c r="BF19" s="8"/>
       <c r="BG19" s="8"/>
@@ -4515,26 +5163,57 @@
       <c r="BN19" s="8"/>
       <c r="BO19" s="7"/>
     </row>
-    <row r="20" spans="2:67" x14ac:dyDescent="0.2">
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
+    <row r="20" spans="1:67" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="8">
+        <v>1710</v>
+      </c>
+      <c r="C20" s="8">
+        <v>3200</v>
+      </c>
       <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="E20" s="8">
+        <v>60000000</v>
+      </c>
       <c r="F20" s="7"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="8"/>
+      <c r="G20" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>281</v>
+      </c>
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
+      <c r="O20" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="P20" s="8">
+        <v>17101101</v>
+      </c>
       <c r="Q20" s="7"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
+      <c r="R20" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="S20" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="T20" s="8">
+        <v>1710</v>
+      </c>
       <c r="U20" s="8"/>
       <c r="V20" s="8"/>
       <c r="W20" s="7"/>
@@ -4557,20 +5236,44 @@
       <c r="AN20" s="7"/>
       <c r="AO20" s="7"/>
       <c r="AP20" s="7"/>
-      <c r="AQ20" s="8"/>
-      <c r="AR20" s="8"/>
-      <c r="AS20" s="8"/>
-      <c r="AT20" s="8"/>
+      <c r="AQ20" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR20" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AS20" s="8">
+        <v>2</v>
+      </c>
+      <c r="AT20" s="8">
+        <v>1</v>
+      </c>
       <c r="AU20" s="7"/>
-      <c r="AV20" s="8"/>
-      <c r="AW20" s="9"/>
-      <c r="AX20" s="8"/>
-      <c r="AY20" s="8"/>
+      <c r="AV20" s="8">
+        <v>32</v>
+      </c>
+      <c r="AW20" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="AX20" s="8">
+        <v>4</v>
+      </c>
+      <c r="AY20" s="8">
+        <v>2</v>
+      </c>
       <c r="AZ20" s="7"/>
-      <c r="BA20" s="8"/>
-      <c r="BB20" s="8"/>
-      <c r="BC20" s="8"/>
-      <c r="BD20" s="8"/>
+      <c r="BA20" s="8">
+        <v>34</v>
+      </c>
+      <c r="BB20" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="BC20" s="8">
+        <v>6</v>
+      </c>
+      <c r="BD20" s="8">
+        <v>3</v>
+      </c>
       <c r="BE20" s="7"/>
       <c r="BF20" s="8"/>
       <c r="BG20" s="8"/>
@@ -4583,26 +5286,51 @@
       <c r="BN20" s="8"/>
       <c r="BO20" s="7"/>
     </row>
-    <row r="21" spans="2:67" x14ac:dyDescent="0.2">
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
+    <row r="21" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B21" s="8">
+        <v>1710</v>
+      </c>
+      <c r="C21" s="8">
+        <v>3200</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>256</v>
+      </c>
       <c r="E21" s="8"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="8"/>
+      <c r="G21" s="8" t="s">
+        <v>332</v>
+      </c>
       <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
+      <c r="I21" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>257</v>
+      </c>
       <c r="K21" s="11"/>
-      <c r="L21" s="8"/>
+      <c r="L21" s="8" t="s">
+        <v>282</v>
+      </c>
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
+      <c r="P21" s="8">
+        <v>17101101</v>
+      </c>
       <c r="Q21" s="7"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
+      <c r="R21" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="S21" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="T21" s="8">
+        <v>1710</v>
+      </c>
       <c r="U21" s="8"/>
       <c r="V21" s="8"/>
       <c r="W21" s="7"/>
@@ -4619,26 +5347,62 @@
       <c r="AH21" s="7"/>
       <c r="AI21" s="7"/>
       <c r="AJ21" s="7"/>
-      <c r="AK21" s="7"/>
-      <c r="AL21" s="10"/>
-      <c r="AM21" s="7"/>
-      <c r="AN21" s="10"/>
-      <c r="AO21" s="7"/>
-      <c r="AP21" s="7"/>
-      <c r="AQ21" s="8"/>
-      <c r="AR21" s="8"/>
-      <c r="AS21" s="8"/>
-      <c r="AT21" s="8"/>
+      <c r="AK21" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="AL21" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="AM21" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="AN21" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="AO21" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="AP21" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="AQ21" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR21" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AS21" s="8">
+        <v>2</v>
+      </c>
+      <c r="AT21" s="8">
+        <v>1</v>
+      </c>
       <c r="AU21" s="7"/>
-      <c r="AV21" s="8"/>
-      <c r="AW21" s="9"/>
-      <c r="AX21" s="8"/>
-      <c r="AY21" s="8"/>
+      <c r="AV21" s="8">
+        <v>32</v>
+      </c>
+      <c r="AW21" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="AX21" s="8">
+        <v>4</v>
+      </c>
+      <c r="AY21" s="8">
+        <v>2</v>
+      </c>
       <c r="AZ21" s="7"/>
-      <c r="BA21" s="8"/>
-      <c r="BB21" s="8"/>
-      <c r="BC21" s="8"/>
-      <c r="BD21" s="8"/>
+      <c r="BA21" s="8">
+        <v>34</v>
+      </c>
+      <c r="BB21" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="BC21" s="8">
+        <v>6</v>
+      </c>
+      <c r="BD21" s="8">
+        <v>3</v>
+      </c>
       <c r="BE21" s="7"/>
       <c r="BF21" s="8"/>
       <c r="BG21" s="8"/>
@@ -4651,26 +5415,53 @@
       <c r="BN21" s="8"/>
       <c r="BO21" s="7"/>
     </row>
-    <row r="22" spans="2:67" x14ac:dyDescent="0.2">
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
+    <row r="22" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B22" s="8">
+        <v>1710</v>
+      </c>
+      <c r="C22" s="8">
+        <v>3200</v>
+      </c>
       <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
+      <c r="E22" s="8">
+        <v>60000000</v>
+      </c>
       <c r="F22" s="7"/>
-      <c r="G22" s="8"/>
+      <c r="G22" s="8" t="s">
+        <v>333</v>
+      </c>
       <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
+      <c r="I22" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>257</v>
+      </c>
       <c r="K22" s="11"/>
-      <c r="L22" s="8"/>
+      <c r="L22" s="8" t="s">
+        <v>283</v>
+      </c>
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
+      <c r="O22" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="P22" s="8">
+        <v>17101101</v>
+      </c>
       <c r="Q22" s="7"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
+      <c r="R22" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="S22" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="T22" s="8">
+        <v>1710</v>
+      </c>
       <c r="U22" s="8"/>
       <c r="V22" s="8"/>
       <c r="W22" s="7"/>
@@ -4693,20 +5484,44 @@
       <c r="AN22" s="7"/>
       <c r="AO22" s="7"/>
       <c r="AP22" s="7"/>
-      <c r="AQ22" s="8"/>
-      <c r="AR22" s="8"/>
-      <c r="AS22" s="8"/>
-      <c r="AT22" s="8"/>
+      <c r="AQ22" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR22" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AS22" s="8">
+        <v>2</v>
+      </c>
+      <c r="AT22" s="8">
+        <v>1</v>
+      </c>
       <c r="AU22" s="7"/>
-      <c r="AV22" s="8"/>
-      <c r="AW22" s="9"/>
-      <c r="AX22" s="8"/>
-      <c r="AY22" s="8"/>
+      <c r="AV22" s="8">
+        <v>32</v>
+      </c>
+      <c r="AW22" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="AX22" s="8">
+        <v>4</v>
+      </c>
+      <c r="AY22" s="8">
+        <v>2</v>
+      </c>
       <c r="AZ22" s="7"/>
-      <c r="BA22" s="8"/>
-      <c r="BB22" s="8"/>
-      <c r="BC22" s="8"/>
-      <c r="BD22" s="8"/>
+      <c r="BA22" s="8">
+        <v>34</v>
+      </c>
+      <c r="BB22" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="BC22" s="8">
+        <v>6</v>
+      </c>
+      <c r="BD22" s="8">
+        <v>3</v>
+      </c>
       <c r="BE22" s="7"/>
       <c r="BF22" s="8"/>
       <c r="BG22" s="8"/>
@@ -4719,26 +5534,55 @@
       <c r="BN22" s="8"/>
       <c r="BO22" s="7"/>
     </row>
-    <row r="23" spans="2:67" x14ac:dyDescent="0.2">
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
+    <row r="23" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="8">
+        <v>1710</v>
+      </c>
+      <c r="C23" s="8">
+        <v>3200</v>
+      </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="8"/>
+      <c r="G23" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>284</v>
+      </c>
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
+      <c r="O23" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="P23" s="8">
+        <v>17101101</v>
+      </c>
       <c r="Q23" s="7"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
+      <c r="R23" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="S23" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="T23" s="8">
+        <v>1710</v>
+      </c>
       <c r="U23" s="8"/>
       <c r="V23" s="8"/>
       <c r="W23" s="7"/>
@@ -4761,20 +5605,44 @@
       <c r="AN23" s="7"/>
       <c r="AO23" s="7"/>
       <c r="AP23" s="7"/>
-      <c r="AQ23" s="8"/>
-      <c r="AR23" s="8"/>
-      <c r="AS23" s="8"/>
-      <c r="AT23" s="8"/>
+      <c r="AQ23" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR23" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AS23" s="8">
+        <v>2</v>
+      </c>
+      <c r="AT23" s="8">
+        <v>1</v>
+      </c>
       <c r="AU23" s="7"/>
-      <c r="AV23" s="8"/>
-      <c r="AW23" s="9"/>
-      <c r="AX23" s="8"/>
-      <c r="AY23" s="8"/>
+      <c r="AV23" s="8">
+        <v>32</v>
+      </c>
+      <c r="AW23" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="AX23" s="8">
+        <v>4</v>
+      </c>
+      <c r="AY23" s="8">
+        <v>2</v>
+      </c>
       <c r="AZ23" s="7"/>
-      <c r="BA23" s="8"/>
-      <c r="BB23" s="8"/>
-      <c r="BC23" s="8"/>
-      <c r="BD23" s="8"/>
+      <c r="BA23" s="8">
+        <v>34</v>
+      </c>
+      <c r="BB23" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="BC23" s="8">
+        <v>6</v>
+      </c>
+      <c r="BD23" s="8">
+        <v>3</v>
+      </c>
       <c r="BE23" s="7"/>
       <c r="BF23" s="8"/>
       <c r="BG23" s="8"/>
@@ -4787,1637 +5655,3745 @@
       <c r="BN23" s="8"/>
       <c r="BO23" s="7"/>
     </row>
-    <row r="24" spans="2:67" x14ac:dyDescent="0.2">
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="13"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="13"/>
-      <c r="W24" s="14"/>
-      <c r="X24" s="14"/>
-      <c r="Y24" s="13"/>
-      <c r="Z24" s="13"/>
-      <c r="AA24" s="13"/>
-      <c r="AB24" s="13"/>
-      <c r="AC24" s="13"/>
-      <c r="AD24" s="13"/>
-      <c r="AE24" s="12"/>
-      <c r="AF24" s="14"/>
+    <row r="24" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B24" s="8">
+        <v>1710</v>
+      </c>
+      <c r="C24" s="8">
+        <v>2000</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="P24" s="8">
+        <v>17101101</v>
+      </c>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="S24" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="T24" s="8">
+        <v>1710</v>
+      </c>
+      <c r="U24" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="V24" s="8">
+        <v>10.33</v>
+      </c>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB24" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="AC24" s="8">
+        <v>50</v>
+      </c>
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="11"/>
+      <c r="AF24" s="7"/>
       <c r="AG24" s="12"/>
-      <c r="AH24" s="13"/>
-      <c r="AI24" s="13"/>
-      <c r="AJ24" s="13"/>
-      <c r="AK24" s="14"/>
-      <c r="AL24" s="14"/>
-      <c r="AM24" s="14"/>
-      <c r="AN24" s="14"/>
-      <c r="AO24" s="14"/>
-      <c r="AP24" s="14"/>
-      <c r="AQ24" s="13"/>
-      <c r="AR24" s="13"/>
-      <c r="AS24" s="13"/>
-      <c r="AT24" s="13"/>
-      <c r="AU24" s="14"/>
-      <c r="AV24" s="13"/>
-      <c r="AW24" s="13"/>
-      <c r="AX24" s="13"/>
-      <c r="AY24" s="13"/>
-      <c r="AZ24" s="14"/>
-      <c r="BA24" s="13"/>
-      <c r="BB24" s="13"/>
-      <c r="BC24" s="13"/>
-      <c r="BD24" s="13"/>
-      <c r="BE24" s="14"/>
-      <c r="BF24" s="13"/>
-      <c r="BG24" s="13"/>
-      <c r="BH24" s="13"/>
-      <c r="BI24" s="13"/>
-      <c r="BJ24" s="14"/>
-      <c r="BK24" s="13"/>
-      <c r="BL24" s="13"/>
-      <c r="BM24" s="13"/>
-      <c r="BN24" s="13"/>
-      <c r="BO24" s="14"/>
-    </row>
-    <row r="25" spans="2:67" x14ac:dyDescent="0.2">
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="13"/>
-      <c r="V25" s="13"/>
-      <c r="W25" s="14"/>
-      <c r="X25" s="14"/>
-      <c r="Y25" s="14"/>
-      <c r="Z25" s="14"/>
-      <c r="AA25" s="14"/>
-      <c r="AB25" s="14"/>
-      <c r="AC25" s="14"/>
-      <c r="AD25" s="14"/>
-      <c r="AE25" s="14"/>
-      <c r="AF25" s="14"/>
-      <c r="AG25" s="14"/>
-      <c r="AH25" s="14"/>
-      <c r="AI25" s="14"/>
-      <c r="AJ25" s="14"/>
-      <c r="AK25" s="14"/>
-      <c r="AL25" s="14"/>
-      <c r="AM25" s="14"/>
-      <c r="AN25" s="14"/>
-      <c r="AO25" s="14"/>
-      <c r="AP25" s="14"/>
-      <c r="AQ25" s="13"/>
-      <c r="AR25" s="13"/>
-      <c r="AS25" s="13"/>
-      <c r="AT25" s="13"/>
-      <c r="AU25" s="14"/>
-      <c r="AV25" s="13"/>
-      <c r="AW25" s="13"/>
-      <c r="AX25" s="13"/>
-      <c r="AY25" s="13"/>
-      <c r="AZ25" s="14"/>
-      <c r="BA25" s="13"/>
-      <c r="BB25" s="13"/>
-      <c r="BC25" s="13"/>
-      <c r="BD25" s="13"/>
-      <c r="BE25" s="14"/>
-      <c r="BF25" s="13"/>
-      <c r="BG25" s="13"/>
-      <c r="BH25" s="13"/>
-      <c r="BI25" s="13"/>
-      <c r="BJ25" s="14"/>
-      <c r="BK25" s="13"/>
-      <c r="BL25" s="13"/>
-      <c r="BM25" s="13"/>
-      <c r="BN25" s="13"/>
-      <c r="BO25" s="14"/>
-    </row>
-    <row r="26" spans="2:67" x14ac:dyDescent="0.2">
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="13"/>
-      <c r="V26" s="13"/>
-      <c r="W26" s="14"/>
-      <c r="X26" s="14"/>
-      <c r="Y26" s="14"/>
-      <c r="Z26" s="14"/>
-      <c r="AA26" s="14"/>
-      <c r="AB26" s="14"/>
-      <c r="AC26" s="14"/>
-      <c r="AD26" s="14"/>
-      <c r="AE26" s="14"/>
-      <c r="AF26" s="14"/>
-      <c r="AG26" s="14"/>
-      <c r="AH26" s="14"/>
-      <c r="AI26" s="14"/>
-      <c r="AJ26" s="14"/>
-      <c r="AK26" s="14"/>
-      <c r="AL26" s="14"/>
-      <c r="AM26" s="14"/>
-      <c r="AN26" s="14"/>
-      <c r="AO26" s="14"/>
-      <c r="AP26" s="14"/>
-      <c r="AQ26" s="13"/>
-      <c r="AR26" s="13"/>
-      <c r="AS26" s="13"/>
-      <c r="AT26" s="13"/>
-      <c r="AU26" s="14"/>
-      <c r="AV26" s="13"/>
-      <c r="AW26" s="13"/>
-      <c r="AX26" s="13"/>
-      <c r="AY26" s="13"/>
-      <c r="AZ26" s="14"/>
-      <c r="BA26" s="13"/>
-      <c r="BB26" s="13"/>
-      <c r="BC26" s="13"/>
-      <c r="BD26" s="13"/>
-      <c r="BE26" s="14"/>
-      <c r="BF26" s="13"/>
-      <c r="BG26" s="13"/>
-      <c r="BH26" s="13"/>
-      <c r="BI26" s="13"/>
-      <c r="BJ26" s="14"/>
-      <c r="BK26" s="13"/>
-      <c r="BL26" s="13"/>
-      <c r="BM26" s="13"/>
-      <c r="BN26" s="13"/>
-      <c r="BO26" s="14"/>
-    </row>
-    <row r="27" spans="2:67" x14ac:dyDescent="0.2">
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="13"/>
-      <c r="V27" s="13"/>
-      <c r="W27" s="14"/>
-      <c r="X27" s="14"/>
-      <c r="Y27" s="14"/>
-      <c r="Z27" s="14"/>
-      <c r="AA27" s="14"/>
-      <c r="AB27" s="14"/>
-      <c r="AC27" s="14"/>
-      <c r="AD27" s="14"/>
-      <c r="AE27" s="14"/>
-      <c r="AF27" s="14"/>
-      <c r="AG27" s="14"/>
-      <c r="AH27" s="14"/>
-      <c r="AI27" s="14"/>
-      <c r="AJ27" s="14"/>
-      <c r="AK27" s="14"/>
-      <c r="AL27" s="10"/>
-      <c r="AM27" s="14"/>
-      <c r="AN27" s="10"/>
-      <c r="AO27" s="14"/>
-      <c r="AP27" s="14"/>
-      <c r="AQ27" s="13"/>
-      <c r="AR27" s="13"/>
-      <c r="AS27" s="13"/>
-      <c r="AT27" s="13"/>
-      <c r="AU27" s="14"/>
-      <c r="AV27" s="13"/>
-      <c r="AW27" s="13"/>
-      <c r="AX27" s="13"/>
-      <c r="AY27" s="13"/>
-      <c r="AZ27" s="14"/>
-      <c r="BA27" s="13"/>
-      <c r="BB27" s="13"/>
-      <c r="BC27" s="13"/>
-      <c r="BD27" s="13"/>
-      <c r="BE27" s="14"/>
-      <c r="BF27" s="13"/>
-      <c r="BG27" s="13"/>
-      <c r="BH27" s="13"/>
-      <c r="BI27" s="13"/>
-      <c r="BJ27" s="14"/>
-      <c r="BK27" s="13"/>
-      <c r="BL27" s="13"/>
-      <c r="BM27" s="13"/>
-      <c r="BN27" s="13"/>
-      <c r="BO27" s="14"/>
-    </row>
-    <row r="28" spans="2:67" x14ac:dyDescent="0.2">
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="13"/>
-      <c r="W28" s="14"/>
-      <c r="X28" s="14"/>
-      <c r="Y28" s="14"/>
-      <c r="Z28" s="14"/>
-      <c r="AA28" s="14"/>
-      <c r="AB28" s="14"/>
-      <c r="AC28" s="14"/>
-      <c r="AD28" s="14"/>
-      <c r="AE28" s="14"/>
-      <c r="AF28" s="14"/>
-      <c r="AG28" s="14"/>
-      <c r="AH28" s="14"/>
-      <c r="AI28" s="14"/>
-      <c r="AJ28" s="14"/>
-      <c r="AK28" s="14"/>
-      <c r="AL28" s="14"/>
-      <c r="AM28" s="14"/>
-      <c r="AN28" s="14"/>
-      <c r="AO28" s="14"/>
-      <c r="AP28" s="14"/>
-      <c r="AQ28" s="13"/>
-      <c r="AR28" s="13"/>
-      <c r="AS28" s="13"/>
-      <c r="AT28" s="13"/>
-      <c r="AU28" s="14"/>
-      <c r="AV28" s="13"/>
-      <c r="AW28" s="13"/>
-      <c r="AX28" s="13"/>
-      <c r="AY28" s="13"/>
-      <c r="AZ28" s="14"/>
-      <c r="BA28" s="13"/>
-      <c r="BB28" s="13"/>
-      <c r="BC28" s="13"/>
-      <c r="BD28" s="13"/>
-      <c r="BE28" s="14"/>
-      <c r="BF28" s="13"/>
-      <c r="BG28" s="13"/>
-      <c r="BH28" s="13"/>
-      <c r="BI28" s="13"/>
-      <c r="BJ28" s="14"/>
-      <c r="BK28" s="13"/>
-      <c r="BL28" s="13"/>
-      <c r="BM28" s="13"/>
-      <c r="BN28" s="13"/>
-      <c r="BO28" s="14"/>
-    </row>
-    <row r="29" spans="2:67" x14ac:dyDescent="0.2">
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="14"/>
-      <c r="X29" s="14"/>
-      <c r="Y29" s="14"/>
-      <c r="Z29" s="14"/>
-      <c r="AA29" s="14"/>
-      <c r="AB29" s="14"/>
-      <c r="AC29" s="14"/>
-      <c r="AD29" s="14"/>
-      <c r="AE29" s="14"/>
-      <c r="AF29" s="14"/>
-      <c r="AG29" s="14"/>
-      <c r="AH29" s="14"/>
-      <c r="AI29" s="14"/>
-      <c r="AJ29" s="14"/>
-      <c r="AK29" s="14"/>
-      <c r="AL29" s="14"/>
-      <c r="AM29" s="14"/>
-      <c r="AN29" s="14"/>
-      <c r="AO29" s="14"/>
-      <c r="AP29" s="14"/>
-      <c r="AQ29" s="13"/>
-      <c r="AR29" s="13"/>
-      <c r="AS29" s="13"/>
-      <c r="AT29" s="13"/>
-      <c r="AU29" s="14"/>
-      <c r="AV29" s="13"/>
-      <c r="AW29" s="13"/>
-      <c r="AX29" s="13"/>
-      <c r="AY29" s="13"/>
-      <c r="AZ29" s="14"/>
-      <c r="BA29" s="13"/>
-      <c r="BB29" s="13"/>
-      <c r="BC29" s="13"/>
-      <c r="BD29" s="13"/>
-      <c r="BE29" s="14"/>
-      <c r="BF29" s="13"/>
-      <c r="BG29" s="13"/>
-      <c r="BH29" s="13"/>
-      <c r="BI29" s="13"/>
-      <c r="BJ29" s="14"/>
-      <c r="BK29" s="13"/>
-      <c r="BL29" s="13"/>
-      <c r="BM29" s="13"/>
-      <c r="BN29" s="13"/>
-      <c r="BO29" s="14"/>
-    </row>
-    <row r="30" spans="2:67" x14ac:dyDescent="0.2">
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="13"/>
-      <c r="S30" s="13"/>
-      <c r="T30" s="13"/>
-      <c r="U30" s="13"/>
-      <c r="V30" s="13"/>
-      <c r="W30" s="14"/>
-      <c r="X30" s="14"/>
-      <c r="Y30" s="13"/>
-      <c r="Z30" s="13"/>
-      <c r="AA30" s="13"/>
-      <c r="AB30" s="13"/>
-      <c r="AC30" s="13"/>
-      <c r="AD30" s="13"/>
-      <c r="AE30" s="12"/>
-      <c r="AF30" s="14"/>
+      <c r="AH24" s="8">
+        <v>2020</v>
+      </c>
+      <c r="AI24" s="8">
+        <v>15000</v>
+      </c>
+      <c r="AJ24" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="AK24" s="7"/>
+      <c r="AL24" s="7"/>
+      <c r="AM24" s="7"/>
+      <c r="AN24" s="7"/>
+      <c r="AO24" s="7"/>
+      <c r="AP24" s="7"/>
+      <c r="AQ24" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR24" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AS24" s="8">
+        <v>2</v>
+      </c>
+      <c r="AT24" s="8">
+        <v>1</v>
+      </c>
+      <c r="AU24" s="7"/>
+      <c r="AV24" s="8">
+        <v>32</v>
+      </c>
+      <c r="AW24" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="AX24" s="8">
+        <v>4</v>
+      </c>
+      <c r="AY24" s="8">
+        <v>2</v>
+      </c>
+      <c r="AZ24" s="7"/>
+      <c r="BA24" s="8">
+        <v>34</v>
+      </c>
+      <c r="BB24" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="BC24" s="8">
+        <v>6</v>
+      </c>
+      <c r="BD24" s="8">
+        <v>3</v>
+      </c>
+      <c r="BE24" s="7"/>
+      <c r="BF24" s="9"/>
+      <c r="BG24" s="8"/>
+      <c r="BH24" s="8"/>
+      <c r="BI24" s="8"/>
+      <c r="BJ24" s="7"/>
+      <c r="BK24" s="8"/>
+      <c r="BL24" s="8"/>
+      <c r="BM24" s="8"/>
+      <c r="BN24" s="8"/>
+      <c r="BO24" s="7"/>
+    </row>
+    <row r="25" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B25" s="8">
+        <v>1710</v>
+      </c>
+      <c r="C25" s="8">
+        <v>3200</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="K25" s="11"/>
+      <c r="L25" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8">
+        <v>17101101</v>
+      </c>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="S25" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="T25" s="8">
+        <v>1710</v>
+      </c>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="7"/>
+      <c r="AC25" s="7"/>
+      <c r="AD25" s="7"/>
+      <c r="AE25" s="7"/>
+      <c r="AF25" s="7"/>
+      <c r="AG25" s="7"/>
+      <c r="AH25" s="7"/>
+      <c r="AI25" s="7"/>
+      <c r="AJ25" s="7"/>
+      <c r="AK25" s="7"/>
+      <c r="AL25" s="7"/>
+      <c r="AM25" s="7"/>
+      <c r="AN25" s="7"/>
+      <c r="AO25" s="7"/>
+      <c r="AP25" s="7"/>
+      <c r="AQ25" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR25" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AS25" s="8">
+        <v>2</v>
+      </c>
+      <c r="AT25" s="8">
+        <v>1</v>
+      </c>
+      <c r="AU25" s="7"/>
+      <c r="AV25" s="8">
+        <v>32</v>
+      </c>
+      <c r="AW25" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="AX25" s="8">
+        <v>4</v>
+      </c>
+      <c r="AY25" s="8">
+        <v>2</v>
+      </c>
+      <c r="AZ25" s="7"/>
+      <c r="BA25" s="8">
+        <v>34</v>
+      </c>
+      <c r="BB25" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="BC25" s="8">
+        <v>6</v>
+      </c>
+      <c r="BD25" s="8">
+        <v>3</v>
+      </c>
+      <c r="BE25" s="7"/>
+      <c r="BF25" s="8"/>
+      <c r="BG25" s="8"/>
+      <c r="BH25" s="8"/>
+      <c r="BI25" s="8"/>
+      <c r="BJ25" s="7"/>
+      <c r="BK25" s="8"/>
+      <c r="BL25" s="8"/>
+      <c r="BM25" s="8"/>
+      <c r="BN25" s="8"/>
+      <c r="BO25" s="7"/>
+    </row>
+    <row r="26" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B26" s="8">
+        <v>1710</v>
+      </c>
+      <c r="C26" s="8">
+        <v>3200</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8">
+        <v>60000000</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="P26" s="8">
+        <v>17101101</v>
+      </c>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="S26" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="T26" s="8">
+        <v>1710</v>
+      </c>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="7"/>
+      <c r="AC26" s="7"/>
+      <c r="AD26" s="7"/>
+      <c r="AE26" s="7"/>
+      <c r="AF26" s="7"/>
+      <c r="AG26" s="7"/>
+      <c r="AH26" s="7"/>
+      <c r="AI26" s="7"/>
+      <c r="AJ26" s="7"/>
+      <c r="AK26" s="7"/>
+      <c r="AL26" s="7"/>
+      <c r="AM26" s="7"/>
+      <c r="AN26" s="7"/>
+      <c r="AO26" s="7"/>
+      <c r="AP26" s="7"/>
+      <c r="AQ26" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR26" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AS26" s="8">
+        <v>2</v>
+      </c>
+      <c r="AT26" s="8">
+        <v>1</v>
+      </c>
+      <c r="AU26" s="7"/>
+      <c r="AV26" s="8">
+        <v>32</v>
+      </c>
+      <c r="AW26" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="AX26" s="8">
+        <v>4</v>
+      </c>
+      <c r="AY26" s="8">
+        <v>2</v>
+      </c>
+      <c r="AZ26" s="7"/>
+      <c r="BA26" s="8">
+        <v>34</v>
+      </c>
+      <c r="BB26" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="BC26" s="8">
+        <v>6</v>
+      </c>
+      <c r="BD26" s="8">
+        <v>3</v>
+      </c>
+      <c r="BE26" s="7"/>
+      <c r="BF26" s="8"/>
+      <c r="BG26" s="8"/>
+      <c r="BH26" s="8"/>
+      <c r="BI26" s="8"/>
+      <c r="BJ26" s="7"/>
+      <c r="BK26" s="8"/>
+      <c r="BL26" s="8"/>
+      <c r="BM26" s="8"/>
+      <c r="BN26" s="8"/>
+      <c r="BO26" s="7"/>
+    </row>
+    <row r="27" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B27" s="8">
+        <v>1710</v>
+      </c>
+      <c r="C27" s="8">
+        <v>3200</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="K27" s="11"/>
+      <c r="L27" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8">
+        <v>17101101</v>
+      </c>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="S27" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="T27" s="8">
+        <v>1710</v>
+      </c>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="7"/>
+      <c r="AC27" s="7"/>
+      <c r="AD27" s="7"/>
+      <c r="AE27" s="7"/>
+      <c r="AF27" s="7"/>
+      <c r="AG27" s="7"/>
+      <c r="AH27" s="7"/>
+      <c r="AI27" s="7"/>
+      <c r="AJ27" s="7"/>
+      <c r="AK27" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="AL27" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="AM27" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="AN27" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="AO27" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="AP27" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="AQ27" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR27" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AS27" s="8">
+        <v>2</v>
+      </c>
+      <c r="AT27" s="8">
+        <v>1</v>
+      </c>
+      <c r="AU27" s="7"/>
+      <c r="AV27" s="8">
+        <v>32</v>
+      </c>
+      <c r="AW27" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="AX27" s="8">
+        <v>4</v>
+      </c>
+      <c r="AY27" s="8">
+        <v>2</v>
+      </c>
+      <c r="AZ27" s="7"/>
+      <c r="BA27" s="8">
+        <v>34</v>
+      </c>
+      <c r="BB27" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="BC27" s="8">
+        <v>6</v>
+      </c>
+      <c r="BD27" s="8">
+        <v>3</v>
+      </c>
+      <c r="BE27" s="7"/>
+      <c r="BF27" s="8"/>
+      <c r="BG27" s="8"/>
+      <c r="BH27" s="8"/>
+      <c r="BI27" s="8"/>
+      <c r="BJ27" s="7"/>
+      <c r="BK27" s="8"/>
+      <c r="BL27" s="8"/>
+      <c r="BM27" s="8"/>
+      <c r="BN27" s="8"/>
+      <c r="BO27" s="7"/>
+    </row>
+    <row r="28" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B28" s="8">
+        <v>1710</v>
+      </c>
+      <c r="C28" s="8">
+        <v>3200</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8">
+        <v>60000000</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="K28" s="11"/>
+      <c r="L28" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="P28" s="8">
+        <v>17101101</v>
+      </c>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="S28" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="T28" s="8">
+        <v>1710</v>
+      </c>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="7"/>
+      <c r="AC28" s="7"/>
+      <c r="AD28" s="7"/>
+      <c r="AE28" s="7"/>
+      <c r="AF28" s="7"/>
+      <c r="AG28" s="7"/>
+      <c r="AH28" s="7"/>
+      <c r="AI28" s="7"/>
+      <c r="AJ28" s="7"/>
+      <c r="AK28" s="7"/>
+      <c r="AL28" s="7"/>
+      <c r="AM28" s="7"/>
+      <c r="AN28" s="7"/>
+      <c r="AO28" s="7"/>
+      <c r="AP28" s="7"/>
+      <c r="AQ28" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR28" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AS28" s="8">
+        <v>2</v>
+      </c>
+      <c r="AT28" s="8">
+        <v>1</v>
+      </c>
+      <c r="AU28" s="7"/>
+      <c r="AV28" s="8">
+        <v>32</v>
+      </c>
+      <c r="AW28" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="AX28" s="8">
+        <v>4</v>
+      </c>
+      <c r="AY28" s="8">
+        <v>2</v>
+      </c>
+      <c r="AZ28" s="7"/>
+      <c r="BA28" s="8">
+        <v>34</v>
+      </c>
+      <c r="BB28" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="BC28" s="8">
+        <v>6</v>
+      </c>
+      <c r="BD28" s="8">
+        <v>3</v>
+      </c>
+      <c r="BE28" s="7"/>
+      <c r="BF28" s="8"/>
+      <c r="BG28" s="8"/>
+      <c r="BH28" s="8"/>
+      <c r="BI28" s="8"/>
+      <c r="BJ28" s="7"/>
+      <c r="BK28" s="8"/>
+      <c r="BL28" s="8"/>
+      <c r="BM28" s="8"/>
+      <c r="BN28" s="8"/>
+      <c r="BO28" s="7"/>
+    </row>
+    <row r="29" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B29" s="8">
+        <v>1710</v>
+      </c>
+      <c r="C29" s="8">
+        <v>3200</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="P29" s="8">
+        <v>17101101</v>
+      </c>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="S29" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="T29" s="8">
+        <v>1710</v>
+      </c>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="7"/>
+      <c r="AC29" s="7"/>
+      <c r="AD29" s="7"/>
+      <c r="AE29" s="7"/>
+      <c r="AF29" s="7"/>
+      <c r="AG29" s="7"/>
+      <c r="AH29" s="7"/>
+      <c r="AI29" s="7"/>
+      <c r="AJ29" s="7"/>
+      <c r="AK29" s="7"/>
+      <c r="AL29" s="7"/>
+      <c r="AM29" s="7"/>
+      <c r="AN29" s="7"/>
+      <c r="AO29" s="7"/>
+      <c r="AP29" s="7"/>
+      <c r="AQ29" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR29" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AS29" s="8">
+        <v>2</v>
+      </c>
+      <c r="AT29" s="8">
+        <v>1</v>
+      </c>
+      <c r="AU29" s="7"/>
+      <c r="AV29" s="8">
+        <v>32</v>
+      </c>
+      <c r="AW29" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="AX29" s="8">
+        <v>4</v>
+      </c>
+      <c r="AY29" s="8">
+        <v>2</v>
+      </c>
+      <c r="AZ29" s="7"/>
+      <c r="BA29" s="8">
+        <v>34</v>
+      </c>
+      <c r="BB29" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="BC29" s="8">
+        <v>6</v>
+      </c>
+      <c r="BD29" s="8">
+        <v>3</v>
+      </c>
+      <c r="BE29" s="7"/>
+      <c r="BF29" s="8"/>
+      <c r="BG29" s="8"/>
+      <c r="BH29" s="8"/>
+      <c r="BI29" s="8"/>
+      <c r="BJ29" s="7"/>
+      <c r="BK29" s="8"/>
+      <c r="BL29" s="8"/>
+      <c r="BM29" s="8"/>
+      <c r="BN29" s="8"/>
+      <c r="BO29" s="7"/>
+    </row>
+    <row r="30" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B30" s="8">
+        <v>1710</v>
+      </c>
+      <c r="C30" s="8">
+        <v>2000</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="P30" s="8">
+        <v>17101101</v>
+      </c>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="S30" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="T30" s="8">
+        <v>1710</v>
+      </c>
+      <c r="U30" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="V30" s="8">
+        <v>10.33</v>
+      </c>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB30" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="AC30" s="8">
+        <v>50</v>
+      </c>
+      <c r="AD30" s="8"/>
+      <c r="AE30" s="11"/>
+      <c r="AF30" s="7"/>
       <c r="AG30" s="12"/>
-      <c r="AH30" s="13"/>
-      <c r="AI30" s="13"/>
-      <c r="AJ30" s="13"/>
-      <c r="AK30" s="14"/>
-      <c r="AL30" s="14"/>
-      <c r="AM30" s="14"/>
-      <c r="AN30" s="14"/>
-      <c r="AO30" s="14"/>
-      <c r="AP30" s="14"/>
-      <c r="AQ30" s="13"/>
-      <c r="AR30" s="13"/>
-      <c r="AS30" s="13"/>
-      <c r="AT30" s="13"/>
-      <c r="AU30" s="14"/>
-      <c r="AV30" s="13"/>
-      <c r="AW30" s="13"/>
-      <c r="AX30" s="13"/>
-      <c r="AY30" s="13"/>
-      <c r="AZ30" s="14"/>
-      <c r="BA30" s="13"/>
-      <c r="BB30" s="13"/>
-      <c r="BC30" s="13"/>
-      <c r="BD30" s="13"/>
-      <c r="BE30" s="14"/>
-      <c r="BF30" s="13"/>
-      <c r="BG30" s="13"/>
-      <c r="BH30" s="13"/>
-      <c r="BI30" s="13"/>
-      <c r="BJ30" s="14"/>
-      <c r="BK30" s="13"/>
-      <c r="BL30" s="13"/>
-      <c r="BM30" s="13"/>
-      <c r="BN30" s="13"/>
-      <c r="BO30" s="14"/>
-    </row>
-    <row r="31" spans="2:67" x14ac:dyDescent="0.2">
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="13"/>
-      <c r="V31" s="13"/>
-      <c r="W31" s="14"/>
-      <c r="X31" s="14"/>
-      <c r="Y31" s="14"/>
-      <c r="Z31" s="14"/>
-      <c r="AA31" s="14"/>
-      <c r="AB31" s="14"/>
-      <c r="AC31" s="14"/>
-      <c r="AD31" s="14"/>
-      <c r="AE31" s="14"/>
-      <c r="AF31" s="14"/>
-      <c r="AG31" s="14"/>
-      <c r="AH31" s="14"/>
-      <c r="AI31" s="14"/>
-      <c r="AJ31" s="14"/>
-      <c r="AK31" s="14"/>
-      <c r="AL31" s="14"/>
-      <c r="AM31" s="14"/>
-      <c r="AN31" s="14"/>
-      <c r="AO31" s="14"/>
-      <c r="AP31" s="14"/>
-      <c r="AQ31" s="13"/>
-      <c r="AR31" s="13"/>
-      <c r="AS31" s="13"/>
-      <c r="AT31" s="13"/>
-      <c r="AU31" s="14"/>
-      <c r="AV31" s="13"/>
-      <c r="AW31" s="13"/>
-      <c r="AX31" s="13"/>
-      <c r="AY31" s="13"/>
-      <c r="AZ31" s="14"/>
-      <c r="BA31" s="13"/>
-      <c r="BB31" s="13"/>
-      <c r="BC31" s="13"/>
-      <c r="BD31" s="13"/>
-      <c r="BE31" s="14"/>
-      <c r="BF31" s="13"/>
-      <c r="BG31" s="13"/>
-      <c r="BH31" s="13"/>
-      <c r="BI31" s="13"/>
-      <c r="BJ31" s="14"/>
-      <c r="BK31" s="13"/>
-      <c r="BL31" s="13"/>
-      <c r="BM31" s="13"/>
-      <c r="BN31" s="13"/>
-      <c r="BO31" s="14"/>
-    </row>
-    <row r="32" spans="2:67" x14ac:dyDescent="0.2">
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="13"/>
-      <c r="T32" s="13"/>
-      <c r="U32" s="13"/>
-      <c r="V32" s="13"/>
-      <c r="W32" s="14"/>
-      <c r="X32" s="14"/>
-      <c r="Y32" s="14"/>
-      <c r="Z32" s="14"/>
-      <c r="AA32" s="14"/>
-      <c r="AB32" s="14"/>
-      <c r="AC32" s="14"/>
-      <c r="AD32" s="14"/>
-      <c r="AE32" s="14"/>
-      <c r="AF32" s="14"/>
-      <c r="AG32" s="14"/>
-      <c r="AH32" s="14"/>
-      <c r="AI32" s="14"/>
-      <c r="AJ32" s="14"/>
-      <c r="AK32" s="14"/>
-      <c r="AL32" s="14"/>
-      <c r="AM32" s="14"/>
-      <c r="AN32" s="14"/>
-      <c r="AO32" s="14"/>
-      <c r="AP32" s="14"/>
-      <c r="AQ32" s="13"/>
-      <c r="AR32" s="13"/>
-      <c r="AS32" s="13"/>
-      <c r="AT32" s="13"/>
-      <c r="AU32" s="14"/>
-      <c r="AV32" s="13"/>
-      <c r="AW32" s="13"/>
-      <c r="AX32" s="13"/>
-      <c r="AY32" s="13"/>
-      <c r="AZ32" s="14"/>
-      <c r="BA32" s="13"/>
-      <c r="BB32" s="13"/>
-      <c r="BC32" s="13"/>
-      <c r="BD32" s="13"/>
-      <c r="BE32" s="14"/>
-      <c r="BF32" s="13"/>
-      <c r="BG32" s="13"/>
-      <c r="BH32" s="13"/>
-      <c r="BI32" s="13"/>
-      <c r="BJ32" s="14"/>
-      <c r="BK32" s="13"/>
-      <c r="BL32" s="13"/>
-      <c r="BM32" s="13"/>
-      <c r="BN32" s="13"/>
-      <c r="BO32" s="14"/>
-    </row>
-    <row r="33" spans="2:67" x14ac:dyDescent="0.2">
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="14"/>
-      <c r="R33" s="13"/>
-      <c r="S33" s="13"/>
-      <c r="T33" s="13"/>
-      <c r="U33" s="13"/>
-      <c r="V33" s="13"/>
-      <c r="W33" s="14"/>
-      <c r="X33" s="14"/>
-      <c r="Y33" s="14"/>
-      <c r="Z33" s="14"/>
-      <c r="AA33" s="14"/>
-      <c r="AB33" s="14"/>
-      <c r="AC33" s="14"/>
-      <c r="AD33" s="14"/>
-      <c r="AE33" s="14"/>
-      <c r="AF33" s="14"/>
-      <c r="AG33" s="14"/>
-      <c r="AH33" s="14"/>
-      <c r="AI33" s="14"/>
-      <c r="AJ33" s="14"/>
-      <c r="AK33" s="14"/>
-      <c r="AL33" s="10"/>
-      <c r="AM33" s="14"/>
-      <c r="AN33" s="10"/>
-      <c r="AO33" s="14"/>
-      <c r="AP33" s="14"/>
-      <c r="AQ33" s="13"/>
-      <c r="AR33" s="13"/>
-      <c r="AS33" s="13"/>
-      <c r="AT33" s="13"/>
-      <c r="AU33" s="14"/>
-      <c r="AV33" s="13"/>
-      <c r="AW33" s="13"/>
-      <c r="AX33" s="13"/>
-      <c r="AY33" s="13"/>
-      <c r="AZ33" s="14"/>
-      <c r="BA33" s="13"/>
-      <c r="BB33" s="13"/>
-      <c r="BC33" s="13"/>
-      <c r="BD33" s="13"/>
-      <c r="BE33" s="14"/>
-      <c r="BF33" s="13"/>
-      <c r="BG33" s="13"/>
-      <c r="BH33" s="13"/>
-      <c r="BI33" s="13"/>
-      <c r="BJ33" s="14"/>
-      <c r="BK33" s="13"/>
-      <c r="BL33" s="13"/>
-      <c r="BM33" s="13"/>
-      <c r="BN33" s="13"/>
-      <c r="BO33" s="14"/>
-    </row>
-    <row r="34" spans="2:67" x14ac:dyDescent="0.2">
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="14"/>
-      <c r="R34" s="13"/>
-      <c r="S34" s="13"/>
-      <c r="T34" s="13"/>
-      <c r="U34" s="13"/>
-      <c r="V34" s="13"/>
-      <c r="W34" s="14"/>
-      <c r="X34" s="14"/>
-      <c r="Y34" s="14"/>
-      <c r="Z34" s="14"/>
-      <c r="AA34" s="14"/>
-      <c r="AB34" s="14"/>
-      <c r="AC34" s="14"/>
-      <c r="AD34" s="14"/>
-      <c r="AE34" s="14"/>
-      <c r="AF34" s="14"/>
-      <c r="AG34" s="14"/>
-      <c r="AH34" s="14"/>
-      <c r="AI34" s="14"/>
-      <c r="AJ34" s="14"/>
-      <c r="AK34" s="14"/>
-      <c r="AL34" s="14"/>
-      <c r="AM34" s="14"/>
-      <c r="AN34" s="14"/>
-      <c r="AO34" s="14"/>
-      <c r="AP34" s="14"/>
-      <c r="AQ34" s="13"/>
-      <c r="AR34" s="13"/>
-      <c r="AS34" s="13"/>
-      <c r="AT34" s="13"/>
-      <c r="AU34" s="14"/>
-      <c r="AV34" s="13"/>
-      <c r="AW34" s="13"/>
-      <c r="AX34" s="13"/>
-      <c r="AY34" s="13"/>
-      <c r="AZ34" s="14"/>
-      <c r="BA34" s="13"/>
-      <c r="BB34" s="13"/>
-      <c r="BC34" s="13"/>
-      <c r="BD34" s="13"/>
-      <c r="BE34" s="14"/>
-      <c r="BF34" s="13"/>
-      <c r="BG34" s="13"/>
-      <c r="BH34" s="13"/>
-      <c r="BI34" s="13"/>
-      <c r="BJ34" s="14"/>
-      <c r="BK34" s="13"/>
-      <c r="BL34" s="13"/>
-      <c r="BM34" s="13"/>
-      <c r="BN34" s="13"/>
-      <c r="BO34" s="14"/>
-    </row>
-    <row r="35" spans="2:67" x14ac:dyDescent="0.2">
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="14"/>
-      <c r="R35" s="13"/>
-      <c r="S35" s="13"/>
-      <c r="T35" s="13"/>
-      <c r="U35" s="13"/>
-      <c r="V35" s="13"/>
-      <c r="W35" s="14"/>
-      <c r="X35" s="14"/>
-      <c r="Y35" s="14"/>
-      <c r="Z35" s="14"/>
-      <c r="AA35" s="14"/>
-      <c r="AB35" s="14"/>
-      <c r="AC35" s="14"/>
-      <c r="AD35" s="14"/>
-      <c r="AE35" s="14"/>
-      <c r="AF35" s="14"/>
-      <c r="AG35" s="14"/>
-      <c r="AH35" s="14"/>
-      <c r="AI35" s="14"/>
-      <c r="AJ35" s="14"/>
-      <c r="AK35" s="14"/>
-      <c r="AL35" s="14"/>
-      <c r="AM35" s="14"/>
-      <c r="AN35" s="14"/>
-      <c r="AO35" s="14"/>
-      <c r="AP35" s="14"/>
-      <c r="AQ35" s="13"/>
-      <c r="AR35" s="13"/>
-      <c r="AS35" s="13"/>
-      <c r="AT35" s="13"/>
-      <c r="AU35" s="14"/>
-      <c r="AV35" s="13"/>
-      <c r="AW35" s="13"/>
-      <c r="AX35" s="13"/>
-      <c r="AY35" s="13"/>
-      <c r="AZ35" s="14"/>
-      <c r="BA35" s="13"/>
-      <c r="BB35" s="13"/>
-      <c r="BC35" s="13"/>
-      <c r="BD35" s="13"/>
-      <c r="BE35" s="14"/>
-      <c r="BF35" s="13"/>
-      <c r="BG35" s="13"/>
-      <c r="BH35" s="13"/>
-      <c r="BI35" s="13"/>
-      <c r="BJ35" s="14"/>
-      <c r="BK35" s="13"/>
-      <c r="BL35" s="13"/>
-      <c r="BM35" s="13"/>
-      <c r="BN35" s="13"/>
-      <c r="BO35" s="14"/>
-    </row>
-    <row r="36" spans="2:67" x14ac:dyDescent="0.2">
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="14"/>
-      <c r="R36" s="13"/>
-      <c r="S36" s="13"/>
-      <c r="T36" s="13"/>
-      <c r="U36" s="13"/>
-      <c r="V36" s="13"/>
-      <c r="W36" s="14"/>
-      <c r="X36" s="14"/>
-      <c r="Y36" s="13"/>
-      <c r="Z36" s="13"/>
-      <c r="AA36" s="13"/>
-      <c r="AB36" s="13"/>
-      <c r="AC36" s="13"/>
-      <c r="AD36" s="13"/>
-      <c r="AE36" s="12"/>
-      <c r="AF36" s="14"/>
+      <c r="AH30" s="8">
+        <v>2020</v>
+      </c>
+      <c r="AI30" s="8">
+        <v>15000</v>
+      </c>
+      <c r="AJ30" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="AK30" s="7"/>
+      <c r="AL30" s="7"/>
+      <c r="AM30" s="7"/>
+      <c r="AN30" s="7"/>
+      <c r="AO30" s="7"/>
+      <c r="AP30" s="7"/>
+      <c r="AQ30" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR30" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AS30" s="8">
+        <v>2</v>
+      </c>
+      <c r="AT30" s="8">
+        <v>1</v>
+      </c>
+      <c r="AU30" s="7"/>
+      <c r="AV30" s="8">
+        <v>32</v>
+      </c>
+      <c r="AW30" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="AX30" s="8">
+        <v>4</v>
+      </c>
+      <c r="AY30" s="8">
+        <v>2</v>
+      </c>
+      <c r="AZ30" s="7"/>
+      <c r="BA30" s="8">
+        <v>34</v>
+      </c>
+      <c r="BB30" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="BC30" s="8">
+        <v>6</v>
+      </c>
+      <c r="BD30" s="8">
+        <v>3</v>
+      </c>
+      <c r="BE30" s="7"/>
+      <c r="BF30" s="9"/>
+      <c r="BG30" s="8"/>
+      <c r="BH30" s="8"/>
+      <c r="BI30" s="8"/>
+      <c r="BJ30" s="7"/>
+      <c r="BK30" s="8"/>
+      <c r="BL30" s="8"/>
+      <c r="BM30" s="8"/>
+      <c r="BN30" s="8"/>
+      <c r="BO30" s="7"/>
+    </row>
+    <row r="31" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B31" s="8">
+        <v>1710</v>
+      </c>
+      <c r="C31" s="8">
+        <v>3200</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="K31" s="11"/>
+      <c r="L31" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8">
+        <v>17101101</v>
+      </c>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="S31" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="T31" s="8">
+        <v>1710</v>
+      </c>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="7"/>
+      <c r="AC31" s="7"/>
+      <c r="AD31" s="7"/>
+      <c r="AE31" s="7"/>
+      <c r="AF31" s="7"/>
+      <c r="AG31" s="7"/>
+      <c r="AH31" s="7"/>
+      <c r="AI31" s="7"/>
+      <c r="AJ31" s="7"/>
+      <c r="AK31" s="7"/>
+      <c r="AL31" s="7"/>
+      <c r="AM31" s="7"/>
+      <c r="AN31" s="7"/>
+      <c r="AO31" s="7"/>
+      <c r="AP31" s="7"/>
+      <c r="AQ31" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR31" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AS31" s="8">
+        <v>2</v>
+      </c>
+      <c r="AT31" s="8">
+        <v>1</v>
+      </c>
+      <c r="AU31" s="7"/>
+      <c r="AV31" s="8">
+        <v>32</v>
+      </c>
+      <c r="AW31" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="AX31" s="8">
+        <v>4</v>
+      </c>
+      <c r="AY31" s="8">
+        <v>2</v>
+      </c>
+      <c r="AZ31" s="7"/>
+      <c r="BA31" s="8">
+        <v>34</v>
+      </c>
+      <c r="BB31" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="BC31" s="8">
+        <v>6</v>
+      </c>
+      <c r="BD31" s="8">
+        <v>3</v>
+      </c>
+      <c r="BE31" s="7"/>
+      <c r="BF31" s="8"/>
+      <c r="BG31" s="8"/>
+      <c r="BH31" s="8"/>
+      <c r="BI31" s="8"/>
+      <c r="BJ31" s="7"/>
+      <c r="BK31" s="8"/>
+      <c r="BL31" s="8"/>
+      <c r="BM31" s="8"/>
+      <c r="BN31" s="8"/>
+      <c r="BO31" s="7"/>
+    </row>
+    <row r="32" spans="1:67" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B32" s="8">
+        <v>1710</v>
+      </c>
+      <c r="C32" s="8">
+        <v>3200</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8">
+        <v>60000000</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="P32" s="8">
+        <v>17101101</v>
+      </c>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="S32" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="T32" s="8">
+        <v>1710</v>
+      </c>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="7"/>
+      <c r="AB32" s="7"/>
+      <c r="AC32" s="7"/>
+      <c r="AD32" s="7"/>
+      <c r="AE32" s="7"/>
+      <c r="AF32" s="7"/>
+      <c r="AG32" s="7"/>
+      <c r="AH32" s="7"/>
+      <c r="AI32" s="7"/>
+      <c r="AJ32" s="7"/>
+      <c r="AK32" s="7"/>
+      <c r="AL32" s="7"/>
+      <c r="AM32" s="7"/>
+      <c r="AN32" s="7"/>
+      <c r="AO32" s="7"/>
+      <c r="AP32" s="7"/>
+      <c r="AQ32" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR32" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AS32" s="8">
+        <v>2</v>
+      </c>
+      <c r="AT32" s="8">
+        <v>1</v>
+      </c>
+      <c r="AU32" s="7"/>
+      <c r="AV32" s="8">
+        <v>32</v>
+      </c>
+      <c r="AW32" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="AX32" s="8">
+        <v>4</v>
+      </c>
+      <c r="AY32" s="8">
+        <v>2</v>
+      </c>
+      <c r="AZ32" s="7"/>
+      <c r="BA32" s="8">
+        <v>34</v>
+      </c>
+      <c r="BB32" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="BC32" s="8">
+        <v>6</v>
+      </c>
+      <c r="BD32" s="8">
+        <v>3</v>
+      </c>
+      <c r="BE32" s="7"/>
+      <c r="BF32" s="8"/>
+      <c r="BG32" s="8"/>
+      <c r="BH32" s="8"/>
+      <c r="BI32" s="8"/>
+      <c r="BJ32" s="7"/>
+      <c r="BK32" s="8"/>
+      <c r="BL32" s="8"/>
+      <c r="BM32" s="8"/>
+      <c r="BN32" s="8"/>
+      <c r="BO32" s="7"/>
+    </row>
+    <row r="33" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B33" s="8">
+        <v>1710</v>
+      </c>
+      <c r="C33" s="8">
+        <v>3200</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E33" s="8"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="K33" s="11"/>
+      <c r="L33" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8">
+        <v>17101101</v>
+      </c>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="S33" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="T33" s="8">
+        <v>1710</v>
+      </c>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="7"/>
+      <c r="X33" s="7"/>
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="7"/>
+      <c r="AA33" s="7"/>
+      <c r="AB33" s="7"/>
+      <c r="AC33" s="7"/>
+      <c r="AD33" s="7"/>
+      <c r="AE33" s="7"/>
+      <c r="AF33" s="7"/>
+      <c r="AG33" s="7"/>
+      <c r="AH33" s="7"/>
+      <c r="AI33" s="7"/>
+      <c r="AJ33" s="7"/>
+      <c r="AK33" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="AL33" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="AM33" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="AN33" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="AO33" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="AP33" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="AQ33" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR33" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AS33" s="8">
+        <v>2</v>
+      </c>
+      <c r="AT33" s="8">
+        <v>1</v>
+      </c>
+      <c r="AU33" s="7"/>
+      <c r="AV33" s="8">
+        <v>32</v>
+      </c>
+      <c r="AW33" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="AX33" s="8">
+        <v>4</v>
+      </c>
+      <c r="AY33" s="8">
+        <v>2</v>
+      </c>
+      <c r="AZ33" s="7"/>
+      <c r="BA33" s="8">
+        <v>34</v>
+      </c>
+      <c r="BB33" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="BC33" s="8">
+        <v>6</v>
+      </c>
+      <c r="BD33" s="8">
+        <v>3</v>
+      </c>
+      <c r="BE33" s="7"/>
+      <c r="BF33" s="8"/>
+      <c r="BG33" s="8"/>
+      <c r="BH33" s="8"/>
+      <c r="BI33" s="8"/>
+      <c r="BJ33" s="7"/>
+      <c r="BK33" s="8"/>
+      <c r="BL33" s="8"/>
+      <c r="BM33" s="8"/>
+      <c r="BN33" s="8"/>
+      <c r="BO33" s="7"/>
+    </row>
+    <row r="34" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B34" s="8">
+        <v>1710</v>
+      </c>
+      <c r="C34" s="8">
+        <v>3200</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8">
+        <v>60000000</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="K34" s="11"/>
+      <c r="L34" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="P34" s="8">
+        <v>17101101</v>
+      </c>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="S34" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="T34" s="8">
+        <v>1710</v>
+      </c>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="7"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="7"/>
+      <c r="AA34" s="7"/>
+      <c r="AB34" s="7"/>
+      <c r="AC34" s="7"/>
+      <c r="AD34" s="7"/>
+      <c r="AE34" s="7"/>
+      <c r="AF34" s="7"/>
+      <c r="AG34" s="7"/>
+      <c r="AH34" s="7"/>
+      <c r="AI34" s="7"/>
+      <c r="AJ34" s="7"/>
+      <c r="AK34" s="7"/>
+      <c r="AL34" s="7"/>
+      <c r="AM34" s="7"/>
+      <c r="AN34" s="7"/>
+      <c r="AO34" s="7"/>
+      <c r="AP34" s="7"/>
+      <c r="AQ34" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR34" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AS34" s="8">
+        <v>2</v>
+      </c>
+      <c r="AT34" s="8">
+        <v>1</v>
+      </c>
+      <c r="AU34" s="7"/>
+      <c r="AV34" s="8">
+        <v>32</v>
+      </c>
+      <c r="AW34" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="AX34" s="8">
+        <v>4</v>
+      </c>
+      <c r="AY34" s="8">
+        <v>2</v>
+      </c>
+      <c r="AZ34" s="7"/>
+      <c r="BA34" s="8">
+        <v>34</v>
+      </c>
+      <c r="BB34" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="BC34" s="8">
+        <v>6</v>
+      </c>
+      <c r="BD34" s="8">
+        <v>3</v>
+      </c>
+      <c r="BE34" s="7"/>
+      <c r="BF34" s="8"/>
+      <c r="BG34" s="8"/>
+      <c r="BH34" s="8"/>
+      <c r="BI34" s="8"/>
+      <c r="BJ34" s="7"/>
+      <c r="BK34" s="8"/>
+      <c r="BL34" s="8"/>
+      <c r="BM34" s="8"/>
+      <c r="BN34" s="8"/>
+      <c r="BO34" s="7"/>
+    </row>
+    <row r="35" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B35" s="8">
+        <v>1710</v>
+      </c>
+      <c r="C35" s="8">
+        <v>3200</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="P35" s="8">
+        <v>17101101</v>
+      </c>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="S35" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="T35" s="8">
+        <v>1710</v>
+      </c>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="7"/>
+      <c r="X35" s="7"/>
+      <c r="Y35" s="7"/>
+      <c r="Z35" s="7"/>
+      <c r="AA35" s="7"/>
+      <c r="AB35" s="7"/>
+      <c r="AC35" s="7"/>
+      <c r="AD35" s="7"/>
+      <c r="AE35" s="7"/>
+      <c r="AF35" s="7"/>
+      <c r="AG35" s="7"/>
+      <c r="AH35" s="7"/>
+      <c r="AI35" s="7"/>
+      <c r="AJ35" s="7"/>
+      <c r="AK35" s="7"/>
+      <c r="AL35" s="7"/>
+      <c r="AM35" s="7"/>
+      <c r="AN35" s="7"/>
+      <c r="AO35" s="7"/>
+      <c r="AP35" s="7"/>
+      <c r="AQ35" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR35" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AS35" s="8">
+        <v>2</v>
+      </c>
+      <c r="AT35" s="8">
+        <v>1</v>
+      </c>
+      <c r="AU35" s="7"/>
+      <c r="AV35" s="8">
+        <v>32</v>
+      </c>
+      <c r="AW35" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="AX35" s="8">
+        <v>4</v>
+      </c>
+      <c r="AY35" s="8">
+        <v>2</v>
+      </c>
+      <c r="AZ35" s="7"/>
+      <c r="BA35" s="8">
+        <v>34</v>
+      </c>
+      <c r="BB35" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="BC35" s="8">
+        <v>6</v>
+      </c>
+      <c r="BD35" s="8">
+        <v>3</v>
+      </c>
+      <c r="BE35" s="7"/>
+      <c r="BF35" s="8"/>
+      <c r="BG35" s="8"/>
+      <c r="BH35" s="8"/>
+      <c r="BI35" s="8"/>
+      <c r="BJ35" s="7"/>
+      <c r="BK35" s="8"/>
+      <c r="BL35" s="8"/>
+      <c r="BM35" s="8"/>
+      <c r="BN35" s="8"/>
+      <c r="BO35" s="7"/>
+    </row>
+    <row r="36" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B36" s="8">
+        <v>1710</v>
+      </c>
+      <c r="C36" s="8">
+        <v>2000</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="K36" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="M36" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="P36" s="8">
+        <v>17101101</v>
+      </c>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="S36" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="T36" s="8">
+        <v>1710</v>
+      </c>
+      <c r="U36" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="V36" s="8">
+        <v>10.33</v>
+      </c>
+      <c r="W36" s="7"/>
+      <c r="X36" s="7"/>
+      <c r="Y36" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB36" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="AC36" s="8">
+        <v>50</v>
+      </c>
+      <c r="AD36" s="8"/>
+      <c r="AE36" s="11"/>
+      <c r="AF36" s="7"/>
       <c r="AG36" s="12"/>
-      <c r="AH36" s="13"/>
-      <c r="AI36" s="13"/>
-      <c r="AJ36" s="13"/>
-      <c r="AK36" s="14"/>
-      <c r="AL36" s="14"/>
-      <c r="AM36" s="14"/>
-      <c r="AN36" s="14"/>
-      <c r="AO36" s="14"/>
-      <c r="AP36" s="14"/>
-      <c r="AQ36" s="13"/>
-      <c r="AR36" s="13"/>
-      <c r="AS36" s="13"/>
-      <c r="AT36" s="13"/>
-      <c r="AU36" s="14"/>
-      <c r="AV36" s="13"/>
-      <c r="AW36" s="13"/>
-      <c r="AX36" s="13"/>
-      <c r="AY36" s="13"/>
-      <c r="AZ36" s="14"/>
-      <c r="BA36" s="13"/>
-      <c r="BB36" s="13"/>
-      <c r="BC36" s="13"/>
-      <c r="BD36" s="13"/>
-      <c r="BE36" s="14"/>
-      <c r="BF36" s="13"/>
-      <c r="BG36" s="13"/>
-      <c r="BH36" s="13"/>
-      <c r="BI36" s="13"/>
-      <c r="BJ36" s="14"/>
-      <c r="BK36" s="13"/>
-      <c r="BL36" s="13"/>
-      <c r="BM36" s="13"/>
-      <c r="BN36" s="13"/>
-      <c r="BO36" s="14"/>
-    </row>
-    <row r="37" spans="2:67" x14ac:dyDescent="0.2">
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="14"/>
-      <c r="R37" s="13"/>
-      <c r="S37" s="13"/>
-      <c r="T37" s="13"/>
-      <c r="U37" s="13"/>
-      <c r="V37" s="13"/>
-      <c r="W37" s="14"/>
-      <c r="X37" s="14"/>
-      <c r="Y37" s="14"/>
-      <c r="Z37" s="14"/>
-      <c r="AA37" s="14"/>
-      <c r="AB37" s="14"/>
-      <c r="AC37" s="14"/>
-      <c r="AD37" s="14"/>
-      <c r="AE37" s="14"/>
-      <c r="AF37" s="14"/>
-      <c r="AG37" s="14"/>
-      <c r="AH37" s="14"/>
-      <c r="AI37" s="14"/>
-      <c r="AJ37" s="14"/>
-      <c r="AK37" s="14"/>
-      <c r="AL37" s="14"/>
-      <c r="AM37" s="14"/>
-      <c r="AN37" s="14"/>
-      <c r="AO37" s="14"/>
-      <c r="AP37" s="14"/>
-      <c r="AQ37" s="13"/>
-      <c r="AR37" s="13"/>
-      <c r="AS37" s="13"/>
-      <c r="AT37" s="13"/>
-      <c r="AU37" s="14"/>
-      <c r="AV37" s="13"/>
-      <c r="AW37" s="13"/>
-      <c r="AX37" s="13"/>
-      <c r="AY37" s="13"/>
-      <c r="AZ37" s="14"/>
-      <c r="BA37" s="13"/>
-      <c r="BB37" s="13"/>
-      <c r="BC37" s="13"/>
-      <c r="BD37" s="13"/>
-      <c r="BE37" s="14"/>
-      <c r="BF37" s="13"/>
-      <c r="BG37" s="13"/>
-      <c r="BH37" s="13"/>
-      <c r="BI37" s="13"/>
-      <c r="BJ37" s="14"/>
-      <c r="BK37" s="13"/>
-      <c r="BL37" s="13"/>
-      <c r="BM37" s="13"/>
-      <c r="BN37" s="13"/>
-      <c r="BO37" s="14"/>
-    </row>
-    <row r="38" spans="2:67" x14ac:dyDescent="0.2">
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="14"/>
-      <c r="R38" s="13"/>
-      <c r="S38" s="13"/>
-      <c r="T38" s="13"/>
-      <c r="U38" s="13"/>
-      <c r="V38" s="13"/>
-      <c r="W38" s="14"/>
-      <c r="X38" s="14"/>
-      <c r="Y38" s="14"/>
-      <c r="Z38" s="14"/>
-      <c r="AA38" s="14"/>
-      <c r="AB38" s="14"/>
-      <c r="AC38" s="14"/>
-      <c r="AD38" s="14"/>
-      <c r="AE38" s="14"/>
-      <c r="AF38" s="14"/>
-      <c r="AG38" s="14"/>
-      <c r="AH38" s="14"/>
-      <c r="AI38" s="14"/>
-      <c r="AJ38" s="14"/>
-      <c r="AK38" s="14"/>
-      <c r="AL38" s="14"/>
-      <c r="AM38" s="14"/>
-      <c r="AN38" s="14"/>
-      <c r="AO38" s="14"/>
-      <c r="AP38" s="14"/>
-      <c r="AQ38" s="13"/>
-      <c r="AR38" s="13"/>
-      <c r="AS38" s="13"/>
-      <c r="AT38" s="13"/>
-      <c r="AU38" s="14"/>
-      <c r="AV38" s="13"/>
-      <c r="AW38" s="13"/>
-      <c r="AX38" s="13"/>
-      <c r="AY38" s="13"/>
-      <c r="AZ38" s="14"/>
-      <c r="BA38" s="13"/>
-      <c r="BB38" s="13"/>
-      <c r="BC38" s="13"/>
-      <c r="BD38" s="13"/>
-      <c r="BE38" s="14"/>
-      <c r="BF38" s="13"/>
-      <c r="BG38" s="13"/>
-      <c r="BH38" s="13"/>
-      <c r="BI38" s="13"/>
-      <c r="BJ38" s="14"/>
-      <c r="BK38" s="13"/>
-      <c r="BL38" s="13"/>
-      <c r="BM38" s="13"/>
-      <c r="BN38" s="13"/>
-      <c r="BO38" s="14"/>
-    </row>
-    <row r="39" spans="2:67" x14ac:dyDescent="0.2">
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="14"/>
-      <c r="R39" s="13"/>
-      <c r="S39" s="13"/>
-      <c r="T39" s="13"/>
-      <c r="U39" s="13"/>
-      <c r="V39" s="13"/>
-      <c r="W39" s="14"/>
-      <c r="X39" s="14"/>
-      <c r="Y39" s="14"/>
-      <c r="Z39" s="14"/>
-      <c r="AA39" s="14"/>
-      <c r="AB39" s="14"/>
-      <c r="AC39" s="14"/>
-      <c r="AD39" s="14"/>
-      <c r="AE39" s="14"/>
-      <c r="AF39" s="14"/>
-      <c r="AG39" s="14"/>
-      <c r="AH39" s="14"/>
-      <c r="AI39" s="14"/>
-      <c r="AJ39" s="14"/>
-      <c r="AK39" s="14"/>
-      <c r="AL39" s="10"/>
-      <c r="AM39" s="14"/>
-      <c r="AN39" s="10"/>
-      <c r="AO39" s="14"/>
-      <c r="AP39" s="14"/>
-      <c r="AQ39" s="13"/>
-      <c r="AR39" s="13"/>
-      <c r="AS39" s="13"/>
-      <c r="AT39" s="13"/>
-      <c r="AU39" s="14"/>
-      <c r="AV39" s="13"/>
-      <c r="AW39" s="13"/>
-      <c r="AX39" s="13"/>
-      <c r="AY39" s="13"/>
-      <c r="AZ39" s="14"/>
-      <c r="BA39" s="13"/>
-      <c r="BB39" s="13"/>
-      <c r="BC39" s="13"/>
-      <c r="BD39" s="13"/>
-      <c r="BE39" s="14"/>
-      <c r="BF39" s="13"/>
-      <c r="BG39" s="13"/>
-      <c r="BH39" s="13"/>
-      <c r="BI39" s="13"/>
-      <c r="BJ39" s="14"/>
-      <c r="BK39" s="13"/>
-      <c r="BL39" s="13"/>
-      <c r="BM39" s="13"/>
-      <c r="BN39" s="13"/>
-      <c r="BO39" s="14"/>
-    </row>
-    <row r="40" spans="2:67" x14ac:dyDescent="0.2">
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="14"/>
-      <c r="R40" s="13"/>
-      <c r="S40" s="13"/>
-      <c r="T40" s="13"/>
-      <c r="U40" s="13"/>
-      <c r="V40" s="13"/>
-      <c r="W40" s="14"/>
-      <c r="X40" s="14"/>
-      <c r="Y40" s="14"/>
-      <c r="Z40" s="14"/>
-      <c r="AA40" s="14"/>
-      <c r="AB40" s="14"/>
-      <c r="AC40" s="14"/>
-      <c r="AD40" s="14"/>
-      <c r="AE40" s="14"/>
-      <c r="AF40" s="14"/>
-      <c r="AG40" s="14"/>
-      <c r="AH40" s="14"/>
-      <c r="AI40" s="14"/>
-      <c r="AJ40" s="14"/>
-      <c r="AK40" s="14"/>
-      <c r="AL40" s="14"/>
-      <c r="AM40" s="14"/>
-      <c r="AN40" s="14"/>
-      <c r="AO40" s="14"/>
-      <c r="AP40" s="14"/>
-      <c r="AQ40" s="13"/>
-      <c r="AR40" s="13"/>
-      <c r="AS40" s="13"/>
-      <c r="AT40" s="13"/>
-      <c r="AU40" s="14"/>
-      <c r="AV40" s="13"/>
-      <c r="AW40" s="13"/>
-      <c r="AX40" s="13"/>
-      <c r="AY40" s="13"/>
-      <c r="AZ40" s="14"/>
-      <c r="BA40" s="13"/>
-      <c r="BB40" s="13"/>
-      <c r="BC40" s="13"/>
-      <c r="BD40" s="13"/>
-      <c r="BE40" s="14"/>
-      <c r="BF40" s="13"/>
-      <c r="BG40" s="13"/>
-      <c r="BH40" s="13"/>
-      <c r="BI40" s="13"/>
-      <c r="BJ40" s="14"/>
-      <c r="BK40" s="13"/>
-      <c r="BL40" s="13"/>
-      <c r="BM40" s="13"/>
-      <c r="BN40" s="13"/>
-      <c r="BO40" s="14"/>
-    </row>
-    <row r="41" spans="2:67" x14ac:dyDescent="0.2">
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13"/>
-      <c r="Q41" s="14"/>
-      <c r="R41" s="13"/>
-      <c r="S41" s="13"/>
-      <c r="T41" s="13"/>
-      <c r="U41" s="13"/>
-      <c r="V41" s="13"/>
-      <c r="W41" s="14"/>
-      <c r="X41" s="14"/>
-      <c r="Y41" s="14"/>
-      <c r="Z41" s="14"/>
-      <c r="AA41" s="14"/>
-      <c r="AB41" s="14"/>
-      <c r="AC41" s="14"/>
-      <c r="AD41" s="14"/>
-      <c r="AE41" s="14"/>
-      <c r="AF41" s="14"/>
-      <c r="AG41" s="14"/>
-      <c r="AH41" s="14"/>
-      <c r="AI41" s="14"/>
-      <c r="AJ41" s="14"/>
-      <c r="AK41" s="14"/>
-      <c r="AL41" s="14"/>
-      <c r="AM41" s="14"/>
-      <c r="AN41" s="14"/>
-      <c r="AO41" s="14"/>
-      <c r="AP41" s="14"/>
-      <c r="AQ41" s="13"/>
-      <c r="AR41" s="13"/>
-      <c r="AS41" s="13"/>
-      <c r="AT41" s="13"/>
-      <c r="AU41" s="14"/>
-      <c r="AV41" s="13"/>
-      <c r="AW41" s="13"/>
-      <c r="AX41" s="13"/>
-      <c r="AY41" s="13"/>
-      <c r="AZ41" s="14"/>
-      <c r="BA41" s="13"/>
-      <c r="BB41" s="13"/>
-      <c r="BC41" s="13"/>
-      <c r="BD41" s="13"/>
-      <c r="BE41" s="14"/>
-      <c r="BF41" s="13"/>
-      <c r="BG41" s="13"/>
-      <c r="BH41" s="13"/>
-      <c r="BI41" s="13"/>
-      <c r="BJ41" s="14"/>
-      <c r="BK41" s="13"/>
-      <c r="BL41" s="13"/>
-      <c r="BM41" s="13"/>
-      <c r="BN41" s="13"/>
-      <c r="BO41" s="14"/>
-    </row>
-    <row r="42" spans="2:67" x14ac:dyDescent="0.2">
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
-      <c r="O42" s="13"/>
-      <c r="P42" s="13"/>
-      <c r="Q42" s="14"/>
-      <c r="R42" s="13"/>
-      <c r="S42" s="13"/>
-      <c r="T42" s="13"/>
-      <c r="U42" s="13"/>
-      <c r="V42" s="13"/>
-      <c r="W42" s="14"/>
-      <c r="X42" s="14"/>
-      <c r="Y42" s="13"/>
-      <c r="Z42" s="13"/>
-      <c r="AA42" s="13"/>
-      <c r="AB42" s="13"/>
-      <c r="AC42" s="13"/>
-      <c r="AD42" s="13"/>
-      <c r="AE42" s="12"/>
-      <c r="AF42" s="14"/>
+      <c r="AH36" s="8">
+        <v>2020</v>
+      </c>
+      <c r="AI36" s="8">
+        <v>15000</v>
+      </c>
+      <c r="AJ36" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="AK36" s="7"/>
+      <c r="AL36" s="7"/>
+      <c r="AM36" s="7"/>
+      <c r="AN36" s="7"/>
+      <c r="AO36" s="7"/>
+      <c r="AP36" s="7"/>
+      <c r="AQ36" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR36" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AS36" s="8">
+        <v>2</v>
+      </c>
+      <c r="AT36" s="8">
+        <v>1</v>
+      </c>
+      <c r="AU36" s="7"/>
+      <c r="AV36" s="8">
+        <v>32</v>
+      </c>
+      <c r="AW36" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="AX36" s="8">
+        <v>4</v>
+      </c>
+      <c r="AY36" s="8">
+        <v>2</v>
+      </c>
+      <c r="AZ36" s="7"/>
+      <c r="BA36" s="8">
+        <v>34</v>
+      </c>
+      <c r="BB36" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="BC36" s="8">
+        <v>6</v>
+      </c>
+      <c r="BD36" s="8">
+        <v>3</v>
+      </c>
+      <c r="BE36" s="7"/>
+      <c r="BF36" s="9"/>
+      <c r="BG36" s="8"/>
+      <c r="BH36" s="8"/>
+      <c r="BI36" s="8"/>
+      <c r="BJ36" s="7"/>
+      <c r="BK36" s="8"/>
+      <c r="BL36" s="8"/>
+      <c r="BM36" s="8"/>
+      <c r="BN36" s="8"/>
+      <c r="BO36" s="7"/>
+    </row>
+    <row r="37" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B37" s="8">
+        <v>1710</v>
+      </c>
+      <c r="C37" s="8">
+        <v>3200</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="K37" s="11"/>
+      <c r="L37" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8">
+        <v>17101101</v>
+      </c>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="S37" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="T37" s="8">
+        <v>1710</v>
+      </c>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="7"/>
+      <c r="X37" s="7"/>
+      <c r="Y37" s="7"/>
+      <c r="Z37" s="7"/>
+      <c r="AA37" s="7"/>
+      <c r="AB37" s="7"/>
+      <c r="AC37" s="7"/>
+      <c r="AD37" s="7"/>
+      <c r="AE37" s="7"/>
+      <c r="AF37" s="7"/>
+      <c r="AG37" s="7"/>
+      <c r="AH37" s="7"/>
+      <c r="AI37" s="7"/>
+      <c r="AJ37" s="7"/>
+      <c r="AK37" s="7"/>
+      <c r="AL37" s="7"/>
+      <c r="AM37" s="7"/>
+      <c r="AN37" s="7"/>
+      <c r="AO37" s="7"/>
+      <c r="AP37" s="7"/>
+      <c r="AQ37" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR37" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AS37" s="8">
+        <v>2</v>
+      </c>
+      <c r="AT37" s="8">
+        <v>1</v>
+      </c>
+      <c r="AU37" s="7"/>
+      <c r="AV37" s="8">
+        <v>32</v>
+      </c>
+      <c r="AW37" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="AX37" s="8">
+        <v>4</v>
+      </c>
+      <c r="AY37" s="8">
+        <v>2</v>
+      </c>
+      <c r="AZ37" s="7"/>
+      <c r="BA37" s="8">
+        <v>34</v>
+      </c>
+      <c r="BB37" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="BC37" s="8">
+        <v>6</v>
+      </c>
+      <c r="BD37" s="8">
+        <v>3</v>
+      </c>
+      <c r="BE37" s="7"/>
+      <c r="BF37" s="8"/>
+      <c r="BG37" s="8"/>
+      <c r="BH37" s="8"/>
+      <c r="BI37" s="8"/>
+      <c r="BJ37" s="7"/>
+      <c r="BK37" s="8"/>
+      <c r="BL37" s="8"/>
+      <c r="BM37" s="8"/>
+      <c r="BN37" s="8"/>
+      <c r="BO37" s="7"/>
+    </row>
+    <row r="38" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B38" s="8">
+        <v>1710</v>
+      </c>
+      <c r="C38" s="8">
+        <v>3200</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8">
+        <v>60000000</v>
+      </c>
+      <c r="F38" s="7"/>
+      <c r="G38" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="L38" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="P38" s="8">
+        <v>17101101</v>
+      </c>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="S38" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="T38" s="8">
+        <v>1710</v>
+      </c>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7"/>
+      <c r="Y38" s="7"/>
+      <c r="Z38" s="7"/>
+      <c r="AA38" s="7"/>
+      <c r="AB38" s="7"/>
+      <c r="AC38" s="7"/>
+      <c r="AD38" s="7"/>
+      <c r="AE38" s="7"/>
+      <c r="AF38" s="7"/>
+      <c r="AG38" s="7"/>
+      <c r="AH38" s="7"/>
+      <c r="AI38" s="7"/>
+      <c r="AJ38" s="7"/>
+      <c r="AK38" s="7"/>
+      <c r="AL38" s="7"/>
+      <c r="AM38" s="7"/>
+      <c r="AN38" s="7"/>
+      <c r="AO38" s="7"/>
+      <c r="AP38" s="7"/>
+      <c r="AQ38" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR38" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AS38" s="8">
+        <v>2</v>
+      </c>
+      <c r="AT38" s="8">
+        <v>1</v>
+      </c>
+      <c r="AU38" s="7"/>
+      <c r="AV38" s="8">
+        <v>32</v>
+      </c>
+      <c r="AW38" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="AX38" s="8">
+        <v>4</v>
+      </c>
+      <c r="AY38" s="8">
+        <v>2</v>
+      </c>
+      <c r="AZ38" s="7"/>
+      <c r="BA38" s="8">
+        <v>34</v>
+      </c>
+      <c r="BB38" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="BC38" s="8">
+        <v>6</v>
+      </c>
+      <c r="BD38" s="8">
+        <v>3</v>
+      </c>
+      <c r="BE38" s="7"/>
+      <c r="BF38" s="8"/>
+      <c r="BG38" s="8"/>
+      <c r="BH38" s="8"/>
+      <c r="BI38" s="8"/>
+      <c r="BJ38" s="7"/>
+      <c r="BK38" s="8"/>
+      <c r="BL38" s="8"/>
+      <c r="BM38" s="8"/>
+      <c r="BN38" s="8"/>
+      <c r="BO38" s="7"/>
+    </row>
+    <row r="39" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B39" s="8">
+        <v>1710</v>
+      </c>
+      <c r="C39" s="8">
+        <v>3200</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E39" s="8"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="K39" s="11"/>
+      <c r="L39" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8">
+        <v>17101101</v>
+      </c>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="S39" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="T39" s="8">
+        <v>1710</v>
+      </c>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="7"/>
+      <c r="AA39" s="7"/>
+      <c r="AB39" s="7"/>
+      <c r="AC39" s="7"/>
+      <c r="AD39" s="7"/>
+      <c r="AE39" s="7"/>
+      <c r="AF39" s="7"/>
+      <c r="AG39" s="7"/>
+      <c r="AH39" s="7"/>
+      <c r="AI39" s="7"/>
+      <c r="AJ39" s="7"/>
+      <c r="AK39" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="AL39" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="AM39" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="AN39" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="AO39" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="AP39" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="AQ39" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR39" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AS39" s="8">
+        <v>2</v>
+      </c>
+      <c r="AT39" s="8">
+        <v>1</v>
+      </c>
+      <c r="AU39" s="7"/>
+      <c r="AV39" s="8">
+        <v>32</v>
+      </c>
+      <c r="AW39" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="AX39" s="8">
+        <v>4</v>
+      </c>
+      <c r="AY39" s="8">
+        <v>2</v>
+      </c>
+      <c r="AZ39" s="7"/>
+      <c r="BA39" s="8">
+        <v>34</v>
+      </c>
+      <c r="BB39" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="BC39" s="8">
+        <v>6</v>
+      </c>
+      <c r="BD39" s="8">
+        <v>3</v>
+      </c>
+      <c r="BE39" s="7"/>
+      <c r="BF39" s="8"/>
+      <c r="BG39" s="8"/>
+      <c r="BH39" s="8"/>
+      <c r="BI39" s="8"/>
+      <c r="BJ39" s="7"/>
+      <c r="BK39" s="8"/>
+      <c r="BL39" s="8"/>
+      <c r="BM39" s="8"/>
+      <c r="BN39" s="8"/>
+      <c r="BO39" s="7"/>
+    </row>
+    <row r="40" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B40" s="8">
+        <v>1710</v>
+      </c>
+      <c r="C40" s="8">
+        <v>3200</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8">
+        <v>60000000</v>
+      </c>
+      <c r="F40" s="7"/>
+      <c r="G40" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="K40" s="11"/>
+      <c r="L40" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="P40" s="8">
+        <v>17101101</v>
+      </c>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="S40" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="T40" s="8">
+        <v>1710</v>
+      </c>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="7"/>
+      <c r="Y40" s="7"/>
+      <c r="Z40" s="7"/>
+      <c r="AA40" s="7"/>
+      <c r="AB40" s="7"/>
+      <c r="AC40" s="7"/>
+      <c r="AD40" s="7"/>
+      <c r="AE40" s="7"/>
+      <c r="AF40" s="7"/>
+      <c r="AG40" s="7"/>
+      <c r="AH40" s="7"/>
+      <c r="AI40" s="7"/>
+      <c r="AJ40" s="7"/>
+      <c r="AK40" s="7"/>
+      <c r="AL40" s="7"/>
+      <c r="AM40" s="7"/>
+      <c r="AN40" s="7"/>
+      <c r="AO40" s="7"/>
+      <c r="AP40" s="7"/>
+      <c r="AQ40" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR40" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AS40" s="8">
+        <v>2</v>
+      </c>
+      <c r="AT40" s="8">
+        <v>1</v>
+      </c>
+      <c r="AU40" s="7"/>
+      <c r="AV40" s="8">
+        <v>32</v>
+      </c>
+      <c r="AW40" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="AX40" s="8">
+        <v>4</v>
+      </c>
+      <c r="AY40" s="8">
+        <v>2</v>
+      </c>
+      <c r="AZ40" s="7"/>
+      <c r="BA40" s="8">
+        <v>34</v>
+      </c>
+      <c r="BB40" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="BC40" s="8">
+        <v>6</v>
+      </c>
+      <c r="BD40" s="8">
+        <v>3</v>
+      </c>
+      <c r="BE40" s="7"/>
+      <c r="BF40" s="8"/>
+      <c r="BG40" s="8"/>
+      <c r="BH40" s="8"/>
+      <c r="BI40" s="8"/>
+      <c r="BJ40" s="7"/>
+      <c r="BK40" s="8"/>
+      <c r="BL40" s="8"/>
+      <c r="BM40" s="8"/>
+      <c r="BN40" s="8"/>
+      <c r="BO40" s="7"/>
+    </row>
+    <row r="41" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B41" s="8">
+        <v>1710</v>
+      </c>
+      <c r="C41" s="8">
+        <v>3200</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="K41" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="P41" s="8">
+        <v>17101101</v>
+      </c>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="S41" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="T41" s="8">
+        <v>1710</v>
+      </c>
+      <c r="U41" s="8"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="7"/>
+      <c r="AA41" s="7"/>
+      <c r="AB41" s="7"/>
+      <c r="AC41" s="7"/>
+      <c r="AD41" s="7"/>
+      <c r="AE41" s="7"/>
+      <c r="AF41" s="7"/>
+      <c r="AG41" s="7"/>
+      <c r="AH41" s="7"/>
+      <c r="AI41" s="7"/>
+      <c r="AJ41" s="7"/>
+      <c r="AK41" s="7"/>
+      <c r="AL41" s="7"/>
+      <c r="AM41" s="7"/>
+      <c r="AN41" s="7"/>
+      <c r="AO41" s="7"/>
+      <c r="AP41" s="7"/>
+      <c r="AQ41" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR41" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AS41" s="8">
+        <v>2</v>
+      </c>
+      <c r="AT41" s="8">
+        <v>1</v>
+      </c>
+      <c r="AU41" s="7"/>
+      <c r="AV41" s="8">
+        <v>32</v>
+      </c>
+      <c r="AW41" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="AX41" s="8">
+        <v>4</v>
+      </c>
+      <c r="AY41" s="8">
+        <v>2</v>
+      </c>
+      <c r="AZ41" s="7"/>
+      <c r="BA41" s="8">
+        <v>34</v>
+      </c>
+      <c r="BB41" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="BC41" s="8">
+        <v>6</v>
+      </c>
+      <c r="BD41" s="8">
+        <v>3</v>
+      </c>
+      <c r="BE41" s="7"/>
+      <c r="BF41" s="8"/>
+      <c r="BG41" s="8"/>
+      <c r="BH41" s="8"/>
+      <c r="BI41" s="8"/>
+      <c r="BJ41" s="7"/>
+      <c r="BK41" s="8"/>
+      <c r="BL41" s="8"/>
+      <c r="BM41" s="8"/>
+      <c r="BN41" s="8"/>
+      <c r="BO41" s="7"/>
+    </row>
+    <row r="42" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B42" s="8">
+        <v>1710</v>
+      </c>
+      <c r="C42" s="8">
+        <v>2000</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="K42" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="L42" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="M42" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="P42" s="8">
+        <v>17101101</v>
+      </c>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="S42" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="T42" s="8">
+        <v>1710</v>
+      </c>
+      <c r="U42" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="V42" s="8">
+        <v>10.33</v>
+      </c>
+      <c r="W42" s="7"/>
+      <c r="X42" s="7"/>
+      <c r="Y42" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="Z42" s="8"/>
+      <c r="AA42" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB42" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="AC42" s="8">
+        <v>50</v>
+      </c>
+      <c r="AD42" s="8"/>
+      <c r="AE42" s="11"/>
+      <c r="AF42" s="7"/>
       <c r="AG42" s="12"/>
-      <c r="AH42" s="13"/>
-      <c r="AI42" s="13"/>
-      <c r="AJ42" s="13"/>
-      <c r="AK42" s="14"/>
-      <c r="AL42" s="14"/>
-      <c r="AM42" s="14"/>
-      <c r="AN42" s="14"/>
-      <c r="AO42" s="14"/>
-      <c r="AP42" s="14"/>
-      <c r="AQ42" s="13"/>
-      <c r="AR42" s="13"/>
-      <c r="AS42" s="13"/>
-      <c r="AT42" s="13"/>
-      <c r="AU42" s="14"/>
-      <c r="AV42" s="13"/>
-      <c r="AW42" s="13"/>
-      <c r="AX42" s="13"/>
-      <c r="AY42" s="13"/>
-      <c r="AZ42" s="14"/>
-      <c r="BA42" s="13"/>
-      <c r="BB42" s="13"/>
-      <c r="BC42" s="13"/>
-      <c r="BD42" s="13"/>
-      <c r="BE42" s="14"/>
-      <c r="BF42" s="13"/>
-      <c r="BG42" s="13"/>
-      <c r="BH42" s="13"/>
-      <c r="BI42" s="13"/>
-      <c r="BJ42" s="14"/>
-      <c r="BK42" s="13"/>
-      <c r="BL42" s="13"/>
-      <c r="BM42" s="13"/>
-      <c r="BN42" s="13"/>
-      <c r="BO42" s="14"/>
-    </row>
-    <row r="43" spans="2:67" x14ac:dyDescent="0.2">
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="13"/>
-      <c r="Q43" s="14"/>
-      <c r="R43" s="13"/>
-      <c r="S43" s="13"/>
-      <c r="T43" s="13"/>
-      <c r="U43" s="13"/>
-      <c r="V43" s="13"/>
-      <c r="W43" s="14"/>
-      <c r="X43" s="14"/>
-      <c r="Y43" s="14"/>
-      <c r="Z43" s="14"/>
-      <c r="AA43" s="14"/>
-      <c r="AB43" s="14"/>
-      <c r="AC43" s="14"/>
-      <c r="AD43" s="14"/>
-      <c r="AE43" s="14"/>
-      <c r="AF43" s="14"/>
-      <c r="AG43" s="14"/>
-      <c r="AH43" s="14"/>
-      <c r="AI43" s="14"/>
-      <c r="AJ43" s="14"/>
-      <c r="AK43" s="14"/>
-      <c r="AL43" s="14"/>
-      <c r="AM43" s="14"/>
-      <c r="AN43" s="14"/>
-      <c r="AO43" s="14"/>
-      <c r="AP43" s="14"/>
-      <c r="AQ43" s="13"/>
-      <c r="AR43" s="13"/>
-      <c r="AS43" s="13"/>
-      <c r="AT43" s="13"/>
-      <c r="AU43" s="14"/>
-      <c r="AV43" s="13"/>
-      <c r="AW43" s="13"/>
-      <c r="AX43" s="13"/>
-      <c r="AY43" s="13"/>
-      <c r="AZ43" s="14"/>
-      <c r="BA43" s="13"/>
-      <c r="BB43" s="13"/>
-      <c r="BC43" s="13"/>
-      <c r="BD43" s="13"/>
-      <c r="BE43" s="14"/>
-      <c r="BF43" s="13"/>
-      <c r="BG43" s="13"/>
-      <c r="BH43" s="13"/>
-      <c r="BI43" s="13"/>
-      <c r="BJ43" s="14"/>
-      <c r="BK43" s="13"/>
-      <c r="BL43" s="13"/>
-      <c r="BM43" s="13"/>
-      <c r="BN43" s="13"/>
-      <c r="BO43" s="14"/>
-    </row>
-    <row r="44" spans="2:67" x14ac:dyDescent="0.2">
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="13"/>
-      <c r="O44" s="13"/>
-      <c r="P44" s="13"/>
-      <c r="Q44" s="14"/>
-      <c r="R44" s="13"/>
-      <c r="S44" s="13"/>
-      <c r="T44" s="13"/>
-      <c r="U44" s="13"/>
-      <c r="V44" s="13"/>
-      <c r="W44" s="14"/>
-      <c r="X44" s="14"/>
-      <c r="Y44" s="14"/>
-      <c r="Z44" s="14"/>
-      <c r="AA44" s="14"/>
-      <c r="AB44" s="14"/>
-      <c r="AC44" s="14"/>
-      <c r="AD44" s="14"/>
-      <c r="AE44" s="14"/>
-      <c r="AF44" s="14"/>
-      <c r="AG44" s="14"/>
-      <c r="AH44" s="14"/>
-      <c r="AI44" s="14"/>
-      <c r="AJ44" s="14"/>
-      <c r="AK44" s="14"/>
-      <c r="AL44" s="14"/>
-      <c r="AM44" s="14"/>
-      <c r="AN44" s="14"/>
-      <c r="AO44" s="14"/>
-      <c r="AP44" s="14"/>
-      <c r="AQ44" s="13"/>
-      <c r="AR44" s="13"/>
-      <c r="AS44" s="13"/>
-      <c r="AT44" s="13"/>
-      <c r="AU44" s="14"/>
-      <c r="AV44" s="13"/>
-      <c r="AW44" s="13"/>
-      <c r="AX44" s="13"/>
-      <c r="AY44" s="13"/>
-      <c r="AZ44" s="14"/>
-      <c r="BA44" s="13"/>
-      <c r="BB44" s="13"/>
-      <c r="BC44" s="13"/>
-      <c r="BD44" s="13"/>
-      <c r="BE44" s="14"/>
-      <c r="BF44" s="13"/>
-      <c r="BG44" s="13"/>
-      <c r="BH44" s="13"/>
-      <c r="BI44" s="13"/>
-      <c r="BJ44" s="14"/>
-      <c r="BK44" s="13"/>
-      <c r="BL44" s="13"/>
-      <c r="BM44" s="13"/>
-      <c r="BN44" s="13"/>
-      <c r="BO44" s="14"/>
-    </row>
-    <row r="45" spans="2:67" x14ac:dyDescent="0.2">
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13"/>
-      <c r="O45" s="13"/>
-      <c r="P45" s="13"/>
-      <c r="Q45" s="14"/>
-      <c r="R45" s="13"/>
-      <c r="S45" s="13"/>
-      <c r="T45" s="13"/>
-      <c r="U45" s="13"/>
-      <c r="V45" s="13"/>
-      <c r="W45" s="14"/>
-      <c r="X45" s="14"/>
-      <c r="Y45" s="14"/>
-      <c r="Z45" s="14"/>
-      <c r="AA45" s="14"/>
-      <c r="AB45" s="14"/>
-      <c r="AC45" s="14"/>
-      <c r="AD45" s="14"/>
-      <c r="AE45" s="14"/>
-      <c r="AF45" s="14"/>
-      <c r="AG45" s="14"/>
-      <c r="AH45" s="14"/>
-      <c r="AI45" s="14"/>
-      <c r="AJ45" s="14"/>
-      <c r="AK45" s="14"/>
-      <c r="AL45" s="10"/>
-      <c r="AM45" s="14"/>
-      <c r="AN45" s="10"/>
-      <c r="AO45" s="14"/>
-      <c r="AP45" s="14"/>
-      <c r="AQ45" s="13"/>
-      <c r="AR45" s="13"/>
-      <c r="AS45" s="13"/>
-      <c r="AT45" s="13"/>
-      <c r="AU45" s="14"/>
-      <c r="AV45" s="13"/>
-      <c r="AW45" s="13"/>
-      <c r="AX45" s="13"/>
-      <c r="AY45" s="13"/>
-      <c r="AZ45" s="14"/>
-      <c r="BA45" s="13"/>
-      <c r="BB45" s="13"/>
-      <c r="BC45" s="13"/>
-      <c r="BD45" s="13"/>
-      <c r="BE45" s="14"/>
-      <c r="BF45" s="13"/>
-      <c r="BG45" s="13"/>
-      <c r="BH45" s="13"/>
-      <c r="BI45" s="13"/>
-      <c r="BJ45" s="14"/>
-      <c r="BK45" s="13"/>
-      <c r="BL45" s="13"/>
-      <c r="BM45" s="13"/>
-      <c r="BN45" s="13"/>
-      <c r="BO45" s="14"/>
-    </row>
-    <row r="46" spans="2:67" x14ac:dyDescent="0.2">
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="13"/>
-      <c r="O46" s="13"/>
-      <c r="P46" s="13"/>
-      <c r="Q46" s="14"/>
-      <c r="R46" s="13"/>
-      <c r="S46" s="13"/>
-      <c r="T46" s="13"/>
-      <c r="U46" s="13"/>
-      <c r="V46" s="13"/>
-      <c r="W46" s="14"/>
-      <c r="X46" s="14"/>
-      <c r="Y46" s="14"/>
-      <c r="Z46" s="14"/>
-      <c r="AA46" s="14"/>
-      <c r="AB46" s="14"/>
-      <c r="AC46" s="14"/>
-      <c r="AD46" s="14"/>
-      <c r="AE46" s="14"/>
-      <c r="AF46" s="14"/>
-      <c r="AG46" s="14"/>
-      <c r="AH46" s="14"/>
-      <c r="AI46" s="14"/>
-      <c r="AJ46" s="14"/>
-      <c r="AK46" s="14"/>
-      <c r="AL46" s="14"/>
-      <c r="AM46" s="14"/>
-      <c r="AN46" s="14"/>
-      <c r="AO46" s="14"/>
-      <c r="AP46" s="14"/>
-      <c r="AQ46" s="13"/>
-      <c r="AR46" s="13"/>
-      <c r="AS46" s="13"/>
-      <c r="AT46" s="13"/>
-      <c r="AU46" s="14"/>
-      <c r="AV46" s="13"/>
-      <c r="AW46" s="13"/>
-      <c r="AX46" s="13"/>
-      <c r="AY46" s="13"/>
-      <c r="AZ46" s="14"/>
-      <c r="BA46" s="13"/>
-      <c r="BB46" s="13"/>
-      <c r="BC46" s="13"/>
-      <c r="BD46" s="13"/>
-      <c r="BE46" s="14"/>
-      <c r="BF46" s="13"/>
-      <c r="BG46" s="13"/>
-      <c r="BH46" s="13"/>
-      <c r="BI46" s="13"/>
-      <c r="BJ46" s="14"/>
-      <c r="BK46" s="13"/>
-      <c r="BL46" s="13"/>
-      <c r="BM46" s="13"/>
-      <c r="BN46" s="13"/>
-      <c r="BO46" s="14"/>
-    </row>
-    <row r="47" spans="2:67" x14ac:dyDescent="0.2">
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="12"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13"/>
-      <c r="O47" s="13"/>
-      <c r="P47" s="13"/>
-      <c r="Q47" s="14"/>
-      <c r="R47" s="13"/>
-      <c r="S47" s="13"/>
-      <c r="T47" s="13"/>
-      <c r="U47" s="13"/>
-      <c r="V47" s="13"/>
-      <c r="W47" s="14"/>
-      <c r="X47" s="14"/>
-      <c r="Y47" s="14"/>
-      <c r="Z47" s="14"/>
-      <c r="AA47" s="14"/>
-      <c r="AB47" s="14"/>
-      <c r="AC47" s="14"/>
-      <c r="AD47" s="14"/>
-      <c r="AE47" s="14"/>
-      <c r="AF47" s="14"/>
-      <c r="AG47" s="14"/>
-      <c r="AH47" s="14"/>
-      <c r="AI47" s="14"/>
-      <c r="AJ47" s="14"/>
-      <c r="AK47" s="14"/>
-      <c r="AL47" s="14"/>
-      <c r="AM47" s="14"/>
-      <c r="AN47" s="14"/>
-      <c r="AO47" s="14"/>
-      <c r="AP47" s="14"/>
-      <c r="AQ47" s="13"/>
-      <c r="AR47" s="13"/>
-      <c r="AS47" s="13"/>
-      <c r="AT47" s="13"/>
-      <c r="AU47" s="14"/>
-      <c r="AV47" s="13"/>
-      <c r="AW47" s="13"/>
-      <c r="AX47" s="13"/>
-      <c r="AY47" s="13"/>
-      <c r="AZ47" s="14"/>
-      <c r="BA47" s="13"/>
-      <c r="BB47" s="13"/>
-      <c r="BC47" s="13"/>
-      <c r="BD47" s="13"/>
-      <c r="BE47" s="14"/>
-      <c r="BF47" s="13"/>
-      <c r="BG47" s="13"/>
-      <c r="BH47" s="13"/>
-      <c r="BI47" s="13"/>
-      <c r="BJ47" s="14"/>
-      <c r="BK47" s="13"/>
-      <c r="BL47" s="13"/>
-      <c r="BM47" s="13"/>
-      <c r="BN47" s="13"/>
-      <c r="BO47" s="14"/>
+      <c r="AH42" s="8">
+        <v>2020</v>
+      </c>
+      <c r="AI42" s="8">
+        <v>15000</v>
+      </c>
+      <c r="AJ42" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="AK42" s="7"/>
+      <c r="AL42" s="7"/>
+      <c r="AM42" s="7"/>
+      <c r="AN42" s="7"/>
+      <c r="AO42" s="7"/>
+      <c r="AP42" s="7"/>
+      <c r="AQ42" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR42" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AS42" s="8">
+        <v>2</v>
+      </c>
+      <c r="AT42" s="8">
+        <v>1</v>
+      </c>
+      <c r="AU42" s="7"/>
+      <c r="AV42" s="8">
+        <v>32</v>
+      </c>
+      <c r="AW42" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="AX42" s="8">
+        <v>4</v>
+      </c>
+      <c r="AY42" s="8">
+        <v>2</v>
+      </c>
+      <c r="AZ42" s="7"/>
+      <c r="BA42" s="8">
+        <v>34</v>
+      </c>
+      <c r="BB42" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="BC42" s="8">
+        <v>6</v>
+      </c>
+      <c r="BD42" s="8">
+        <v>3</v>
+      </c>
+      <c r="BE42" s="7"/>
+      <c r="BF42" s="9"/>
+      <c r="BG42" s="8"/>
+      <c r="BH42" s="8"/>
+      <c r="BI42" s="8"/>
+      <c r="BJ42" s="7"/>
+      <c r="BK42" s="8"/>
+      <c r="BL42" s="8"/>
+      <c r="BM42" s="8"/>
+      <c r="BN42" s="8"/>
+      <c r="BO42" s="7"/>
+    </row>
+    <row r="43" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B43" s="8">
+        <v>1710</v>
+      </c>
+      <c r="C43" s="8">
+        <v>3200</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="K43" s="11"/>
+      <c r="L43" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8">
+        <v>17101101</v>
+      </c>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="S43" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="T43" s="8">
+        <v>1710</v>
+      </c>
+      <c r="U43" s="8"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="7"/>
+      <c r="Y43" s="7"/>
+      <c r="Z43" s="7"/>
+      <c r="AA43" s="7"/>
+      <c r="AB43" s="7"/>
+      <c r="AC43" s="7"/>
+      <c r="AD43" s="7"/>
+      <c r="AE43" s="7"/>
+      <c r="AF43" s="7"/>
+      <c r="AG43" s="7"/>
+      <c r="AH43" s="7"/>
+      <c r="AI43" s="7"/>
+      <c r="AJ43" s="7"/>
+      <c r="AK43" s="7"/>
+      <c r="AL43" s="7"/>
+      <c r="AM43" s="7"/>
+      <c r="AN43" s="7"/>
+      <c r="AO43" s="7"/>
+      <c r="AP43" s="7"/>
+      <c r="AQ43" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR43" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AS43" s="8">
+        <v>2</v>
+      </c>
+      <c r="AT43" s="8">
+        <v>1</v>
+      </c>
+      <c r="AU43" s="7"/>
+      <c r="AV43" s="8">
+        <v>32</v>
+      </c>
+      <c r="AW43" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="AX43" s="8">
+        <v>4</v>
+      </c>
+      <c r="AY43" s="8">
+        <v>2</v>
+      </c>
+      <c r="AZ43" s="7"/>
+      <c r="BA43" s="8">
+        <v>34</v>
+      </c>
+      <c r="BB43" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="BC43" s="8">
+        <v>6</v>
+      </c>
+      <c r="BD43" s="8">
+        <v>3</v>
+      </c>
+      <c r="BE43" s="7"/>
+      <c r="BF43" s="8"/>
+      <c r="BG43" s="8"/>
+      <c r="BH43" s="8"/>
+      <c r="BI43" s="8"/>
+      <c r="BJ43" s="7"/>
+      <c r="BK43" s="8"/>
+      <c r="BL43" s="8"/>
+      <c r="BM43" s="8"/>
+      <c r="BN43" s="8"/>
+      <c r="BO43" s="7"/>
+    </row>
+    <row r="44" spans="1:67" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B44" s="8">
+        <v>1710</v>
+      </c>
+      <c r="C44" s="8">
+        <v>3200</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8">
+        <v>60000000</v>
+      </c>
+      <c r="F44" s="7"/>
+      <c r="G44" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="K44" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="L44" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="P44" s="8">
+        <v>17101101</v>
+      </c>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="S44" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="T44" s="8">
+        <v>1710</v>
+      </c>
+      <c r="U44" s="8"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="7"/>
+      <c r="X44" s="7"/>
+      <c r="Y44" s="7"/>
+      <c r="Z44" s="7"/>
+      <c r="AA44" s="7"/>
+      <c r="AB44" s="7"/>
+      <c r="AC44" s="7"/>
+      <c r="AD44" s="7"/>
+      <c r="AE44" s="7"/>
+      <c r="AF44" s="7"/>
+      <c r="AG44" s="7"/>
+      <c r="AH44" s="7"/>
+      <c r="AI44" s="7"/>
+      <c r="AJ44" s="7"/>
+      <c r="AK44" s="7"/>
+      <c r="AL44" s="7"/>
+      <c r="AM44" s="7"/>
+      <c r="AN44" s="7"/>
+      <c r="AO44" s="7"/>
+      <c r="AP44" s="7"/>
+      <c r="AQ44" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR44" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AS44" s="8">
+        <v>2</v>
+      </c>
+      <c r="AT44" s="8">
+        <v>1</v>
+      </c>
+      <c r="AU44" s="7"/>
+      <c r="AV44" s="8">
+        <v>32</v>
+      </c>
+      <c r="AW44" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="AX44" s="8">
+        <v>4</v>
+      </c>
+      <c r="AY44" s="8">
+        <v>2</v>
+      </c>
+      <c r="AZ44" s="7"/>
+      <c r="BA44" s="8">
+        <v>34</v>
+      </c>
+      <c r="BB44" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="BC44" s="8">
+        <v>6</v>
+      </c>
+      <c r="BD44" s="8">
+        <v>3</v>
+      </c>
+      <c r="BE44" s="7"/>
+      <c r="BF44" s="8"/>
+      <c r="BG44" s="8"/>
+      <c r="BH44" s="8"/>
+      <c r="BI44" s="8"/>
+      <c r="BJ44" s="7"/>
+      <c r="BK44" s="8"/>
+      <c r="BL44" s="8"/>
+      <c r="BM44" s="8"/>
+      <c r="BN44" s="8"/>
+      <c r="BO44" s="7"/>
+    </row>
+    <row r="45" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B45" s="8">
+        <v>1710</v>
+      </c>
+      <c r="C45" s="8">
+        <v>3200</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E45" s="8"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="K45" s="11"/>
+      <c r="L45" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8">
+        <v>17101101</v>
+      </c>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="S45" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="T45" s="8">
+        <v>1710</v>
+      </c>
+      <c r="U45" s="8"/>
+      <c r="V45" s="8"/>
+      <c r="W45" s="7"/>
+      <c r="X45" s="7"/>
+      <c r="Y45" s="7"/>
+      <c r="Z45" s="7"/>
+      <c r="AA45" s="7"/>
+      <c r="AB45" s="7"/>
+      <c r="AC45" s="7"/>
+      <c r="AD45" s="7"/>
+      <c r="AE45" s="7"/>
+      <c r="AF45" s="7"/>
+      <c r="AG45" s="7"/>
+      <c r="AH45" s="7"/>
+      <c r="AI45" s="7"/>
+      <c r="AJ45" s="7"/>
+      <c r="AK45" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="AL45" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="AM45" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="AN45" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="AO45" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="AP45" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="AQ45" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR45" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AS45" s="8">
+        <v>2</v>
+      </c>
+      <c r="AT45" s="8">
+        <v>1</v>
+      </c>
+      <c r="AU45" s="7"/>
+      <c r="AV45" s="8">
+        <v>32</v>
+      </c>
+      <c r="AW45" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="AX45" s="8">
+        <v>4</v>
+      </c>
+      <c r="AY45" s="8">
+        <v>2</v>
+      </c>
+      <c r="AZ45" s="7"/>
+      <c r="BA45" s="8">
+        <v>34</v>
+      </c>
+      <c r="BB45" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="BC45" s="8">
+        <v>6</v>
+      </c>
+      <c r="BD45" s="8">
+        <v>3</v>
+      </c>
+      <c r="BE45" s="7"/>
+      <c r="BF45" s="8"/>
+      <c r="BG45" s="8"/>
+      <c r="BH45" s="8"/>
+      <c r="BI45" s="8"/>
+      <c r="BJ45" s="7"/>
+      <c r="BK45" s="8"/>
+      <c r="BL45" s="8"/>
+      <c r="BM45" s="8"/>
+      <c r="BN45" s="8"/>
+      <c r="BO45" s="7"/>
+    </row>
+    <row r="46" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B46" s="8">
+        <v>1710</v>
+      </c>
+      <c r="C46" s="8">
+        <v>3200</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8">
+        <v>60000000</v>
+      </c>
+      <c r="F46" s="7"/>
+      <c r="G46" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="K46" s="11"/>
+      <c r="L46" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="P46" s="8">
+        <v>17101101</v>
+      </c>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="S46" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="T46" s="8">
+        <v>1710</v>
+      </c>
+      <c r="U46" s="8"/>
+      <c r="V46" s="8"/>
+      <c r="W46" s="7"/>
+      <c r="X46" s="7"/>
+      <c r="Y46" s="7"/>
+      <c r="Z46" s="7"/>
+      <c r="AA46" s="7"/>
+      <c r="AB46" s="7"/>
+      <c r="AC46" s="7"/>
+      <c r="AD46" s="7"/>
+      <c r="AE46" s="7"/>
+      <c r="AF46" s="7"/>
+      <c r="AG46" s="7"/>
+      <c r="AH46" s="7"/>
+      <c r="AI46" s="7"/>
+      <c r="AJ46" s="7"/>
+      <c r="AK46" s="7"/>
+      <c r="AL46" s="7"/>
+      <c r="AM46" s="7"/>
+      <c r="AN46" s="7"/>
+      <c r="AO46" s="7"/>
+      <c r="AP46" s="7"/>
+      <c r="AQ46" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR46" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AS46" s="8">
+        <v>2</v>
+      </c>
+      <c r="AT46" s="8">
+        <v>1</v>
+      </c>
+      <c r="AU46" s="7"/>
+      <c r="AV46" s="8">
+        <v>32</v>
+      </c>
+      <c r="AW46" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="AX46" s="8">
+        <v>4</v>
+      </c>
+      <c r="AY46" s="8">
+        <v>2</v>
+      </c>
+      <c r="AZ46" s="7"/>
+      <c r="BA46" s="8">
+        <v>34</v>
+      </c>
+      <c r="BB46" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="BC46" s="8">
+        <v>6</v>
+      </c>
+      <c r="BD46" s="8">
+        <v>3</v>
+      </c>
+      <c r="BE46" s="7"/>
+      <c r="BF46" s="8"/>
+      <c r="BG46" s="8"/>
+      <c r="BH46" s="8"/>
+      <c r="BI46" s="8"/>
+      <c r="BJ46" s="7"/>
+      <c r="BK46" s="8"/>
+      <c r="BL46" s="8"/>
+      <c r="BM46" s="8"/>
+      <c r="BN46" s="8"/>
+      <c r="BO46" s="7"/>
+    </row>
+    <row r="47" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B47" s="8">
+        <v>1710</v>
+      </c>
+      <c r="C47" s="8">
+        <v>3200</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="K47" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="P47" s="8">
+        <v>17101101</v>
+      </c>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="S47" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="T47" s="8">
+        <v>1710</v>
+      </c>
+      <c r="U47" s="8"/>
+      <c r="V47" s="8"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7"/>
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="7"/>
+      <c r="AA47" s="7"/>
+      <c r="AB47" s="7"/>
+      <c r="AC47" s="7"/>
+      <c r="AD47" s="7"/>
+      <c r="AE47" s="7"/>
+      <c r="AF47" s="7"/>
+      <c r="AG47" s="7"/>
+      <c r="AH47" s="7"/>
+      <c r="AI47" s="7"/>
+      <c r="AJ47" s="7"/>
+      <c r="AK47" s="7"/>
+      <c r="AL47" s="7"/>
+      <c r="AM47" s="7"/>
+      <c r="AN47" s="7"/>
+      <c r="AO47" s="7"/>
+      <c r="AP47" s="7"/>
+      <c r="AQ47" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR47" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AS47" s="8">
+        <v>2</v>
+      </c>
+      <c r="AT47" s="8">
+        <v>1</v>
+      </c>
+      <c r="AU47" s="7"/>
+      <c r="AV47" s="8">
+        <v>32</v>
+      </c>
+      <c r="AW47" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="AX47" s="8">
+        <v>4</v>
+      </c>
+      <c r="AY47" s="8">
+        <v>2</v>
+      </c>
+      <c r="AZ47" s="7"/>
+      <c r="BA47" s="8">
+        <v>34</v>
+      </c>
+      <c r="BB47" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="BC47" s="8">
+        <v>6</v>
+      </c>
+      <c r="BD47" s="8">
+        <v>3</v>
+      </c>
+      <c r="BE47" s="7"/>
+      <c r="BF47" s="8"/>
+      <c r="BG47" s="8"/>
+      <c r="BH47" s="8"/>
+      <c r="BI47" s="8"/>
+      <c r="BJ47" s="7"/>
+      <c r="BK47" s="8"/>
+      <c r="BL47" s="8"/>
+      <c r="BM47" s="8"/>
+      <c r="BN47" s="8"/>
+      <c r="BO47" s="7"/>
+    </row>
+    <row r="48" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B48" s="8">
+        <v>1710</v>
+      </c>
+      <c r="C48" s="8">
+        <v>2000</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="K48" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="L48" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="M48" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="P48" s="8">
+        <v>17101101</v>
+      </c>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="S48" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="T48" s="8">
+        <v>1710</v>
+      </c>
+      <c r="U48" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="V48" s="8">
+        <v>10.33</v>
+      </c>
+      <c r="W48" s="7"/>
+      <c r="X48" s="7"/>
+      <c r="Y48" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="Z48" s="8"/>
+      <c r="AA48" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB48" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="AC48" s="8">
+        <v>50</v>
+      </c>
+      <c r="AD48" s="8"/>
+      <c r="AE48" s="11"/>
+      <c r="AF48" s="7"/>
+      <c r="AG48" s="12"/>
+      <c r="AH48" s="8">
+        <v>2020</v>
+      </c>
+      <c r="AI48" s="8">
+        <v>15000</v>
+      </c>
+      <c r="AJ48" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="AK48" s="7"/>
+      <c r="AL48" s="7"/>
+      <c r="AM48" s="7"/>
+      <c r="AN48" s="7"/>
+      <c r="AO48" s="7"/>
+      <c r="AP48" s="7"/>
+      <c r="AQ48" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR48" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AS48" s="8">
+        <v>2</v>
+      </c>
+      <c r="AT48" s="8">
+        <v>1</v>
+      </c>
+      <c r="AU48" s="7"/>
+      <c r="AV48" s="8">
+        <v>32</v>
+      </c>
+      <c r="AW48" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="AX48" s="8">
+        <v>4</v>
+      </c>
+      <c r="AY48" s="8">
+        <v>2</v>
+      </c>
+      <c r="AZ48" s="7"/>
+      <c r="BA48" s="8">
+        <v>34</v>
+      </c>
+      <c r="BB48" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="BC48" s="8">
+        <v>6</v>
+      </c>
+      <c r="BD48" s="8">
+        <v>3</v>
+      </c>
+      <c r="BE48" s="7"/>
+      <c r="BF48" s="9"/>
+      <c r="BG48" s="8"/>
+      <c r="BH48" s="8"/>
+      <c r="BI48" s="8"/>
+      <c r="BJ48" s="7"/>
+      <c r="BK48" s="8"/>
+      <c r="BL48" s="8"/>
+      <c r="BM48" s="8"/>
+      <c r="BN48" s="8"/>
+      <c r="BO48" s="7"/>
+    </row>
+    <row r="49" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B49" s="8">
+        <v>1710</v>
+      </c>
+      <c r="C49" s="8">
+        <v>3200</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="K49" s="11"/>
+      <c r="L49" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8">
+        <v>17101101</v>
+      </c>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="S49" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="T49" s="8">
+        <v>1710</v>
+      </c>
+      <c r="U49" s="8"/>
+      <c r="V49" s="8"/>
+      <c r="W49" s="7"/>
+      <c r="X49" s="7"/>
+      <c r="Y49" s="7"/>
+      <c r="Z49" s="7"/>
+      <c r="AA49" s="7"/>
+      <c r="AB49" s="7"/>
+      <c r="AC49" s="7"/>
+      <c r="AD49" s="7"/>
+      <c r="AE49" s="7"/>
+      <c r="AF49" s="7"/>
+      <c r="AG49" s="7"/>
+      <c r="AH49" s="7"/>
+      <c r="AI49" s="7"/>
+      <c r="AJ49" s="7"/>
+      <c r="AK49" s="7"/>
+      <c r="AL49" s="7"/>
+      <c r="AM49" s="7"/>
+      <c r="AN49" s="7"/>
+      <c r="AO49" s="7"/>
+      <c r="AP49" s="7"/>
+      <c r="AQ49" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR49" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AS49" s="8">
+        <v>2</v>
+      </c>
+      <c r="AT49" s="8">
+        <v>1</v>
+      </c>
+      <c r="AU49" s="7"/>
+      <c r="AV49" s="8">
+        <v>32</v>
+      </c>
+      <c r="AW49" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="AX49" s="8">
+        <v>4</v>
+      </c>
+      <c r="AY49" s="8">
+        <v>2</v>
+      </c>
+      <c r="AZ49" s="7"/>
+      <c r="BA49" s="8">
+        <v>34</v>
+      </c>
+      <c r="BB49" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="BC49" s="8">
+        <v>6</v>
+      </c>
+      <c r="BD49" s="8">
+        <v>3</v>
+      </c>
+      <c r="BE49" s="7"/>
+      <c r="BF49" s="8"/>
+      <c r="BG49" s="8"/>
+      <c r="BH49" s="8"/>
+      <c r="BI49" s="8"/>
+      <c r="BJ49" s="7"/>
+      <c r="BK49" s="8"/>
+      <c r="BL49" s="8"/>
+      <c r="BM49" s="8"/>
+      <c r="BN49" s="8"/>
+      <c r="BO49" s="7"/>
+    </row>
+    <row r="50" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B50" s="8">
+        <v>1710</v>
+      </c>
+      <c r="C50" s="8">
+        <v>3200</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8">
+        <v>60000000</v>
+      </c>
+      <c r="F50" s="7"/>
+      <c r="G50" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="J50" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="K50" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="L50" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="P50" s="8">
+        <v>17101101</v>
+      </c>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="S50" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="T50" s="8">
+        <v>1710</v>
+      </c>
+      <c r="U50" s="8"/>
+      <c r="V50" s="8"/>
+      <c r="W50" s="7"/>
+      <c r="X50" s="7"/>
+      <c r="Y50" s="7"/>
+      <c r="Z50" s="7"/>
+      <c r="AA50" s="7"/>
+      <c r="AB50" s="7"/>
+      <c r="AC50" s="7"/>
+      <c r="AD50" s="7"/>
+      <c r="AE50" s="7"/>
+      <c r="AF50" s="7"/>
+      <c r="AG50" s="7"/>
+      <c r="AH50" s="7"/>
+      <c r="AI50" s="7"/>
+      <c r="AJ50" s="7"/>
+      <c r="AK50" s="7"/>
+      <c r="AL50" s="7"/>
+      <c r="AM50" s="7"/>
+      <c r="AN50" s="7"/>
+      <c r="AO50" s="7"/>
+      <c r="AP50" s="7"/>
+      <c r="AQ50" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR50" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AS50" s="8">
+        <v>2</v>
+      </c>
+      <c r="AT50" s="8">
+        <v>1</v>
+      </c>
+      <c r="AU50" s="7"/>
+      <c r="AV50" s="8">
+        <v>32</v>
+      </c>
+      <c r="AW50" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="AX50" s="8">
+        <v>4</v>
+      </c>
+      <c r="AY50" s="8">
+        <v>2</v>
+      </c>
+      <c r="AZ50" s="7"/>
+      <c r="BA50" s="8">
+        <v>34</v>
+      </c>
+      <c r="BB50" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="BC50" s="8">
+        <v>6</v>
+      </c>
+      <c r="BD50" s="8">
+        <v>3</v>
+      </c>
+      <c r="BE50" s="7"/>
+      <c r="BF50" s="8"/>
+      <c r="BG50" s="8"/>
+      <c r="BH50" s="8"/>
+      <c r="BI50" s="8"/>
+      <c r="BJ50" s="7"/>
+      <c r="BK50" s="8"/>
+      <c r="BL50" s="8"/>
+      <c r="BM50" s="8"/>
+      <c r="BN50" s="8"/>
+      <c r="BO50" s="7"/>
+    </row>
+    <row r="51" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B51" s="8">
+        <v>1710</v>
+      </c>
+      <c r="C51" s="8">
+        <v>3200</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E51" s="8"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="J51" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="K51" s="11"/>
+      <c r="L51" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="8">
+        <v>17101101</v>
+      </c>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="S51" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="T51" s="8">
+        <v>1710</v>
+      </c>
+      <c r="U51" s="8"/>
+      <c r="V51" s="8"/>
+      <c r="W51" s="7"/>
+      <c r="X51" s="7"/>
+      <c r="Y51" s="7"/>
+      <c r="Z51" s="7"/>
+      <c r="AA51" s="7"/>
+      <c r="AB51" s="7"/>
+      <c r="AC51" s="7"/>
+      <c r="AD51" s="7"/>
+      <c r="AE51" s="7"/>
+      <c r="AF51" s="7"/>
+      <c r="AG51" s="7"/>
+      <c r="AH51" s="7"/>
+      <c r="AI51" s="7"/>
+      <c r="AJ51" s="7"/>
+      <c r="AK51" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="AL51" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="AM51" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="AN51" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="AO51" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="AP51" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="AQ51" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR51" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AS51" s="8">
+        <v>2</v>
+      </c>
+      <c r="AT51" s="8">
+        <v>1</v>
+      </c>
+      <c r="AU51" s="7"/>
+      <c r="AV51" s="8">
+        <v>32</v>
+      </c>
+      <c r="AW51" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="AX51" s="8">
+        <v>4</v>
+      </c>
+      <c r="AY51" s="8">
+        <v>2</v>
+      </c>
+      <c r="AZ51" s="7"/>
+      <c r="BA51" s="8">
+        <v>34</v>
+      </c>
+      <c r="BB51" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="BC51" s="8">
+        <v>6</v>
+      </c>
+      <c r="BD51" s="8">
+        <v>3</v>
+      </c>
+      <c r="BE51" s="7"/>
+      <c r="BF51" s="8"/>
+      <c r="BG51" s="8"/>
+      <c r="BH51" s="8"/>
+      <c r="BI51" s="8"/>
+      <c r="BJ51" s="7"/>
+      <c r="BK51" s="8"/>
+      <c r="BL51" s="8"/>
+      <c r="BM51" s="8"/>
+      <c r="BN51" s="8"/>
+      <c r="BO51" s="7"/>
+    </row>
+    <row r="52" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B52" s="8">
+        <v>1710</v>
+      </c>
+      <c r="C52" s="8">
+        <v>3200</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8">
+        <v>60000000</v>
+      </c>
+      <c r="F52" s="7"/>
+      <c r="G52" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="K52" s="11"/>
+      <c r="L52" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="P52" s="8">
+        <v>17101101</v>
+      </c>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="S52" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="T52" s="8">
+        <v>1710</v>
+      </c>
+      <c r="U52" s="8"/>
+      <c r="V52" s="8"/>
+      <c r="W52" s="7"/>
+      <c r="X52" s="7"/>
+      <c r="Y52" s="7"/>
+      <c r="Z52" s="7"/>
+      <c r="AA52" s="7"/>
+      <c r="AB52" s="7"/>
+      <c r="AC52" s="7"/>
+      <c r="AD52" s="7"/>
+      <c r="AE52" s="7"/>
+      <c r="AF52" s="7"/>
+      <c r="AG52" s="7"/>
+      <c r="AH52" s="7"/>
+      <c r="AI52" s="7"/>
+      <c r="AJ52" s="7"/>
+      <c r="AK52" s="7"/>
+      <c r="AL52" s="7"/>
+      <c r="AM52" s="7"/>
+      <c r="AN52" s="7"/>
+      <c r="AO52" s="7"/>
+      <c r="AP52" s="7"/>
+      <c r="AQ52" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR52" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AS52" s="8">
+        <v>2</v>
+      </c>
+      <c r="AT52" s="8">
+        <v>1</v>
+      </c>
+      <c r="AU52" s="7"/>
+      <c r="AV52" s="8">
+        <v>32</v>
+      </c>
+      <c r="AW52" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="AX52" s="8">
+        <v>4</v>
+      </c>
+      <c r="AY52" s="8">
+        <v>2</v>
+      </c>
+      <c r="AZ52" s="7"/>
+      <c r="BA52" s="8">
+        <v>34</v>
+      </c>
+      <c r="BB52" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="BC52" s="8">
+        <v>6</v>
+      </c>
+      <c r="BD52" s="8">
+        <v>3</v>
+      </c>
+      <c r="BE52" s="7"/>
+      <c r="BF52" s="8"/>
+      <c r="BG52" s="8"/>
+      <c r="BH52" s="8"/>
+      <c r="BI52" s="8"/>
+      <c r="BJ52" s="7"/>
+      <c r="BK52" s="8"/>
+      <c r="BL52" s="8"/>
+      <c r="BM52" s="8"/>
+      <c r="BN52" s="8"/>
+      <c r="BO52" s="7"/>
+    </row>
+    <row r="53" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B53" s="8">
+        <v>1710</v>
+      </c>
+      <c r="C53" s="8">
+        <v>3200</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="J53" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="K53" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="L53" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="P53" s="8">
+        <v>17101101</v>
+      </c>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="S53" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="T53" s="8">
+        <v>1710</v>
+      </c>
+      <c r="U53" s="8"/>
+      <c r="V53" s="8"/>
+      <c r="W53" s="7"/>
+      <c r="X53" s="7"/>
+      <c r="Y53" s="7"/>
+      <c r="Z53" s="7"/>
+      <c r="AA53" s="7"/>
+      <c r="AB53" s="7"/>
+      <c r="AC53" s="7"/>
+      <c r="AD53" s="7"/>
+      <c r="AE53" s="7"/>
+      <c r="AF53" s="7"/>
+      <c r="AG53" s="7"/>
+      <c r="AH53" s="7"/>
+      <c r="AI53" s="7"/>
+      <c r="AJ53" s="7"/>
+      <c r="AK53" s="7"/>
+      <c r="AL53" s="7"/>
+      <c r="AM53" s="7"/>
+      <c r="AN53" s="7"/>
+      <c r="AO53" s="7"/>
+      <c r="AP53" s="7"/>
+      <c r="AQ53" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR53" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AS53" s="8">
+        <v>2</v>
+      </c>
+      <c r="AT53" s="8">
+        <v>1</v>
+      </c>
+      <c r="AU53" s="7"/>
+      <c r="AV53" s="8">
+        <v>32</v>
+      </c>
+      <c r="AW53" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="AX53" s="8">
+        <v>4</v>
+      </c>
+      <c r="AY53" s="8">
+        <v>2</v>
+      </c>
+      <c r="AZ53" s="7"/>
+      <c r="BA53" s="8">
+        <v>34</v>
+      </c>
+      <c r="BB53" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="BC53" s="8">
+        <v>6</v>
+      </c>
+      <c r="BD53" s="8">
+        <v>3</v>
+      </c>
+      <c r="BE53" s="7"/>
+      <c r="BF53" s="8"/>
+      <c r="BG53" s="8"/>
+      <c r="BH53" s="8"/>
+      <c r="BI53" s="8"/>
+      <c r="BJ53" s="7"/>
+      <c r="BK53" s="8"/>
+      <c r="BL53" s="8"/>
+      <c r="BM53" s="8"/>
+      <c r="BN53" s="8"/>
+      <c r="BO53" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/00_create_template.xlsx
+++ b/00_create_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sap-my.sharepoint.com/personal/mark_csaszar_sap_com/Documents/Projects/Scrum Master/START/MPA/python_scripts/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="251" documentId="11_054DCBBE86079F92FCDA360A36A5264A2DFC5A56" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D330D6B-35B5-F944-B61C-DED0F4ACDB97}"/>
+  <xr:revisionPtr revIDLastSave="254" documentId="11_054DCBBE86079F92FCDA360A36A5264A2DFC5A56" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EED18A9-D2E9-A24E-A9E0-35F4934E9203}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="365">
   <si>
     <t>Asset Mass Create</t>
   </si>
@@ -1098,6 +1098,39 @@
   </si>
   <si>
     <t>MPA_RETIREMENT_SCENARIO_1</t>
+  </si>
+  <si>
+    <t>MPA_RETIREMENT_SCENARIO_2</t>
+  </si>
+  <si>
+    <t>MPA_RETIREMENT_SCENARIO_3</t>
+  </si>
+  <si>
+    <t>MPA_RETIREMENT_SCENARIO_4</t>
+  </si>
+  <si>
+    <t>MPA_RETIREMENT_SCENARIO_5</t>
+  </si>
+  <si>
+    <t>MPA_RETIREMENT_SCENARIO_6</t>
+  </si>
+  <si>
+    <t>MPA_RETIREMENT_SCENARIO_7</t>
+  </si>
+  <si>
+    <t>MPA_RETIREMENT_SCENARIO_8</t>
+  </si>
+  <si>
+    <t>MPA_RETIREMENT_SCENARIO_9</t>
+  </si>
+  <si>
+    <t>MPA_RETIREMENT_SCENARIO_10</t>
+  </si>
+  <si>
+    <t>MPA_RETIREMENT_SCENARIO_11</t>
+  </si>
+  <si>
+    <t>MPA_RETIREMENT_SCENARIO_12</t>
   </si>
 </sst>
 </file>
@@ -2917,7 +2950,7 @@
   <dimension ref="A1:BO53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8054,7 +8087,7 @@
       <c r="E43" s="8"/>
       <c r="F43" s="7"/>
       <c r="G43" s="8" t="s">
-        <v>268</v>
+        <v>354</v>
       </c>
       <c r="H43" s="8"/>
       <c r="I43" s="8" t="s">
@@ -8171,7 +8204,7 @@
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="8" t="s">
-        <v>269</v>
+        <v>355</v>
       </c>
       <c r="H44" s="8" t="s">
         <v>269</v>
@@ -8294,7 +8327,7 @@
       <c r="E45" s="8"/>
       <c r="F45" s="7"/>
       <c r="G45" s="8" t="s">
-        <v>270</v>
+        <v>356</v>
       </c>
       <c r="H45" s="8"/>
       <c r="I45" s="8" t="s">
@@ -8423,7 +8456,7 @@
       </c>
       <c r="F46" s="7"/>
       <c r="G46" s="8" t="s">
-        <v>271</v>
+        <v>357</v>
       </c>
       <c r="H46" s="8"/>
       <c r="I46" s="8" t="s">
@@ -8540,7 +8573,7 @@
       <c r="E47" s="8"/>
       <c r="F47" s="7"/>
       <c r="G47" s="8" t="s">
-        <v>272</v>
+        <v>358</v>
       </c>
       <c r="H47" s="8" t="s">
         <v>272</v>
@@ -8661,7 +8694,7 @@
       <c r="E48" s="8"/>
       <c r="F48" s="7"/>
       <c r="G48" s="8" t="s">
-        <v>267</v>
+        <v>359</v>
       </c>
       <c r="H48" s="8" t="s">
         <v>267</v>
@@ -8802,7 +8835,7 @@
       <c r="E49" s="8"/>
       <c r="F49" s="7"/>
       <c r="G49" s="8" t="s">
-        <v>268</v>
+        <v>360</v>
       </c>
       <c r="H49" s="8"/>
       <c r="I49" s="8" t="s">
@@ -8919,7 +8952,7 @@
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="8" t="s">
-        <v>269</v>
+        <v>361</v>
       </c>
       <c r="H50" s="8" t="s">
         <v>269</v>
@@ -9042,7 +9075,7 @@
       <c r="E51" s="8"/>
       <c r="F51" s="7"/>
       <c r="G51" s="8" t="s">
-        <v>270</v>
+        <v>362</v>
       </c>
       <c r="H51" s="8"/>
       <c r="I51" s="8" t="s">
@@ -9171,7 +9204,7 @@
       </c>
       <c r="F52" s="7"/>
       <c r="G52" s="8" t="s">
-        <v>271</v>
+        <v>363</v>
       </c>
       <c r="H52" s="8"/>
       <c r="I52" s="8" t="s">
@@ -9288,7 +9321,7 @@
       <c r="E53" s="8"/>
       <c r="F53" s="7"/>
       <c r="G53" s="8" t="s">
-        <v>272</v>
+        <v>364</v>
       </c>
       <c r="H53" s="8" t="s">
         <v>272</v>

--- a/00_create_template.xlsx
+++ b/00_create_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sap-my.sharepoint.com/personal/mark_csaszar_sap_com/Documents/Projects/Scrum Master/START/MPA/python_scripts/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="256" documentId="11_054DCBBE86079F92FCDA360A36A5264A2DFC5A56" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D671F1B3-ED05-9140-89D9-47CD9109F743}"/>
+  <xr:revisionPtr revIDLastSave="301" documentId="11_054DCBBE86079F92FCDA360A36A5264A2DFC5A56" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59CA1DA5-2D0A-D048-A568-E78AA10C6FC5}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="305">
   <si>
     <t>Asset Mass Create</t>
   </si>
@@ -906,6 +906,51 @@
   </si>
   <si>
     <t>3L</t>
+  </si>
+  <si>
+    <t>2022.01.01</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>MPA_TRANSFER_SCENARIO_1</t>
+  </si>
+  <si>
+    <t>MPA_TRANSFER_SCENARIO_2</t>
+  </si>
+  <si>
+    <t>MPA_TRANSFER_SCENARIO_3</t>
+  </si>
+  <si>
+    <t>MPA_TRANSFER_SCENARIO_4</t>
+  </si>
+  <si>
+    <t>SN_MPATRANSFER1</t>
+  </si>
+  <si>
+    <t>MPA_TRANSFER_SCENARIO_SENDER_MAIN</t>
+  </si>
+  <si>
+    <t>MPA_TRANSFER_SCENARIO_SENDER_SUB</t>
+  </si>
+  <si>
+    <t>MPA_TRANSFER_SCENARIO_INTRA_REC_MAIN</t>
+  </si>
+  <si>
+    <t>MPA_TRANSFER_SCENARIO_INTRA_REC_SUB</t>
+  </si>
+  <si>
+    <t>MPA_TRANSFER_SCENARIO_INTER_REC_MAIN</t>
+  </si>
+  <si>
+    <t>MPA_TRANSFER_SCENARIO_INTER_REC_SUB</t>
   </si>
 </sst>
 </file>
@@ -2722,10 +2767,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:BO11"/>
+  <dimension ref="A1:BO35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2736,7 +2781,7 @@
     <col min="4" max="4" width="37" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24" style="1" bestFit="1" customWidth="1"/>
@@ -3227,7 +3272,7 @@
         <v>1710</v>
       </c>
       <c r="C6" s="8">
-        <v>2000</v>
+        <v>3200</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -3245,7 +3290,7 @@
         <v>257</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="L6" s="8" t="s">
         <v>279</v>
@@ -3503,7 +3548,7 @@
         <v>257</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="L8" s="8" t="s">
         <v>281</v>
@@ -3872,7 +3917,7 @@
         <v>257</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="L11" s="8" t="s">
         <v>284</v>
@@ -3967,6 +4012,521 @@
       <c r="BN11" s="8"/>
       <c r="BO11" s="7"/>
     </row>
+    <row r="12" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1710</v>
+      </c>
+      <c r="C12" s="8">
+        <v>3200</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="P12" s="8">
+        <v>17101101</v>
+      </c>
+      <c r="R12" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="S12" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="T12" s="8">
+        <v>1710</v>
+      </c>
+      <c r="AQ12" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR12" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AS12" s="8">
+        <v>2</v>
+      </c>
+      <c r="AT12" s="8">
+        <v>1</v>
+      </c>
+      <c r="AU12" s="7"/>
+      <c r="AV12" s="8">
+        <v>32</v>
+      </c>
+      <c r="AW12" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="AX12" s="8">
+        <v>4</v>
+      </c>
+      <c r="AY12" s="8">
+        <v>2</v>
+      </c>
+      <c r="AZ12" s="7"/>
+      <c r="BA12" s="8">
+        <v>34</v>
+      </c>
+      <c r="BB12" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="BC12" s="8">
+        <v>6</v>
+      </c>
+      <c r="BD12" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" s="8">
+        <v>1710</v>
+      </c>
+      <c r="C13" s="8">
+        <v>3200</v>
+      </c>
+      <c r="E13" s="8">
+        <v>60000000</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="P13" s="8">
+        <v>17101101</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="S13" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="T13" s="8">
+        <v>1710</v>
+      </c>
+      <c r="AQ13" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR13" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AS13" s="8">
+        <v>2</v>
+      </c>
+      <c r="AT13" s="8">
+        <v>1</v>
+      </c>
+      <c r="AU13" s="7"/>
+      <c r="AV13" s="8">
+        <v>32</v>
+      </c>
+      <c r="AW13" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="AX13" s="8">
+        <v>4</v>
+      </c>
+      <c r="AY13" s="8">
+        <v>2</v>
+      </c>
+      <c r="AZ13" s="7"/>
+      <c r="BA13" s="8">
+        <v>34</v>
+      </c>
+      <c r="BB13" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="BC13" s="8">
+        <v>6</v>
+      </c>
+      <c r="BD13" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B14" s="8">
+        <v>1710</v>
+      </c>
+      <c r="C14" s="8">
+        <v>3200</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="P14" s="8">
+        <v>17101101</v>
+      </c>
+      <c r="R14" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="S14" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="T14" s="8">
+        <v>1710</v>
+      </c>
+      <c r="AQ14" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR14" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AS14" s="8">
+        <v>2</v>
+      </c>
+      <c r="AT14" s="8">
+        <v>1</v>
+      </c>
+      <c r="AU14" s="7"/>
+      <c r="AV14" s="8">
+        <v>32</v>
+      </c>
+      <c r="AW14" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="AX14" s="8">
+        <v>4</v>
+      </c>
+      <c r="AY14" s="8">
+        <v>2</v>
+      </c>
+      <c r="AZ14" s="7"/>
+      <c r="BA14" s="8">
+        <v>34</v>
+      </c>
+      <c r="BB14" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="BC14" s="8">
+        <v>6</v>
+      </c>
+      <c r="BD14" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" s="8">
+        <v>1710</v>
+      </c>
+      <c r="C15" s="8">
+        <v>3200</v>
+      </c>
+      <c r="E15" s="8">
+        <v>60000000</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="P15" s="8">
+        <v>17101101</v>
+      </c>
+      <c r="R15" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="S15" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="T15" s="8">
+        <v>1710</v>
+      </c>
+      <c r="AQ15" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR15" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AS15" s="8">
+        <v>2</v>
+      </c>
+      <c r="AT15" s="8">
+        <v>1</v>
+      </c>
+      <c r="AU15" s="7"/>
+      <c r="AV15" s="8">
+        <v>32</v>
+      </c>
+      <c r="AW15" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="AX15" s="8">
+        <v>4</v>
+      </c>
+      <c r="AY15" s="8">
+        <v>2</v>
+      </c>
+      <c r="AZ15" s="7"/>
+      <c r="BA15" s="8">
+        <v>34</v>
+      </c>
+      <c r="BB15" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="BC15" s="8">
+        <v>6</v>
+      </c>
+      <c r="BD15" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B16" s="8">
+        <v>1720</v>
+      </c>
+      <c r="C16" s="8">
+        <v>3200</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="P16" s="8">
+        <v>17201101</v>
+      </c>
+      <c r="R16" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="S16" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="T16" s="8"/>
+      <c r="AQ16" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR16" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AS16" s="8">
+        <v>2</v>
+      </c>
+      <c r="AT16" s="8">
+        <v>1</v>
+      </c>
+      <c r="AU16" s="7"/>
+      <c r="AV16" s="8">
+        <v>32</v>
+      </c>
+      <c r="AW16" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="AX16" s="8">
+        <v>4</v>
+      </c>
+      <c r="AY16" s="8">
+        <v>2</v>
+      </c>
+      <c r="AZ16" s="7"/>
+      <c r="BA16" s="8">
+        <v>34</v>
+      </c>
+      <c r="BB16" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="BC16" s="8">
+        <v>6</v>
+      </c>
+      <c r="BD16" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" s="8">
+        <v>1720</v>
+      </c>
+      <c r="C17" s="8">
+        <v>3200</v>
+      </c>
+      <c r="E17" s="8">
+        <v>60000000</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="P17" s="8">
+        <v>17201101</v>
+      </c>
+      <c r="R17" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="S17" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="T17" s="8"/>
+      <c r="AQ17" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR17" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AS17" s="8">
+        <v>2</v>
+      </c>
+      <c r="AT17" s="8">
+        <v>1</v>
+      </c>
+      <c r="AU17" s="7"/>
+      <c r="AV17" s="8">
+        <v>32</v>
+      </c>
+      <c r="AW17" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="AX17" s="8">
+        <v>4</v>
+      </c>
+      <c r="AY17" s="8">
+        <v>2</v>
+      </c>
+      <c r="AZ17" s="7"/>
+      <c r="BA17" s="8">
+        <v>34</v>
+      </c>
+      <c r="BB17" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="BC17" s="8">
+        <v>6</v>
+      </c>
+      <c r="BD17" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+    </row>
+    <row r="19" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+    </row>
+    <row r="20" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+    </row>
+    <row r="21" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+    </row>
+    <row r="22" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+    </row>
+    <row r="23" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+    </row>
+    <row r="24" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+    </row>
+    <row r="25" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+    </row>
+    <row r="26" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+    </row>
+    <row r="27" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+    </row>
+    <row r="28" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+    </row>
+    <row r="29" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+    </row>
+    <row r="30" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+    </row>
+    <row r="31" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+    </row>
+    <row r="32" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/00_create_template.xlsx
+++ b/00_create_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sap-my.sharepoint.com/personal/mark_csaszar_sap_com/Documents/Projects/Scrum Master/START/MPA/python_scripts/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="301" documentId="11_054DCBBE86079F92FCDA360A36A5264A2DFC5A56" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59CA1DA5-2D0A-D048-A568-E78AA10C6FC5}"/>
+  <xr:revisionPtr revIDLastSave="302" documentId="11_054DCBBE86079F92FCDA360A36A5264A2DFC5A56" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9634EAA6-102A-D246-9DF9-59A148A06F42}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="302">
   <si>
     <t>Asset Mass Create</t>
   </si>
@@ -917,9 +917,6 @@
     <t>9</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>MPA_TRANSFER_SCENARIO_1</t>
   </si>
   <si>
@@ -945,12 +942,6 @@
   </si>
   <si>
     <t>MPA_TRANSFER_SCENARIO_INTRA_REC_SUB</t>
-  </si>
-  <si>
-    <t>MPA_TRANSFER_SCENARIO_INTER_REC_MAIN</t>
-  </si>
-  <si>
-    <t>MPA_TRANSFER_SCENARIO_INTER_REC_SUB</t>
   </si>
 </sst>
 </file>
@@ -2767,10 +2758,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:BO35"/>
+  <dimension ref="A1:BO33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4023,13 +4014,13 @@
         <v>3200</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J12" s="8" t="s">
         <v>257</v>
@@ -4099,13 +4090,13 @@
         <v>60000000</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J13" s="8" t="s">
         <v>257</v>
@@ -4172,13 +4163,13 @@
         <v>3200</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>257</v>
@@ -4248,13 +4239,13 @@
         <v>60000000</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H15" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>257</v>
@@ -4311,221 +4302,76 @@
       </c>
     </row>
     <row r="16" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B16" s="8">
-        <v>1720</v>
-      </c>
-      <c r="C16" s="8">
-        <v>3200</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="P16" s="8">
-        <v>17201101</v>
-      </c>
-      <c r="R16" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="S16" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="T16" s="8"/>
-      <c r="AQ16" s="8">
-        <v>1</v>
-      </c>
-      <c r="AR16" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="AS16" s="8">
-        <v>2</v>
-      </c>
-      <c r="AT16" s="8">
-        <v>1</v>
-      </c>
-      <c r="AU16" s="7"/>
-      <c r="AV16" s="8">
-        <v>32</v>
-      </c>
-      <c r="AW16" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="AX16" s="8">
-        <v>4</v>
-      </c>
-      <c r="AY16" s="8">
-        <v>2</v>
-      </c>
-      <c r="AZ16" s="7"/>
-      <c r="BA16" s="8">
-        <v>34</v>
-      </c>
-      <c r="BB16" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="BC16" s="8">
-        <v>6</v>
-      </c>
-      <c r="BD16" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B17" s="8">
-        <v>1720</v>
-      </c>
-      <c r="C17" s="8">
-        <v>3200</v>
-      </c>
-      <c r="E17" s="8">
-        <v>60000000</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="P17" s="8">
-        <v>17201101</v>
-      </c>
-      <c r="R17" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="S17" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="T17" s="8"/>
-      <c r="AQ17" s="8">
-        <v>1</v>
-      </c>
-      <c r="AR17" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="AS17" s="8">
-        <v>2</v>
-      </c>
-      <c r="AT17" s="8">
-        <v>1</v>
-      </c>
-      <c r="AU17" s="7"/>
-      <c r="AV17" s="8">
-        <v>32</v>
-      </c>
-      <c r="AW17" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="AX17" s="8">
-        <v>4</v>
-      </c>
-      <c r="AY17" s="8">
-        <v>2</v>
-      </c>
-      <c r="AZ17" s="7"/>
-      <c r="BA17" s="8">
-        <v>34</v>
-      </c>
-      <c r="BB17" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="BC17" s="8">
-        <v>6</v>
-      </c>
-      <c r="BD17" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
     </row>
-    <row r="19" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
     </row>
-    <row r="20" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
     </row>
-    <row r="21" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
     </row>
-    <row r="23" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
     </row>
-    <row r="24" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
     </row>
-    <row r="25" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
     </row>
-    <row r="26" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
     </row>
-    <row r="27" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
     </row>
-    <row r="28" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
     </row>
-    <row r="29" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
     </row>
-    <row r="30" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
     </row>
-    <row r="31" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
     </row>
-    <row r="32" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/00_create_template.xlsx
+++ b/00_create_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sap-my.sharepoint.com/personal/mark_csaszar_sap_com/Documents/Projects/Scrum Master/START/MPA/python_scripts/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="302" documentId="11_054DCBBE86079F92FCDA360A36A5264A2DFC5A56" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9634EAA6-102A-D246-9DF9-59A148A06F42}"/>
+  <xr:revisionPtr revIDLastSave="303" documentId="11_054DCBBE86079F92FCDA360A36A5264A2DFC5A56" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D7D0DDF-3AA9-4F45-B6F7-72BDAF64FAD8}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2761,7 +2761,7 @@
   <dimension ref="A1:BO33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3263,7 +3263,7 @@
         <v>1710</v>
       </c>
       <c r="C6" s="8">
-        <v>3200</v>
+        <v>2000</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>

--- a/00_create_template.xlsx
+++ b/00_create_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sap-my.sharepoint.com/personal/mark_csaszar_sap_com/Documents/Projects/Scrum Master/START/MPA/python_scripts/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="303" documentId="11_054DCBBE86079F92FCDA360A36A5264A2DFC5A56" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D7D0DDF-3AA9-4F45-B6F7-72BDAF64FAD8}"/>
+  <xr:revisionPtr revIDLastSave="335" documentId="11_054DCBBE86079F92FCDA360A36A5264A2DFC5A56" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E81C01D0-0FAE-6F47-9D22-36E41E657A79}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="318">
   <si>
     <t>Asset Mass Create</t>
   </si>
@@ -942,6 +942,54 @@
   </si>
   <si>
     <t>MPA_TRANSFER_SCENARIO_INTRA_REC_SUB</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_SCENARIO_1</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_SCENARIO_2</t>
+  </si>
+  <si>
+    <t>SN_ADJUSTMENT1</t>
+  </si>
+  <si>
+    <t>SN_ADJUSTMENT2</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>SN_MPARETIREMENT1</t>
+  </si>
+  <si>
+    <t>SN_MPARETIREMENT2</t>
+  </si>
+  <si>
+    <t>SN_MPARETIREMENT3</t>
+  </si>
+  <si>
+    <t>SN_MPARETIREMENT4</t>
+  </si>
+  <si>
+    <t>MPA_RETIREMENT_PARTIAL_SCENARIO1</t>
+  </si>
+  <si>
+    <t>MPA_RETIREMENT_PARTIAL_SCENARIO2</t>
+  </si>
+  <si>
+    <t>MPA_RETIREMENT_FULL_SCENARIO1</t>
+  </si>
+  <si>
+    <t>MPA_RETIREMENT_FULLL_SCENARIO2</t>
   </si>
 </sst>
 </file>
@@ -1019,7 +1067,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1047,6 +1095,15 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2760,8 +2817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BO33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4302,70 +4359,724 @@
       </c>
     </row>
     <row r="16" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B16" s="8">
+        <v>1710</v>
+      </c>
+      <c r="C16" s="8">
+        <v>3200</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="P16" s="8">
+        <v>17101101</v>
+      </c>
+      <c r="R16" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="S16" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="T16" s="8">
+        <v>1710</v>
+      </c>
+      <c r="AQ16" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR16" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AS16" s="8">
+        <v>2</v>
+      </c>
+      <c r="AT16" s="8">
+        <v>1</v>
+      </c>
+      <c r="AU16" s="7"/>
+      <c r="AV16" s="8">
+        <v>32</v>
+      </c>
+      <c r="AW16" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="AX16" s="8">
+        <v>4</v>
+      </c>
+      <c r="AY16" s="8">
+        <v>2</v>
+      </c>
+      <c r="AZ16" s="7"/>
+      <c r="BA16" s="8">
+        <v>34</v>
+      </c>
+      <c r="BB16" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="BC16" s="8">
+        <v>6</v>
+      </c>
+      <c r="BD16" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" s="8">
+        <v>1710</v>
+      </c>
+      <c r="C17" s="8">
+        <v>3200</v>
+      </c>
+      <c r="E17" s="8">
+        <v>60000000</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="P17" s="8">
+        <v>17101101</v>
+      </c>
+      <c r="R17" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="S17" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="T17" s="8">
+        <v>1710</v>
+      </c>
+      <c r="AQ17" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR17" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AS17" s="8">
+        <v>2</v>
+      </c>
+      <c r="AT17" s="8">
+        <v>1</v>
+      </c>
+      <c r="AU17" s="7"/>
+      <c r="AV17" s="8">
+        <v>32</v>
+      </c>
+      <c r="AW17" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="AX17" s="8">
+        <v>4</v>
+      </c>
+      <c r="AY17" s="8">
+        <v>2</v>
+      </c>
+      <c r="AZ17" s="7"/>
+      <c r="BA17" s="8">
+        <v>34</v>
+      </c>
+      <c r="BB17" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="BC17" s="8">
+        <v>6</v>
+      </c>
+      <c r="BD17" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:67" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="B18" s="14">
+        <v>1710</v>
+      </c>
+      <c r="C18" s="14">
+        <v>3200</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="14">
+        <v>17101101</v>
+      </c>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="S18" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="T18" s="14">
+        <v>1710</v>
+      </c>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="13"/>
+      <c r="AC18" s="13"/>
+      <c r="AD18" s="13"/>
+      <c r="AE18" s="13"/>
+      <c r="AF18" s="13"/>
+      <c r="AG18" s="13"/>
+      <c r="AH18" s="13"/>
+      <c r="AI18" s="13"/>
+      <c r="AJ18" s="13"/>
+      <c r="AK18" s="13"/>
+      <c r="AL18" s="13"/>
+      <c r="AM18" s="13"/>
+      <c r="AN18" s="13"/>
+      <c r="AO18" s="13"/>
+      <c r="AP18" s="13"/>
+      <c r="AQ18" s="14">
+        <v>1</v>
+      </c>
+      <c r="AR18" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="AS18" s="14">
+        <v>2</v>
+      </c>
+      <c r="AT18" s="14">
+        <v>1</v>
+      </c>
+      <c r="AU18" s="15"/>
+      <c r="AV18" s="14">
+        <v>32</v>
+      </c>
+      <c r="AW18" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="AX18" s="14">
+        <v>4</v>
+      </c>
+      <c r="AY18" s="14">
+        <v>2</v>
+      </c>
+      <c r="AZ18" s="15"/>
+      <c r="BA18" s="14">
+        <v>34</v>
+      </c>
+      <c r="BB18" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="BC18" s="14">
+        <v>6</v>
+      </c>
+      <c r="BD18" s="14">
+        <v>3</v>
+      </c>
+      <c r="BE18" s="13"/>
+      <c r="BF18" s="13"/>
+      <c r="BG18" s="13"/>
+      <c r="BH18" s="13"/>
+      <c r="BI18" s="13"/>
+      <c r="BJ18" s="13"/>
+      <c r="BK18" s="13"/>
+      <c r="BL18" s="13"/>
+      <c r="BM18" s="13"/>
+      <c r="BN18" s="13"/>
+      <c r="BO18" s="13"/>
+    </row>
+    <row r="19" spans="1:67" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="B19" s="14">
+        <v>1710</v>
+      </c>
+      <c r="C19" s="14">
+        <v>3200</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="14">
+        <v>60000000</v>
+      </c>
+      <c r="F19" s="13"/>
+      <c r="G19" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="14">
+        <v>17101101</v>
+      </c>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="S19" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="T19" s="14">
+        <v>1710</v>
+      </c>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="13"/>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="13"/>
+      <c r="AC19" s="13"/>
+      <c r="AD19" s="13"/>
+      <c r="AE19" s="13"/>
+      <c r="AF19" s="13"/>
+      <c r="AG19" s="13"/>
+      <c r="AH19" s="13"/>
+      <c r="AI19" s="13"/>
+      <c r="AJ19" s="13"/>
+      <c r="AK19" s="13"/>
+      <c r="AL19" s="13"/>
+      <c r="AM19" s="13"/>
+      <c r="AN19" s="13"/>
+      <c r="AO19" s="13"/>
+      <c r="AP19" s="13"/>
+      <c r="AQ19" s="14">
+        <v>1</v>
+      </c>
+      <c r="AR19" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="AS19" s="14">
+        <v>2</v>
+      </c>
+      <c r="AT19" s="14">
+        <v>1</v>
+      </c>
+      <c r="AU19" s="15"/>
+      <c r="AV19" s="14">
+        <v>32</v>
+      </c>
+      <c r="AW19" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="AX19" s="14">
+        <v>4</v>
+      </c>
+      <c r="AY19" s="14">
+        <v>2</v>
+      </c>
+      <c r="AZ19" s="15"/>
+      <c r="BA19" s="14">
+        <v>34</v>
+      </c>
+      <c r="BB19" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="BC19" s="14">
+        <v>6</v>
+      </c>
+      <c r="BD19" s="14">
+        <v>3</v>
+      </c>
+      <c r="BE19" s="13"/>
+      <c r="BF19" s="13"/>
+      <c r="BG19" s="13"/>
+      <c r="BH19" s="13"/>
+      <c r="BI19" s="13"/>
+      <c r="BJ19" s="13"/>
+      <c r="BK19" s="13"/>
+      <c r="BL19" s="13"/>
+      <c r="BM19" s="13"/>
+      <c r="BN19" s="13"/>
+      <c r="BO19" s="13"/>
+    </row>
+    <row r="20" spans="1:67" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="14">
+        <v>1710</v>
+      </c>
+      <c r="C20" s="14">
+        <v>3200</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="14">
+        <v>17101101</v>
+      </c>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="S20" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="T20" s="14">
+        <v>1710</v>
+      </c>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="13"/>
+      <c r="AA20" s="13"/>
+      <c r="AB20" s="13"/>
+      <c r="AC20" s="13"/>
+      <c r="AD20" s="13"/>
+      <c r="AE20" s="13"/>
+      <c r="AF20" s="13"/>
+      <c r="AG20" s="13"/>
+      <c r="AH20" s="13"/>
+      <c r="AI20" s="13"/>
+      <c r="AJ20" s="13"/>
+      <c r="AK20" s="13"/>
+      <c r="AL20" s="13"/>
+      <c r="AM20" s="13"/>
+      <c r="AN20" s="13"/>
+      <c r="AO20" s="13"/>
+      <c r="AP20" s="13"/>
+      <c r="AQ20" s="14">
+        <v>1</v>
+      </c>
+      <c r="AR20" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="AS20" s="14">
+        <v>2</v>
+      </c>
+      <c r="AT20" s="14">
+        <v>1</v>
+      </c>
+      <c r="AU20" s="15"/>
+      <c r="AV20" s="14">
+        <v>32</v>
+      </c>
+      <c r="AW20" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="AX20" s="14">
+        <v>4</v>
+      </c>
+      <c r="AY20" s="14">
+        <v>2</v>
+      </c>
+      <c r="AZ20" s="15"/>
+      <c r="BA20" s="14">
+        <v>34</v>
+      </c>
+      <c r="BB20" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="BC20" s="14">
+        <v>6</v>
+      </c>
+      <c r="BD20" s="14">
+        <v>3</v>
+      </c>
+      <c r="BE20" s="13"/>
+      <c r="BF20" s="13"/>
+      <c r="BG20" s="13"/>
+      <c r="BH20" s="13"/>
+      <c r="BI20" s="13"/>
+      <c r="BJ20" s="13"/>
+      <c r="BK20" s="13"/>
+      <c r="BL20" s="13"/>
+      <c r="BM20" s="13"/>
+      <c r="BN20" s="13"/>
+      <c r="BO20" s="13"/>
+    </row>
+    <row r="21" spans="1:67" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="B21" s="14">
+        <v>1710</v>
+      </c>
+      <c r="C21" s="14">
+        <v>3200</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="14">
+        <v>60000000</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="G21" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="14">
+        <v>17101101</v>
+      </c>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="S21" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="T21" s="14">
+        <v>1710</v>
+      </c>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="13"/>
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="13"/>
+      <c r="AC21" s="13"/>
+      <c r="AD21" s="13"/>
+      <c r="AE21" s="13"/>
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="13"/>
+      <c r="AH21" s="13"/>
+      <c r="AI21" s="13"/>
+      <c r="AJ21" s="13"/>
+      <c r="AK21" s="13"/>
+      <c r="AL21" s="13"/>
+      <c r="AM21" s="13"/>
+      <c r="AN21" s="13"/>
+      <c r="AO21" s="13"/>
+      <c r="AP21" s="13"/>
+      <c r="AQ21" s="14">
+        <v>1</v>
+      </c>
+      <c r="AR21" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="AS21" s="14">
+        <v>2</v>
+      </c>
+      <c r="AT21" s="14">
+        <v>1</v>
+      </c>
+      <c r="AU21" s="15"/>
+      <c r="AV21" s="14">
+        <v>32</v>
+      </c>
+      <c r="AW21" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="AX21" s="14">
+        <v>4</v>
+      </c>
+      <c r="AY21" s="14">
+        <v>2</v>
+      </c>
+      <c r="AZ21" s="15"/>
+      <c r="BA21" s="14">
+        <v>34</v>
+      </c>
+      <c r="BB21" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="BC21" s="14">
+        <v>6</v>
+      </c>
+      <c r="BD21" s="14">
+        <v>3</v>
+      </c>
+      <c r="BE21" s="13"/>
+      <c r="BF21" s="13"/>
+      <c r="BG21" s="13"/>
+      <c r="BH21" s="13"/>
+      <c r="BI21" s="13"/>
+      <c r="BJ21" s="13"/>
+      <c r="BK21" s="13"/>
+      <c r="BL21" s="13"/>
+      <c r="BM21" s="13"/>
+      <c r="BN21" s="13"/>
+      <c r="BO21" s="13"/>
+    </row>
+    <row r="22" spans="1:67" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="13"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="13"/>
+      <c r="AC22" s="13"/>
+      <c r="AD22" s="13"/>
+      <c r="AE22" s="13"/>
+      <c r="AF22" s="13"/>
+      <c r="AG22" s="13"/>
+      <c r="AH22" s="13"/>
+      <c r="AI22" s="13"/>
+      <c r="AJ22" s="13"/>
+      <c r="AK22" s="13"/>
+      <c r="AL22" s="13"/>
+      <c r="AM22" s="13"/>
+      <c r="AN22" s="13"/>
+      <c r="AO22" s="13"/>
+      <c r="AP22" s="13"/>
+      <c r="AQ22" s="13"/>
+      <c r="AR22" s="13"/>
+      <c r="AS22" s="13"/>
+      <c r="AT22" s="13"/>
+      <c r="AU22" s="13"/>
+      <c r="AV22" s="13"/>
+      <c r="AW22" s="13"/>
+      <c r="AX22" s="13"/>
+      <c r="AY22" s="13"/>
+      <c r="AZ22" s="13"/>
+      <c r="BA22" s="13"/>
+      <c r="BB22" s="13"/>
+      <c r="BC22" s="13"/>
+      <c r="BD22" s="13"/>
+      <c r="BE22" s="13"/>
+      <c r="BF22" s="13"/>
+      <c r="BG22" s="13"/>
+      <c r="BH22" s="13"/>
+      <c r="BI22" s="13"/>
+      <c r="BJ22" s="13"/>
+      <c r="BK22" s="13"/>
+      <c r="BL22" s="13"/>
+      <c r="BM22" s="13"/>
+      <c r="BN22" s="13"/>
+      <c r="BO22" s="13"/>
+    </row>
+    <row r="23" spans="1:67" x14ac:dyDescent="0.2">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:67" x14ac:dyDescent="0.2">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:67" x14ac:dyDescent="0.2">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:67" x14ac:dyDescent="0.2">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:67" x14ac:dyDescent="0.2">
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:67" x14ac:dyDescent="0.2">
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:67" x14ac:dyDescent="0.2">
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:67" x14ac:dyDescent="0.2">
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:67" x14ac:dyDescent="0.2">
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:67" x14ac:dyDescent="0.2">
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
     </row>

--- a/00_create_template.xlsx
+++ b/00_create_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sap-my.sharepoint.com/personal/mark_csaszar_sap_com/Documents/Projects/Scrum Master/START/MPA/python_scripts/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="335" documentId="11_054DCBBE86079F92FCDA360A36A5264A2DFC5A56" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E81C01D0-0FAE-6F47-9D22-36E41E657A79}"/>
+  <xr:revisionPtr revIDLastSave="342" documentId="11_054DCBBE86079F92FCDA360A36A5264A2DFC5A56" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{161FE3BD-D550-6B47-B4DB-E93FD772F7C5}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Data" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Data!$A$1:$BO$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Data!$A$5:$BO$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="319">
   <si>
     <t>Asset Mass Create</t>
   </si>
@@ -990,6 +990,9 @@
   </si>
   <si>
     <t>MPA_RETIREMENT_FULLL_SCENARIO2</t>
+  </si>
+  <si>
+    <t>MANU</t>
   </si>
 </sst>
 </file>
@@ -2817,8 +2820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BO33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18:H21"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4421,8 +4424,8 @@
       <c r="BA16" s="8">
         <v>34</v>
       </c>
-      <c r="BB16" s="8" t="s">
-        <v>288</v>
+      <c r="BB16" s="9" t="s">
+        <v>318</v>
       </c>
       <c r="BC16" s="8">
         <v>6</v>
@@ -4497,8 +4500,8 @@
       <c r="BA17" s="8">
         <v>34</v>
       </c>
-      <c r="BB17" s="8" t="s">
-        <v>288</v>
+      <c r="BB17" s="9" t="s">
+        <v>318</v>
       </c>
       <c r="BC17" s="8">
         <v>6</v>

--- a/00_create_template.xlsx
+++ b/00_create_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sap-my.sharepoint.com/personal/mark_csaszar_sap_com/Documents/Projects/Scrum Master/START/MPA/python_scripts/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="342" documentId="11_054DCBBE86079F92FCDA360A36A5264A2DFC5A56" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{161FE3BD-D550-6B47-B4DB-E93FD772F7C5}"/>
+  <xr:revisionPtr revIDLastSave="355" documentId="11_054DCBBE86079F92FCDA360A36A5264A2DFC5A56" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A40BF09-1B82-F147-AF24-254D3873E356}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="323">
   <si>
     <t>Asset Mass Create</t>
   </si>
@@ -932,18 +932,6 @@
     <t>SN_MPATRANSFER1</t>
   </si>
   <si>
-    <t>MPA_TRANSFER_SCENARIO_SENDER_MAIN</t>
-  </si>
-  <si>
-    <t>MPA_TRANSFER_SCENARIO_SENDER_SUB</t>
-  </si>
-  <si>
-    <t>MPA_TRANSFER_SCENARIO_INTRA_REC_MAIN</t>
-  </si>
-  <si>
-    <t>MPA_TRANSFER_SCENARIO_INTRA_REC_SUB</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
@@ -993,6 +981,30 @@
   </si>
   <si>
     <t>MANU</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_TRANSF_SCENARIO_SENDER_MAIN</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_TRANSF_SCENARIO_SENDER_SUB</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_TRANSF_SCENARIO_INTRA_REC_MAIN</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_TRANSF_SCENARIO_INTRA_REC_SUB</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_RETIRE_PARTIAL_SCENARIO1</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_RETIRE_PARTIAL_SCENARIO2</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_RETIRE_FULL_SCENARIO1</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_RETIRE_FULLL_SCENARIO2</t>
   </si>
 </sst>
 </file>
@@ -2821,7 +2833,7 @@
   <dimension ref="A1:BO33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2832,7 +2844,7 @@
     <col min="4" max="4" width="37" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24" style="1" bestFit="1" customWidth="1"/>
@@ -4065,7 +4077,7 @@
     </row>
     <row r="12" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B12" s="8">
         <v>1710</v>
@@ -4073,14 +4085,14 @@
       <c r="C12" s="8">
         <v>3200</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>293</v>
+      <c r="G12" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="J12" s="8" t="s">
         <v>257</v>
@@ -4126,8 +4138,8 @@
       <c r="BA12" s="8">
         <v>34</v>
       </c>
-      <c r="BB12" s="8" t="s">
-        <v>288</v>
+      <c r="BB12" s="9" t="s">
+        <v>314</v>
       </c>
       <c r="BC12" s="8">
         <v>6</v>
@@ -4138,7 +4150,7 @@
     </row>
     <row r="13" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B13" s="8">
         <v>1710</v>
@@ -4149,14 +4161,14 @@
       <c r="E13" s="8">
         <v>60000000</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>294</v>
+      <c r="G13" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="J13" s="8" t="s">
         <v>257</v>
@@ -4202,8 +4214,8 @@
       <c r="BA13" s="8">
         <v>34</v>
       </c>
-      <c r="BB13" s="8" t="s">
-        <v>288</v>
+      <c r="BB13" s="9" t="s">
+        <v>314</v>
       </c>
       <c r="BC13" s="8">
         <v>6</v>
@@ -4214,7 +4226,7 @@
     </row>
     <row r="14" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B14" s="8">
         <v>1710</v>
@@ -4222,11 +4234,11 @@
       <c r="C14" s="8">
         <v>3200</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>300</v>
+      <c r="G14" s="9" t="s">
+        <v>315</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>297</v>
@@ -4287,7 +4299,7 @@
     </row>
     <row r="15" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B15" s="8">
         <v>1710</v>
@@ -4298,11 +4310,11 @@
       <c r="E15" s="8">
         <v>60000000</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>301</v>
+      <c r="G15" s="9" t="s">
+        <v>316</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>297</v>
@@ -4363,7 +4375,7 @@
     </row>
     <row r="16" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="B16" s="8">
         <v>1710</v>
@@ -4371,14 +4383,14 @@
       <c r="C16" s="8">
         <v>3200</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>303</v>
+      <c r="G16" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>295</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="J16" s="8" t="s">
         <v>257</v>
@@ -4424,8 +4436,8 @@
       <c r="BA16" s="8">
         <v>34</v>
       </c>
-      <c r="BB16" s="9" t="s">
-        <v>318</v>
+      <c r="BB16" s="8" t="s">
+        <v>288</v>
       </c>
       <c r="BC16" s="8">
         <v>6</v>
@@ -4436,7 +4448,7 @@
     </row>
     <row r="17" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B17" s="8">
         <v>1710</v>
@@ -4447,14 +4459,14 @@
       <c r="E17" s="8">
         <v>60000000</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>304</v>
+      <c r="G17" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>296</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>257</v>
@@ -4500,8 +4512,8 @@
       <c r="BA17" s="8">
         <v>34</v>
       </c>
-      <c r="BB17" s="9" t="s">
-        <v>318</v>
+      <c r="BB17" s="8" t="s">
+        <v>288</v>
       </c>
       <c r="BC17" s="8">
         <v>6</v>
@@ -4512,7 +4524,7 @@
     </row>
     <row r="18" spans="1:67" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B18" s="14">
         <v>1710</v>
@@ -4524,13 +4536,13 @@
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="16" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="J18" s="14" t="s">
         <v>257</v>
@@ -4627,7 +4639,7 @@
     </row>
     <row r="19" spans="1:67" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B19" s="14">
         <v>1710</v>
@@ -4641,13 +4653,13 @@
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="16" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="J19" s="14" t="s">
         <v>257</v>
@@ -4756,13 +4768,13 @@
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="16" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J20" s="14" t="s">
         <v>257</v>
@@ -4859,7 +4871,7 @@
     </row>
     <row r="21" spans="1:67" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B21" s="14">
         <v>1710</v>
@@ -4873,13 +4885,13 @@
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="16" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="J21" s="14" t="s">
         <v>257</v>

--- a/00_create_template.xlsx
+++ b/00_create_template.xlsx
@@ -5,38 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sap-my.sharepoint.com/personal/mark_csaszar_sap_com/Documents/Projects/Scrum Master/START/MPA/python_scripts/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sap-my.sharepoint.com/personal/mark_csaszar_sap_com/Documents/Projects/Scrum Master/START/MPA/new_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="355" documentId="11_054DCBBE86079F92FCDA360A36A5264A2DFC5A56" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A40BF09-1B82-F147-AF24-254D3873E356}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_17A9EBAFCAD71FF3728A054B687B314E2784E91E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7048442-7748-3546-A14B-98FFF111A2A5}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10160" yWindow="-28300" windowWidth="51200" windowHeight="28300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="3" r:id="rId1"/>
     <sheet name="Field List" sheetId="2" r:id="rId2"/>
     <sheet name="Data" sheetId="1" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Data!$A$5:$BO$21</definedName>
-  </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="325">
   <si>
     <t>Asset Mass Create</t>
   </si>
@@ -110,471 +96,477 @@
     <t>BSTDT</t>
   </si>
   <si>
+    <t>Asset Purchase Order Date (YYYY-MM-DD) (8)</t>
+  </si>
+  <si>
+    <t>INVNR_ANLA</t>
+  </si>
+  <si>
+    <t>Inventory Number (25)</t>
+  </si>
+  <si>
+    <t>INVZU_ANLA</t>
+  </si>
+  <si>
+    <t>Supplementary Inventory Specifications (15)</t>
+  </si>
+  <si>
+    <t>IVDAT_ANLA</t>
+  </si>
+  <si>
+    <t>Last Inventory Date (YYYY-MM-DD) (8)</t>
+  </si>
+  <si>
+    <t>INKEN</t>
+  </si>
+  <si>
+    <t>Inventory Indicator (1)</t>
+  </si>
+  <si>
+    <t>KOSTL</t>
+  </si>
+  <si>
+    <t>Cost Center (10)</t>
+  </si>
+  <si>
+    <t>FAA_MD_WBSELEMENT</t>
+  </si>
+  <si>
+    <t>Work Breakdown Structure Element (WBS Element) (24)</t>
+  </si>
+  <si>
+    <t>PRCTR</t>
+  </si>
+  <si>
+    <t>*Profit Center (10)</t>
+  </si>
+  <si>
+    <t>FB_SEGMENT</t>
+  </si>
+  <si>
+    <t>Segment for Segmental Reporting (10)</t>
+  </si>
+  <si>
+    <t>WERKS_D</t>
+  </si>
+  <si>
+    <t>Plant (4)</t>
+  </si>
+  <si>
+    <t>STORT</t>
+  </si>
+  <si>
+    <t>Asset location (10)</t>
+  </si>
+  <si>
+    <t>RAUMNR</t>
+  </si>
+  <si>
+    <t>Room (8)</t>
+  </si>
+  <si>
+    <t>TXJCD</t>
+  </si>
+  <si>
+    <t>Tax Jurisdiction (15)</t>
+  </si>
+  <si>
+    <t>AM_LIFNR</t>
+  </si>
+  <si>
+    <t>Account Number of Supplier (Other Key Word) (10)</t>
+  </si>
+  <si>
+    <t>XAFABCH</t>
+  </si>
+  <si>
+    <t>Asset Acquired Used (1)</t>
+  </si>
+  <si>
+    <t>HERST</t>
+  </si>
+  <si>
+    <t>Manufacturer of asset (30)</t>
+  </si>
+  <si>
+    <t>AM_LAND1</t>
+  </si>
+  <si>
+    <t>Asset's Country/Region of Origin (3)</t>
+  </si>
+  <si>
+    <t>TYPBZ_ANLA</t>
+  </si>
+  <si>
+    <t>Asset type name (15)</t>
+  </si>
+  <si>
+    <t>ANTEI</t>
+  </si>
+  <si>
+    <t>In-House Production Percentage (5)</t>
+  </si>
+  <si>
+    <t>RASSC</t>
+  </si>
+  <si>
+    <t>Company ID of Trading Partner (6)</t>
+  </si>
+  <si>
+    <t>AIBN1</t>
+  </si>
+  <si>
+    <t>Original Asset That Was Transferred (12)</t>
+  </si>
+  <si>
+    <t>AIBN2</t>
+  </si>
+  <si>
+    <t>Original asset that was transferred (4)</t>
+  </si>
+  <si>
+    <t>AIBDT</t>
+  </si>
+  <si>
+    <t>Original Acquisition Date of AuC/ Transferred Asset (YYYY-MM-DD) (8)</t>
+  </si>
+  <si>
+    <t>URJHR</t>
+  </si>
+  <si>
+    <t>Fiscal Year of Original Acquisition (4)</t>
+  </si>
+  <si>
+    <t>URWRT</t>
+  </si>
+  <si>
+    <t>Original Acquisition Value (23)</t>
+  </si>
+  <si>
+    <t>FAA_MD_ORG_ACQ_CURR</t>
+  </si>
+  <si>
+    <t>Original Acquisition Value Currency (5)</t>
+  </si>
+  <si>
+    <t>FINS_LEDGER_1</t>
+  </si>
+  <si>
+    <t>Ledger in General Ledger Accounting (2)</t>
+  </si>
+  <si>
+    <t>AKTIVD_1</t>
+  </si>
+  <si>
+    <t>Asset Capitalization Date (YYYY-MM-DD) (8)</t>
+  </si>
+  <si>
+    <t>FINS_LEDGER_2</t>
+  </si>
+  <si>
+    <t>AKTIVD_2</t>
+  </si>
+  <si>
+    <t>FINS_LEDGER_3</t>
+  </si>
+  <si>
+    <t>AKTIVD_3</t>
+  </si>
+  <si>
+    <t>AFABER_1</t>
+  </si>
+  <si>
+    <t>Depreciation Area Real or Derived (2)</t>
+  </si>
+  <si>
+    <t>AFASL_1</t>
+  </si>
+  <si>
+    <t>Depreciation Key (4)</t>
+  </si>
+  <si>
+    <t>NDJAR_1</t>
+  </si>
+  <si>
+    <t>Planned useful life in years (3)</t>
+  </si>
+  <si>
+    <t>NDPER_1</t>
+  </si>
+  <si>
+    <t>Planned useful life in periods (3)</t>
+  </si>
+  <si>
+    <t>ADATU_1</t>
+  </si>
+  <si>
+    <t>Date for Beginning of Validity (YYYY-MM-DD) (8)</t>
+  </si>
+  <si>
+    <t>AFABER_2</t>
+  </si>
+  <si>
+    <t>AFASL_2</t>
+  </si>
+  <si>
+    <t>NDJAR_2</t>
+  </si>
+  <si>
+    <t>NDPER_2</t>
+  </si>
+  <si>
+    <t>ADATU_2</t>
+  </si>
+  <si>
+    <t>AFABER_3</t>
+  </si>
+  <si>
+    <t>AFASL_3</t>
+  </si>
+  <si>
+    <t>NDJAR_3</t>
+  </si>
+  <si>
+    <t>NDPER_3</t>
+  </si>
+  <si>
+    <t>ADATU_3</t>
+  </si>
+  <si>
+    <t>AFABER_4</t>
+  </si>
+  <si>
+    <t>AFASL_4</t>
+  </si>
+  <si>
+    <t>NDJAR_4</t>
+  </si>
+  <si>
+    <t>NDPER_4</t>
+  </si>
+  <si>
+    <t>ADATU_4</t>
+  </si>
+  <si>
+    <t>AFABER_5</t>
+  </si>
+  <si>
+    <t>AFASL_5</t>
+  </si>
+  <si>
+    <t>NDJAR_5</t>
+  </si>
+  <si>
+    <t>NDPER_5</t>
+  </si>
+  <si>
+    <t>ADATU_5</t>
+  </si>
+  <si>
+    <t>FIELD NAME</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>IMPORTANCE</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>LENGTH</t>
+  </si>
+  <si>
+    <t>Row Number</t>
+  </si>
+  <si>
+    <t>Mandatory for sheet</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Company Code</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Asset Class</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Indicator for Asset for Post-Cap.</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Main Asset Number</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Asset Subnumber</t>
+  </si>
+  <si>
+    <t>Asset Description</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Additional asset description</t>
+  </si>
+  <si>
+    <t>Serial Number</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Base Unit of Measure</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>Asset Purchase Order Date (YYYY-MM-DD)</t>
   </si>
   <si>
-    <t>INVNR_ANLA</t>
-  </si>
-  <si>
-    <t>Inventory Number (25)</t>
-  </si>
-  <si>
-    <t>INVZU_ANLA</t>
-  </si>
-  <si>
-    <t>Supplementary Inventory Specifications (15)</t>
-  </si>
-  <si>
-    <t>IVDAT_ANLA</t>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Inventory Number</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Supplementary Inventory Specifications</t>
+  </si>
+  <si>
+    <t>15</t>
   </si>
   <si>
     <t>Last Inventory Date (YYYY-MM-DD)</t>
   </si>
   <si>
-    <t>INKEN</t>
-  </si>
-  <si>
-    <t>Inventory Indicator (1)</t>
-  </si>
-  <si>
-    <t>KOSTL</t>
-  </si>
-  <si>
-    <t>Cost Center (10)</t>
-  </si>
-  <si>
-    <t>FAA_MD_WBSELEMENT</t>
-  </si>
-  <si>
-    <t>Work Breakdown Structure Element (WBS Element) (24)</t>
-  </si>
-  <si>
-    <t>PRCTR</t>
-  </si>
-  <si>
-    <t>*Profit Center (10)</t>
-  </si>
-  <si>
-    <t>FB_SEGMENT</t>
-  </si>
-  <si>
-    <t>Segment for Segmental Reporting (10)</t>
-  </si>
-  <si>
-    <t>WERKS_D</t>
-  </si>
-  <si>
-    <t>Plant (4)</t>
-  </si>
-  <si>
-    <t>STORT</t>
-  </si>
-  <si>
-    <t>Asset location (10)</t>
-  </si>
-  <si>
-    <t>RAUMNR</t>
-  </si>
-  <si>
-    <t>Room (8)</t>
-  </si>
-  <si>
-    <t>TXJCD</t>
-  </si>
-  <si>
-    <t>Tax Jurisdiction (15)</t>
-  </si>
-  <si>
-    <t>AM_LIFNR</t>
-  </si>
-  <si>
-    <t>Account Number of Supplier (Other Key Word) (10)</t>
-  </si>
-  <si>
-    <t>XAFABCH</t>
-  </si>
-  <si>
-    <t>Asset Acquired Used (1)</t>
-  </si>
-  <si>
-    <t>HERST</t>
-  </si>
-  <si>
-    <t>Manufacturer of Asset (30)</t>
-  </si>
-  <si>
-    <t>AM_LAND1</t>
-  </si>
-  <si>
-    <t>Asset's Country/Region of Origin (3)</t>
-  </si>
-  <si>
-    <t>TYPBZ_ANLA</t>
-  </si>
-  <si>
-    <t>Asset type name (15)</t>
-  </si>
-  <si>
-    <t>ANTEI</t>
-  </si>
-  <si>
-    <t>In-House Production Percentage (5)</t>
-  </si>
-  <si>
-    <t>RASSC</t>
-  </si>
-  <si>
-    <t>Company ID of Trading Partner (6)</t>
-  </si>
-  <si>
-    <t>AIBN1</t>
-  </si>
-  <si>
-    <t>Original Asset That Was Transferred (12)</t>
-  </si>
-  <si>
-    <t>AIBN2</t>
-  </si>
-  <si>
-    <t>Original Asset That Was Transferred (4)</t>
-  </si>
-  <si>
-    <t>AIBDT</t>
+    <t>Inventory Indicator</t>
+  </si>
+  <si>
+    <t>Cost Center</t>
+  </si>
+  <si>
+    <t>Work Breakdown Structure Element (WBS Element)</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Profit Center</t>
+  </si>
+  <si>
+    <t>Segment for Segmental Reporting</t>
+  </si>
+  <si>
+    <t>Plant</t>
+  </si>
+  <si>
+    <t>Asset location</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>Tax Jurisdiction</t>
+  </si>
+  <si>
+    <t>Account Number of Supplier (Other Key Word)</t>
+  </si>
+  <si>
+    <t>Asset Acquired Used</t>
+  </si>
+  <si>
+    <t>Manufacturer of asset</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Asset's Country/Region of Origin</t>
+  </si>
+  <si>
+    <t>Asset type name</t>
+  </si>
+  <si>
+    <t>In-House Production Percentage</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Company ID of Trading Partner</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Original Asset That Was Transferred</t>
+  </si>
+  <si>
+    <t>Original asset that was transferred</t>
   </si>
   <si>
     <t>Original Acquisition Date of AuC/ Transferred Asset (YYYY-MM-DD)</t>
   </si>
   <si>
-    <t>URJHR</t>
-  </si>
-  <si>
-    <t>Fiscal Year of Original Acquisition (4)</t>
-  </si>
-  <si>
-    <t>URWRT</t>
+    <t>Fiscal Year of Original Acquisition</t>
   </si>
   <si>
     <t>Original Acquisition Value</t>
   </si>
   <si>
-    <t>FAA_MD_ORG_ACQ_CURR</t>
-  </si>
-  <si>
-    <t>Original Acquisition Value Currency (5)</t>
-  </si>
-  <si>
-    <t>FINS_LEDGER_1</t>
-  </si>
-  <si>
-    <t>Ledger in General Ledger Accounting (2)</t>
-  </si>
-  <si>
-    <t>AKTIVD_1</t>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Original Acquisition Value Currency</t>
+  </si>
+  <si>
+    <t>Ledger in General Ledger Accounting</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>Asset Capitalization Date (YYYY-MM-DD)</t>
   </si>
   <si>
-    <t>FINS_LEDGER_2</t>
-  </si>
-  <si>
-    <t>AKTIVD_2</t>
-  </si>
-  <si>
-    <t>FINS_LEDGER_3</t>
-  </si>
-  <si>
-    <t>AKTIVD_3</t>
-  </si>
-  <si>
-    <t>AFABER_1</t>
-  </si>
-  <si>
-    <t>Depreciation Area Real or Derived (2)</t>
-  </si>
-  <si>
-    <t>AFASL_1</t>
-  </si>
-  <si>
-    <t>Depreciation Key (4)</t>
-  </si>
-  <si>
-    <t>NDJAR_1</t>
-  </si>
-  <si>
-    <t>Planned Useful Life in Years (3)</t>
-  </si>
-  <si>
-    <t>NDPER_1</t>
-  </si>
-  <si>
-    <t>Planned useful life in periods (3)</t>
-  </si>
-  <si>
-    <t>ADATU_1</t>
+    <t>Depreciation Area Real or Derived</t>
+  </si>
+  <si>
+    <t>Depreciation Key</t>
+  </si>
+  <si>
+    <t>Planned useful life in years</t>
+  </si>
+  <si>
+    <t>Planned useful life in periods</t>
   </si>
   <si>
     <t>Date for Beginning of Validity (YYYY-MM-DD)</t>
   </si>
   <si>
-    <t>AFABER_2</t>
-  </si>
-  <si>
-    <t>AFASL_2</t>
-  </si>
-  <si>
-    <t>NDJAR_2</t>
-  </si>
-  <si>
-    <t>NDPER_2</t>
-  </si>
-  <si>
-    <t>ADATU_2</t>
-  </si>
-  <si>
-    <t>AFABER_3</t>
-  </si>
-  <si>
-    <t>AFASL_3</t>
-  </si>
-  <si>
-    <t>NDJAR_3</t>
-  </si>
-  <si>
-    <t>NDPER_3</t>
-  </si>
-  <si>
-    <t>ADATU_3</t>
-  </si>
-  <si>
-    <t>AFABER_4</t>
-  </si>
-  <si>
-    <t>AFASL_4</t>
-  </si>
-  <si>
-    <t>NDJAR_4</t>
-  </si>
-  <si>
-    <t>NDPER_4</t>
-  </si>
-  <si>
-    <t>ADATU_4</t>
-  </si>
-  <si>
-    <t>AFABER_5</t>
-  </si>
-  <si>
-    <t>AFASL_5</t>
-  </si>
-  <si>
-    <t>NDJAR_5</t>
-  </si>
-  <si>
-    <t>NDPER_5</t>
-  </si>
-  <si>
-    <t>ADATU_5</t>
-  </si>
-  <si>
-    <t>FIELD NAME</t>
-  </si>
-  <si>
-    <t>DESCRIPTION</t>
-  </si>
-  <si>
-    <t>IMPORTANCE</t>
-  </si>
-  <si>
-    <t>TYPE</t>
-  </si>
-  <si>
-    <t>LENGTH</t>
-  </si>
-  <si>
-    <t>Row Number</t>
-  </si>
-  <si>
-    <t>Mandatory for sheet</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Company Code</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Asset Class</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Indicator for Asset for Post-Cap.</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Main Asset Number</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Asset Subnumber</t>
-  </si>
-  <si>
-    <t>Asset Description</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>Additional asset description</t>
-  </si>
-  <si>
-    <t>Serial Number</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>Base Unit of Measure</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Asset Purchase Order Date</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>Inventory Number</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>Supplementary Inventory Specifications</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>Last Inventory Date</t>
-  </si>
-  <si>
-    <t>Inventory Indicator</t>
-  </si>
-  <si>
-    <t>Cost Center</t>
-  </si>
-  <si>
-    <t>Work Breakdown Structure Element (WBS Element)</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Profit Center</t>
-  </si>
-  <si>
-    <t>Segment for Segmental Reporting</t>
-  </si>
-  <si>
-    <t>Plant</t>
-  </si>
-  <si>
-    <t>Asset location</t>
-  </si>
-  <si>
-    <t>Room</t>
-  </si>
-  <si>
-    <t>Tax Jurisdiction</t>
-  </si>
-  <si>
-    <t>Account Number of Supplier (Other Key Word)</t>
-  </si>
-  <si>
-    <t>Asset Acquired Used</t>
-  </si>
-  <si>
-    <t>Manufacturer of Asset</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>Asset's Country/Region of Origin</t>
-  </si>
-  <si>
-    <t>Asset type name</t>
-  </si>
-  <si>
-    <t>In-House Production Percentage</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Company ID of Trading Partner</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Original Asset That Was Transferred</t>
-  </si>
-  <si>
-    <t>Original Acquisition Date of AuC/ Transferred Asset</t>
-  </si>
-  <si>
-    <t>Fiscal Year of Original Acquisition</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>Original Acquisition Value Currency</t>
-  </si>
-  <si>
-    <t>Ledger in General Ledger Accounting</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Asset Capitalization Date</t>
-  </si>
-  <si>
-    <t>Depreciation Area Real or Derived</t>
-  </si>
-  <si>
-    <t>Depreciation Key</t>
-  </si>
-  <si>
-    <t>Planned Useful Life in Years</t>
-  </si>
-  <si>
-    <t>Planned useful life in periods</t>
-  </si>
-  <si>
-    <t>Date for Beginning of Validity</t>
-  </si>
-  <si>
     <t>Overview</t>
   </si>
   <si>
@@ -806,18 +798,36 @@
     <t>Auc Intangible (4010) - For this kind of assets, INVNR_ANLA (inventory number) can be filled but no other inventory information can be inserted. Information like HERST(Manufacturer), AM_LAND1(country/reg. of origin), ANTEI (inhouse production percentage) and TYPBZ_ANLA (type name) can be inserted.</t>
   </si>
   <si>
+    <t>MPA_CHANGE_SCENARIO_1</t>
+  </si>
+  <si>
+    <t>SN_MPACHANGE1</t>
+  </si>
+  <si>
+    <t>EA</t>
+  </si>
+  <si>
+    <t>2022.01.01</t>
+  </si>
+  <si>
+    <t>IN_MPACHANGE1</t>
+  </si>
+  <si>
+    <t>SIS_MPACHANGE1</t>
+  </si>
+  <si>
     <t>X</t>
   </si>
   <si>
-    <t>EA</t>
-  </si>
-  <si>
     <t>YB600</t>
   </si>
   <si>
     <t>1000_C</t>
   </si>
   <si>
+    <t>YB_1701</t>
+  </si>
+  <si>
     <t>US</t>
   </si>
   <si>
@@ -827,191 +837,173 @@
     <t>USD</t>
   </si>
   <si>
+    <t>SU00</t>
+  </si>
+  <si>
     <t>LINS</t>
   </si>
   <si>
+    <t>SUL3</t>
+  </si>
+  <si>
+    <t>MPA_CHANGE_SCENARIO_2</t>
+  </si>
+  <si>
+    <t>SN_MPACHANGE2</t>
+  </si>
+  <si>
+    <t>IN_MPACHANGE2</t>
+  </si>
+  <si>
+    <t>MPA_CHANGE_SCENARIO_3</t>
+  </si>
+  <si>
+    <t>SN_MPACHANGE3</t>
+  </si>
+  <si>
+    <t>IN_MPACHANGE3</t>
+  </si>
+  <si>
+    <t>MPA_CHANGE_SCENARIO_4</t>
+  </si>
+  <si>
+    <t>SN_MPACHANGE4</t>
+  </si>
+  <si>
+    <t>IN_MPACHANGE4</t>
+  </si>
+  <si>
     <t>0L</t>
   </si>
   <si>
+    <t>2021.01.01</t>
+  </si>
+  <si>
     <t>2L</t>
   </si>
   <si>
-    <t>2021.01.01</t>
-  </si>
-  <si>
-    <t>MPA_CHANGE_SCENARIO_1</t>
-  </si>
-  <si>
-    <t>MPA_CHANGE_SCENARIO_2</t>
-  </si>
-  <si>
-    <t>MPA_CHANGE_SCENARIO_3</t>
-  </si>
-  <si>
-    <t>MPA_CHANGE_SCENARIO_4</t>
+    <t>3L</t>
   </si>
   <si>
     <t>MPA_CHANGE_SCENARIO_5</t>
   </si>
   <si>
+    <t>SN_MPACHANGE5</t>
+  </si>
+  <si>
+    <t>IN_MPACHANGE5</t>
+  </si>
+  <si>
     <t>MPA_CHANGE_SCENARIO_6</t>
   </si>
   <si>
-    <t>SN_MPACHANGE1</t>
-  </si>
-  <si>
-    <t>SN_MPACHANGE2</t>
-  </si>
-  <si>
-    <t>SN_MPACHANGE3</t>
-  </si>
-  <si>
-    <t>SN_MPACHANGE4</t>
-  </si>
-  <si>
-    <t>SN_MPACHANGE5</t>
-  </si>
-  <si>
     <t>SN_MPACHANGE6</t>
   </si>
   <si>
-    <t>IN_MPACHANGE1</t>
-  </si>
-  <si>
-    <t>IN_MPACHANGE2</t>
-  </si>
-  <si>
-    <t>IN_MPACHANGE3</t>
-  </si>
-  <si>
-    <t>IN_MPACHANGE4</t>
-  </si>
-  <si>
-    <t>IN_MPACHANGE5</t>
-  </si>
-  <si>
     <t>IN_MPACHANGE6</t>
   </si>
   <si>
-    <t>SIS_MPACHANGE1</t>
-  </si>
-  <si>
-    <t>YB_1701</t>
-  </si>
-  <si>
-    <t>SU00</t>
-  </si>
-  <si>
-    <t>SUL3</t>
-  </si>
-  <si>
-    <t>3L</t>
-  </si>
-  <si>
-    <t>2022.01.01</t>
+    <t>11</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_SCENARIO_1</t>
+  </si>
+  <si>
+    <t>SN_ADJUSTMENT1</t>
+  </si>
+  <si>
+    <t>MANU</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_SCENARIO_2</t>
+  </si>
+  <si>
+    <t>SN_ADJUSTMENT2</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
+    <t>MPA_ADJUSTMENT_TRANSF_SCENARIO_SENDER_MAIN</t>
+  </si>
+  <si>
+    <t>MPA_TRANSFER_SCENARIO_1</t>
+  </si>
+  <si>
+    <t>SN_MPATRANSFER1</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_TRANSF_SCENARIO_SENDER_SUB</t>
+  </si>
+  <si>
+    <t>MPA_TRANSFER_SCENARIO_2</t>
+  </si>
+  <si>
     <t>9</t>
   </si>
   <si>
-    <t>MPA_TRANSFER_SCENARIO_1</t>
-  </si>
-  <si>
-    <t>MPA_TRANSFER_SCENARIO_2</t>
+    <t>MPA_ADJUSTMENT_TRANSF_SCENARIO_INTRA_REC_MAIN</t>
   </si>
   <si>
     <t>MPA_TRANSFER_SCENARIO_3</t>
   </si>
   <si>
+    <t>MPA_ADJUSTMENT_TRANSF_SCENARIO_INTRA_REC_SUB</t>
+  </si>
+  <si>
     <t>MPA_TRANSFER_SCENARIO_4</t>
   </si>
   <si>
-    <t>SN_MPATRANSFER1</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>MPA_ADJUSTMENT_SCENARIO_1</t>
-  </si>
-  <si>
-    <t>MPA_ADJUSTMENT_SCENARIO_2</t>
-  </si>
-  <si>
-    <t>SN_ADJUSTMENT1</t>
-  </si>
-  <si>
-    <t>SN_ADJUSTMENT2</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
+    <t>MPA_ADJUSTMENT_RETIRE_PARTIAL_SCENARIO1</t>
+  </si>
+  <si>
+    <t>MPA_RETIREMENT_PARTIAL_SCENARIO1</t>
+  </si>
+  <si>
+    <t>SN_MPARETIREMENT1</t>
+  </si>
+  <si>
     <t>14</t>
   </si>
   <si>
+    <t>MPA_ADJUSTMENT_RETIRE_PARTIAL_SCENARIO2</t>
+  </si>
+  <si>
+    <t>MPA_RETIREMENT_PARTIAL_SCENARIO2</t>
+  </si>
+  <si>
+    <t>SN_MPARETIREMENT2</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_RETIRE_FULL_SCENARIO1</t>
+  </si>
+  <si>
+    <t>MPA_RETIREMENT_FULL_SCENARIO1</t>
+  </si>
+  <si>
+    <t>SN_MPARETIREMENT3</t>
+  </si>
+  <si>
     <t>16</t>
   </si>
   <si>
-    <t>SN_MPARETIREMENT1</t>
-  </si>
-  <si>
-    <t>SN_MPARETIREMENT2</t>
-  </si>
-  <si>
-    <t>SN_MPARETIREMENT3</t>
+    <t>MPA_ADJUSTMENT_RETIRE_FULLL_SCENARIO2</t>
+  </si>
+  <si>
+    <t>MPA_RETIREMENT_FULLL_SCENARIO2</t>
   </si>
   <si>
     <t>SN_MPARETIREMENT4</t>
-  </si>
-  <si>
-    <t>MPA_RETIREMENT_PARTIAL_SCENARIO1</t>
-  </si>
-  <si>
-    <t>MPA_RETIREMENT_PARTIAL_SCENARIO2</t>
-  </si>
-  <si>
-    <t>MPA_RETIREMENT_FULL_SCENARIO1</t>
-  </si>
-  <si>
-    <t>MPA_RETIREMENT_FULLL_SCENARIO2</t>
-  </si>
-  <si>
-    <t>MANU</t>
-  </si>
-  <si>
-    <t>MPA_ADJUSTMENT_TRANSF_SCENARIO_SENDER_MAIN</t>
-  </si>
-  <si>
-    <t>MPA_ADJUSTMENT_TRANSF_SCENARIO_SENDER_SUB</t>
-  </si>
-  <si>
-    <t>MPA_ADJUSTMENT_TRANSF_SCENARIO_INTRA_REC_MAIN</t>
-  </si>
-  <si>
-    <t>MPA_ADJUSTMENT_TRANSF_SCENARIO_INTRA_REC_SUB</t>
-  </si>
-  <si>
-    <t>MPA_ADJUSTMENT_RETIRE_PARTIAL_SCENARIO1</t>
-  </si>
-  <si>
-    <t>MPA_ADJUSTMENT_RETIRE_PARTIAL_SCENARIO2</t>
-  </si>
-  <si>
-    <t>MPA_ADJUSTMENT_RETIRE_FULL_SCENARIO1</t>
-  </si>
-  <si>
-    <t>MPA_ADJUSTMENT_RETIRE_FULLL_SCENARIO2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1041,11 +1033,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1082,43 +1069,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="13">
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1435,9 +1413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A98"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1446,387 +1422,387 @@
   <sheetData>
     <row r="1" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -1837,11 +1813,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1869,29 +1843,46 @@
         <v>117</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" t="s">
+        <v>121</v>
+      </c>
+    </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C3" t="s">
         <v>119</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C4" t="s">
         <v>119</v>
@@ -1900,77 +1891,74 @@
         <v>123</v>
       </c>
       <c r="E4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C5" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="D5" t="s">
         <v>123</v>
       </c>
       <c r="E5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D6" t="s">
         <v>123</v>
       </c>
       <c r="E6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D7" t="s">
         <v>123</v>
       </c>
       <c r="E7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="C8" t="s">
+        <v>119</v>
       </c>
       <c r="D8" t="s">
         <v>123</v>
       </c>
       <c r="E8" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C9" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="D9" t="s">
         <v>123</v>
@@ -1981,153 +1969,153 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D10" t="s">
         <v>123</v>
       </c>
       <c r="E10" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D11" t="s">
         <v>123</v>
       </c>
       <c r="E11" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D12" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="E12" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D13" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="E13" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D14" t="s">
         <v>123</v>
       </c>
       <c r="E14" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D15" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="E15" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D16" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="E16" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D17" t="s">
         <v>123</v>
       </c>
       <c r="E17" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D18" t="s">
         <v>123</v>
       </c>
       <c r="E18" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>148</v>
+        <v>150</v>
+      </c>
+      <c r="C19" t="s">
+        <v>119</v>
       </c>
       <c r="D19" t="s">
         <v>123</v>
       </c>
       <c r="E19" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>150</v>
-      </c>
-      <c r="C20" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="D20" t="s">
         <v>123</v>
@@ -2138,374 +2126,374 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D21" t="s">
         <v>123</v>
       </c>
       <c r="E21" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D22" t="s">
         <v>123</v>
       </c>
       <c r="E22" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D23" t="s">
         <v>123</v>
       </c>
       <c r="E23" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D24" t="s">
         <v>123</v>
       </c>
       <c r="E24" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D25" t="s">
         <v>123</v>
       </c>
       <c r="E25" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D26" t="s">
         <v>123</v>
       </c>
       <c r="E26" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D27" t="s">
         <v>123</v>
       </c>
       <c r="E27" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B28" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D28" t="s">
         <v>123</v>
       </c>
       <c r="E28" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B29" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D29" t="s">
         <v>123</v>
       </c>
       <c r="E29" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B30" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D30" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E30" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B31" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D31" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E31" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D32" t="s">
         <v>123</v>
       </c>
       <c r="E32" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B33" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D33" t="s">
         <v>123</v>
       </c>
       <c r="E33" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B34" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D34" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="E34" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B35" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D35" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="E35" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B36" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D36" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E36" t="s">
-        <v>124</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>172</v>
       </c>
       <c r="D37" t="s">
         <v>123</v>
       </c>
       <c r="E37" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B38" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D38" t="s">
         <v>123</v>
       </c>
       <c r="E38" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B39" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D39" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="E39" t="s">
-        <v>172</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B40" t="s">
         <v>173</v>
       </c>
       <c r="D40" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="E40" t="s">
-        <v>126</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B41" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D41" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="E41" t="s">
-        <v>172</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B42" t="s">
         <v>173</v>
       </c>
       <c r="D42" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="E42" t="s">
-        <v>126</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B43" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D43" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="E43" t="s">
-        <v>172</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B44" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D44" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="E44" t="s">
-        <v>126</v>
+        <v>174</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B45" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D45" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E45" t="s">
-        <v>172</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B46" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D46" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E46" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B47" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D47" t="s">
         <v>120</v>
@@ -2516,66 +2504,66 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B48" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D48" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="E48" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B49" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D49" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="E49" t="s">
-        <v>126</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B50" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D50" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E50" t="s">
-        <v>172</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B51" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D51" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E51" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B52" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D52" t="s">
         <v>120</v>
@@ -2586,66 +2574,66 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B53" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D53" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="E53" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B54" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D54" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="E54" t="s">
-        <v>126</v>
+        <v>174</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B55" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D55" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E55" t="s">
-        <v>172</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B56" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D56" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E56" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B57" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D57" t="s">
         <v>120</v>
@@ -2656,66 +2644,66 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B58" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D58" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="E58" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B59" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D59" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="E59" t="s">
-        <v>126</v>
+        <v>174</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B60" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D60" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E60" t="s">
-        <v>172</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B61" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D61" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E61" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B62" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D62" t="s">
         <v>120</v>
@@ -2726,66 +2714,66 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B63" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D63" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="E63" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B64" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D64" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="E64" t="s">
-        <v>126</v>
+        <v>174</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B65" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D65" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E65" t="s">
-        <v>172</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B66" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D66" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E66" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B67" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D67" t="s">
         <v>120</v>
@@ -2796,29 +2784,15 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B68" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D68" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="E68" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>112</v>
-      </c>
-      <c r="B69" t="s">
-        <v>178</v>
-      </c>
-      <c r="D69" t="s">
-        <v>140</v>
-      </c>
-      <c r="E69" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2830,10 +2804,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:BO33"/>
+  <dimension ref="A1:BO21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:BD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2844,14 +2818,14 @@
     <col min="4" max="4" width="37" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="38" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="42" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="43" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="32" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="36" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="51" style="1" bestFit="1" customWidth="1"/>
@@ -2870,40 +2844,40 @@
     <col min="30" max="30" width="33" style="1" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="40" style="1" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="39" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="64" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="68" style="1" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="39" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="26" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="31" style="1" bestFit="1" customWidth="1"/>
     <col min="36" max="37" width="39" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="38" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="42" style="1" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="39" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="38" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="42" style="1" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="39" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="38" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="42" style="1" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="37" style="1" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="32" style="1" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="34" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="43" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="47" style="1" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="37" style="1" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="32" style="1" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="34" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="43" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="47" style="1" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="37" style="1" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="32" style="1" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="34" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="43" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="47" style="1" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="37" style="1" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="32" style="1" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="34" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="43" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="47" style="1" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="37" style="1" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="32" style="1" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="34" style="1" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="43" style="1" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="47" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" s="1" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -2912,12 +2886,12 @@
       </c>
     </row>
     <row r="2" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3331,820 +3305,754 @@
       <c r="A6" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>1710</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>2000</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P6" s="7">
+        <v>17101101</v>
+      </c>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="T6" s="7">
+        <v>1710</v>
+      </c>
+      <c r="U6" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="I6" s="8" t="s">
+      <c r="V6" s="7">
+        <v>10.33</v>
+      </c>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="AB6" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="AC6" s="7">
+        <v>50</v>
+      </c>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="7">
+        <v>2020</v>
+      </c>
+      <c r="AI6" s="7">
+        <v>15000</v>
+      </c>
+      <c r="AJ6" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="8"/>
+      <c r="AN6" s="8"/>
+      <c r="AO6" s="8"/>
+      <c r="AP6" s="8"/>
+      <c r="AQ6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="AS6" s="7">
+        <v>2</v>
+      </c>
+      <c r="AT6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AU6" s="8"/>
+      <c r="AV6" s="7">
+        <v>32</v>
+      </c>
+      <c r="AW6" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="AX6" s="7">
+        <v>4</v>
+      </c>
+      <c r="AY6" s="7">
+        <v>2</v>
+      </c>
+      <c r="AZ6" s="8"/>
+      <c r="BA6" s="7">
+        <v>34</v>
+      </c>
+      <c r="BB6" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="J6" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="P6" s="8">
-        <v>17101101</v>
-      </c>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="S6" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="T6" s="8">
-        <v>1710</v>
-      </c>
-      <c r="U6" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="V6" s="8">
-        <v>10.33</v>
-      </c>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="AB6" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="AC6" s="8">
-        <v>50</v>
-      </c>
-      <c r="AD6" s="8"/>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="12"/>
-      <c r="AH6" s="8">
-        <v>2020</v>
-      </c>
-      <c r="AI6" s="8">
-        <v>15000</v>
-      </c>
-      <c r="AJ6" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="AK6" s="7"/>
-      <c r="AL6" s="7"/>
-      <c r="AM6" s="7"/>
-      <c r="AN6" s="7"/>
-      <c r="AO6" s="7"/>
-      <c r="AP6" s="7"/>
-      <c r="AQ6" s="8">
-        <v>1</v>
-      </c>
-      <c r="AR6" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="AS6" s="8">
-        <v>2</v>
-      </c>
-      <c r="AT6" s="8">
-        <v>1</v>
-      </c>
-      <c r="AU6" s="7"/>
-      <c r="AV6" s="8">
-        <v>32</v>
-      </c>
-      <c r="AW6" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="AX6" s="8">
-        <v>4</v>
-      </c>
-      <c r="AY6" s="8">
-        <v>2</v>
-      </c>
-      <c r="AZ6" s="7"/>
-      <c r="BA6" s="8">
-        <v>34</v>
-      </c>
-      <c r="BB6" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="BC6" s="8">
+      <c r="BC6" s="7">
         <v>6</v>
       </c>
-      <c r="BD6" s="8">
+      <c r="BD6" s="7">
         <v>3</v>
       </c>
-      <c r="BE6" s="7"/>
-      <c r="BF6" s="9"/>
-      <c r="BG6" s="8"/>
-      <c r="BH6" s="8"/>
-      <c r="BI6" s="8"/>
-      <c r="BJ6" s="7"/>
-      <c r="BK6" s="8"/>
-      <c r="BL6" s="8"/>
-      <c r="BM6" s="8"/>
-      <c r="BN6" s="8"/>
-      <c r="BO6" s="7"/>
     </row>
     <row r="7" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B7" s="8">
+        <v>174</v>
+      </c>
+      <c r="B7" s="7">
         <v>1710</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>3200</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8" t="s">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="J7" s="8" t="s">
-        <v>257</v>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>260</v>
       </c>
       <c r="K7" s="11"/>
-      <c r="L7" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8">
+      <c r="L7" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7">
         <v>17101101</v>
       </c>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="S7" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="T7" s="8">
+      <c r="Q7" s="8"/>
+      <c r="R7" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="T7" s="7">
         <v>1710</v>
       </c>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="7"/>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="7"/>
-      <c r="AG7" s="7"/>
-      <c r="AH7" s="7"/>
-      <c r="AI7" s="7"/>
-      <c r="AJ7" s="7"/>
-      <c r="AK7" s="7"/>
-      <c r="AL7" s="7"/>
-      <c r="AM7" s="7"/>
-      <c r="AN7" s="7"/>
-      <c r="AO7" s="7"/>
-      <c r="AP7" s="7"/>
-      <c r="AQ7" s="8">
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="8"/>
+      <c r="AJ7" s="8"/>
+      <c r="AK7" s="8"/>
+      <c r="AL7" s="8"/>
+      <c r="AM7" s="8"/>
+      <c r="AN7" s="8"/>
+      <c r="AO7" s="8"/>
+      <c r="AP7" s="8"/>
+      <c r="AQ7" s="7">
         <v>1</v>
       </c>
-      <c r="AR7" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="AS7" s="8">
+      <c r="AR7" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="AS7" s="7">
         <v>2</v>
       </c>
-      <c r="AT7" s="8">
+      <c r="AT7" s="7">
         <v>1</v>
       </c>
-      <c r="AU7" s="7"/>
-      <c r="AV7" s="8">
+      <c r="AU7" s="8"/>
+      <c r="AV7" s="7">
         <v>32</v>
       </c>
-      <c r="AW7" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="AX7" s="8">
+      <c r="AW7" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="AX7" s="7">
         <v>4</v>
       </c>
-      <c r="AY7" s="8">
+      <c r="AY7" s="7">
         <v>2</v>
       </c>
-      <c r="AZ7" s="7"/>
-      <c r="BA7" s="8">
+      <c r="AZ7" s="8"/>
+      <c r="BA7" s="7">
         <v>34</v>
       </c>
-      <c r="BB7" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="BC7" s="8">
+      <c r="BB7" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="BC7" s="7">
         <v>6</v>
       </c>
-      <c r="BD7" s="8">
+      <c r="BD7" s="7">
         <v>3</v>
       </c>
-      <c r="BE7" s="7"/>
-      <c r="BF7" s="8"/>
-      <c r="BG7" s="8"/>
-      <c r="BH7" s="8"/>
-      <c r="BI7" s="8"/>
-      <c r="BJ7" s="7"/>
-      <c r="BK7" s="8"/>
-      <c r="BL7" s="8"/>
-      <c r="BM7" s="8"/>
-      <c r="BN7" s="8"/>
-      <c r="BO7" s="7"/>
-    </row>
-    <row r="8" spans="1:67" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>1710</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>3200</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7">
         <v>60000000</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="P8" s="8">
+      <c r="F8" s="8"/>
+      <c r="G8" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P8" s="7">
         <v>17101101</v>
       </c>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="S8" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="T8" s="8">
+      <c r="Q8" s="8"/>
+      <c r="R8" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="T8" s="7">
         <v>1710</v>
       </c>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="7"/>
-      <c r="AE8" s="7"/>
-      <c r="AF8" s="7"/>
-      <c r="AG8" s="7"/>
-      <c r="AH8" s="7"/>
-      <c r="AI8" s="7"/>
-      <c r="AJ8" s="7"/>
-      <c r="AK8" s="7"/>
-      <c r="AL8" s="7"/>
-      <c r="AM8" s="7"/>
-      <c r="AN8" s="7"/>
-      <c r="AO8" s="7"/>
-      <c r="AP8" s="7"/>
-      <c r="AQ8" s="8">
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="8"/>
+      <c r="AK8" s="8"/>
+      <c r="AL8" s="8"/>
+      <c r="AM8" s="8"/>
+      <c r="AN8" s="8"/>
+      <c r="AO8" s="8"/>
+      <c r="AP8" s="8"/>
+      <c r="AQ8" s="7">
         <v>1</v>
       </c>
-      <c r="AR8" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="AS8" s="8">
+      <c r="AR8" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="AS8" s="7">
         <v>2</v>
       </c>
-      <c r="AT8" s="8">
+      <c r="AT8" s="7">
         <v>1</v>
       </c>
-      <c r="AU8" s="7"/>
-      <c r="AV8" s="8">
+      <c r="AU8" s="8"/>
+      <c r="AV8" s="7">
         <v>32</v>
       </c>
-      <c r="AW8" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="AX8" s="8">
+      <c r="AW8" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="AX8" s="7">
         <v>4</v>
       </c>
-      <c r="AY8" s="8">
+      <c r="AY8" s="7">
         <v>2</v>
       </c>
-      <c r="AZ8" s="7"/>
-      <c r="BA8" s="8">
+      <c r="AZ8" s="8"/>
+      <c r="BA8" s="7">
         <v>34</v>
       </c>
-      <c r="BB8" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="BC8" s="8">
+      <c r="BB8" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="BC8" s="7">
         <v>6</v>
       </c>
-      <c r="BD8" s="8">
+      <c r="BD8" s="7">
         <v>3</v>
       </c>
-      <c r="BE8" s="7"/>
-      <c r="BF8" s="8"/>
-      <c r="BG8" s="8"/>
-      <c r="BH8" s="8"/>
-      <c r="BI8" s="8"/>
-      <c r="BJ8" s="7"/>
-      <c r="BK8" s="8"/>
-      <c r="BL8" s="8"/>
-      <c r="BM8" s="8"/>
-      <c r="BN8" s="8"/>
-      <c r="BO8" s="7"/>
     </row>
     <row r="9" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>1710</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>3200</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>257</v>
+      <c r="D9" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>260</v>
       </c>
       <c r="K9" s="11"/>
-      <c r="L9" s="8" t="s">
+      <c r="L9" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8">
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7">
         <v>17101101</v>
       </c>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="S9" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="T9" s="8">
+      <c r="Q9" s="8"/>
+      <c r="R9" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="T9" s="7">
         <v>1710</v>
       </c>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="7"/>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="7"/>
-      <c r="AG9" s="7"/>
-      <c r="AH9" s="7"/>
-      <c r="AI9" s="7"/>
-      <c r="AJ9" s="7"/>
-      <c r="AK9" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="AL9" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="AM9" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="AN9" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="AO9" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="AP9" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="AQ9" s="8">
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="8"/>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="8"/>
+      <c r="AJ9" s="8"/>
+      <c r="AK9" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="AL9" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="AM9" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="AN9" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="AO9" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="AP9" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="AQ9" s="7">
         <v>1</v>
       </c>
-      <c r="AR9" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="AS9" s="8">
+      <c r="AR9" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="AS9" s="7">
         <v>2</v>
       </c>
-      <c r="AT9" s="8">
+      <c r="AT9" s="7">
         <v>1</v>
       </c>
-      <c r="AU9" s="7"/>
-      <c r="AV9" s="8">
+      <c r="AU9" s="8"/>
+      <c r="AV9" s="7">
         <v>32</v>
       </c>
-      <c r="AW9" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="AX9" s="8">
+      <c r="AW9" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="AX9" s="7">
         <v>4</v>
       </c>
-      <c r="AY9" s="8">
+      <c r="AY9" s="7">
         <v>2</v>
       </c>
-      <c r="AZ9" s="7"/>
-      <c r="BA9" s="8">
+      <c r="AZ9" s="8"/>
+      <c r="BA9" s="7">
         <v>34</v>
       </c>
-      <c r="BB9" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="BC9" s="8">
+      <c r="BB9" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="BC9" s="7">
         <v>6</v>
       </c>
-      <c r="BD9" s="8">
+      <c r="BD9" s="7">
         <v>3</v>
       </c>
-      <c r="BE9" s="7"/>
-      <c r="BF9" s="8"/>
-      <c r="BG9" s="8"/>
-      <c r="BH9" s="8"/>
-      <c r="BI9" s="8"/>
-      <c r="BJ9" s="7"/>
-      <c r="BK9" s="8"/>
-      <c r="BL9" s="8"/>
-      <c r="BM9" s="8"/>
-      <c r="BN9" s="8"/>
-      <c r="BO9" s="7"/>
     </row>
     <row r="10" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>1710</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>3200</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7">
         <v>60000000</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8" t="s">
+      <c r="F10" s="8"/>
+      <c r="G10" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K10" s="11"/>
+      <c r="L10" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P10" s="7">
+        <v>17101101</v>
+      </c>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="S10" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="T10" s="7">
+        <v>1710</v>
+      </c>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="8"/>
+      <c r="AK10" s="8"/>
+      <c r="AL10" s="8"/>
+      <c r="AM10" s="8"/>
+      <c r="AN10" s="8"/>
+      <c r="AO10" s="8"/>
+      <c r="AP10" s="8"/>
+      <c r="AQ10" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR10" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="K10" s="11"/>
-      <c r="L10" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="P10" s="8">
-        <v>17101101</v>
-      </c>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="S10" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="T10" s="8">
-        <v>1710</v>
-      </c>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="7"/>
-      <c r="AG10" s="7"/>
-      <c r="AH10" s="7"/>
-      <c r="AI10" s="7"/>
-      <c r="AJ10" s="7"/>
-      <c r="AK10" s="7"/>
-      <c r="AL10" s="7"/>
-      <c r="AM10" s="7"/>
-      <c r="AN10" s="7"/>
-      <c r="AO10" s="7"/>
-      <c r="AP10" s="7"/>
-      <c r="AQ10" s="8">
+      <c r="AS10" s="7">
+        <v>2</v>
+      </c>
+      <c r="AT10" s="7">
         <v>1</v>
       </c>
-      <c r="AR10" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="AS10" s="8">
+      <c r="AU10" s="8"/>
+      <c r="AV10" s="7">
+        <v>32</v>
+      </c>
+      <c r="AW10" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="AX10" s="7">
+        <v>4</v>
+      </c>
+      <c r="AY10" s="7">
         <v>2</v>
       </c>
-      <c r="AT10" s="8">
-        <v>1</v>
-      </c>
-      <c r="AU10" s="7"/>
-      <c r="AV10" s="8">
-        <v>32</v>
-      </c>
-      <c r="AW10" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="AX10" s="8">
-        <v>4</v>
-      </c>
-      <c r="AY10" s="8">
-        <v>2</v>
-      </c>
-      <c r="AZ10" s="7"/>
-      <c r="BA10" s="8">
+      <c r="AZ10" s="8"/>
+      <c r="BA10" s="7">
         <v>34</v>
       </c>
-      <c r="BB10" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="BC10" s="8">
+      <c r="BB10" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="BC10" s="7">
         <v>6</v>
       </c>
-      <c r="BD10" s="8">
+      <c r="BD10" s="7">
         <v>3</v>
       </c>
-      <c r="BE10" s="7"/>
-      <c r="BF10" s="8"/>
-      <c r="BG10" s="8"/>
-      <c r="BH10" s="8"/>
-      <c r="BI10" s="8"/>
-      <c r="BJ10" s="7"/>
-      <c r="BK10" s="8"/>
-      <c r="BL10" s="8"/>
-      <c r="BM10" s="8"/>
-      <c r="BN10" s="8"/>
-      <c r="BO10" s="7"/>
     </row>
     <row r="11" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>1710</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>3200</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8" t="s">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P11" s="7">
+        <v>17101101</v>
+      </c>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="T11" s="7">
+        <v>1710</v>
+      </c>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="8"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="8"/>
+      <c r="AK11" s="8"/>
+      <c r="AL11" s="8"/>
+      <c r="AM11" s="8"/>
+      <c r="AN11" s="8"/>
+      <c r="AO11" s="8"/>
+      <c r="AP11" s="8"/>
+      <c r="AQ11" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR11" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="AS11" s="7">
+        <v>2</v>
+      </c>
+      <c r="AT11" s="7">
+        <v>1</v>
+      </c>
+      <c r="AU11" s="8"/>
+      <c r="AV11" s="7">
+        <v>32</v>
+      </c>
+      <c r="AW11" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="H11" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="P11" s="8">
-        <v>17101101</v>
-      </c>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="S11" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="T11" s="8">
-        <v>1710</v>
-      </c>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="7"/>
-      <c r="AD11" s="7"/>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="7"/>
-      <c r="AG11" s="7"/>
-      <c r="AH11" s="7"/>
-      <c r="AI11" s="7"/>
-      <c r="AJ11" s="7"/>
-      <c r="AK11" s="7"/>
-      <c r="AL11" s="7"/>
-      <c r="AM11" s="7"/>
-      <c r="AN11" s="7"/>
-      <c r="AO11" s="7"/>
-      <c r="AP11" s="7"/>
-      <c r="AQ11" s="8">
-        <v>1</v>
-      </c>
-      <c r="AR11" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="AS11" s="8">
+      <c r="AX11" s="7">
+        <v>4</v>
+      </c>
+      <c r="AY11" s="7">
         <v>2</v>
       </c>
-      <c r="AT11" s="8">
-        <v>1</v>
-      </c>
-      <c r="AU11" s="7"/>
-      <c r="AV11" s="8">
-        <v>32</v>
-      </c>
-      <c r="AW11" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="AX11" s="8">
-        <v>4</v>
-      </c>
-      <c r="AY11" s="8">
-        <v>2</v>
-      </c>
-      <c r="AZ11" s="7"/>
-      <c r="BA11" s="8">
+      <c r="AZ11" s="8"/>
+      <c r="BA11" s="7">
         <v>34</v>
       </c>
-      <c r="BB11" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="BC11" s="8">
+      <c r="BB11" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="BC11" s="7">
         <v>6</v>
       </c>
-      <c r="BD11" s="8">
+      <c r="BD11" s="7">
         <v>3</v>
       </c>
-      <c r="BE11" s="7"/>
-      <c r="BF11" s="8"/>
-      <c r="BG11" s="8"/>
-      <c r="BH11" s="8"/>
-      <c r="BI11" s="8"/>
-      <c r="BJ11" s="7"/>
-      <c r="BK11" s="8"/>
-      <c r="BL11" s="8"/>
-      <c r="BM11" s="8"/>
-      <c r="BN11" s="8"/>
-      <c r="BO11" s="7"/>
     </row>
     <row r="12" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B12" s="8">
+        <v>293</v>
+      </c>
+      <c r="B12" s="7">
         <v>1710</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>3200</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="P12" s="8">
+        <v>295</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P12" s="7">
         <v>17101101</v>
       </c>
-      <c r="R12" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="S12" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="T12" s="8">
+      <c r="R12" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="S12" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="T12" s="7">
         <v>1710</v>
       </c>
-      <c r="AQ12" s="8">
+      <c r="AQ12" s="7">
         <v>1</v>
       </c>
-      <c r="AR12" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="AS12" s="8">
+      <c r="AR12" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="AS12" s="7">
         <v>2</v>
       </c>
-      <c r="AT12" s="8">
+      <c r="AT12" s="7">
         <v>1</v>
       </c>
-      <c r="AU12" s="7"/>
-      <c r="AV12" s="8">
+      <c r="AU12" s="8"/>
+      <c r="AV12" s="7">
         <v>32</v>
       </c>
-      <c r="AW12" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="AX12" s="8">
+      <c r="AW12" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="AX12" s="7">
         <v>4</v>
       </c>
-      <c r="AY12" s="8">
+      <c r="AY12" s="7">
         <v>2</v>
       </c>
-      <c r="AZ12" s="7"/>
-      <c r="BA12" s="8">
+      <c r="AZ12" s="8"/>
+      <c r="BA12" s="7">
         <v>34</v>
       </c>
-      <c r="BB12" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="BC12" s="8">
+      <c r="BB12" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="BC12" s="7">
         <v>6</v>
       </c>
-      <c r="BD12" s="8">
+      <c r="BD12" s="7">
         <v>3</v>
       </c>
     </row>
@@ -4152,148 +4060,148 @@
       <c r="A13" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <v>1710</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>3200</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <v>60000000</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="P13" s="8">
+        <v>298</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P13" s="7">
         <v>17101101</v>
       </c>
-      <c r="R13" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="S13" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="T13" s="8">
+      <c r="R13" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="S13" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="T13" s="7">
         <v>1710</v>
       </c>
-      <c r="AQ13" s="8">
+      <c r="AQ13" s="7">
         <v>1</v>
       </c>
-      <c r="AR13" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="AS13" s="8">
+      <c r="AR13" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="AS13" s="7">
         <v>2</v>
       </c>
-      <c r="AT13" s="8">
+      <c r="AT13" s="7">
         <v>1</v>
       </c>
-      <c r="AU13" s="7"/>
-      <c r="AV13" s="8">
+      <c r="AU13" s="8"/>
+      <c r="AV13" s="7">
         <v>32</v>
       </c>
-      <c r="AW13" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="AX13" s="8">
+      <c r="AW13" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="AX13" s="7">
         <v>4</v>
       </c>
-      <c r="AY13" s="8">
+      <c r="AY13" s="7">
         <v>2</v>
       </c>
-      <c r="AZ13" s="7"/>
-      <c r="BA13" s="8">
+      <c r="AZ13" s="8"/>
+      <c r="BA13" s="7">
         <v>34</v>
       </c>
-      <c r="BB13" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="BC13" s="8">
+      <c r="BB13" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="BC13" s="7">
         <v>6</v>
       </c>
-      <c r="BD13" s="8">
+      <c r="BD13" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B14" s="8">
+        <v>299</v>
+      </c>
+      <c r="B14" s="7">
         <v>1710</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>3200</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>293</v>
+      <c r="G14" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>301</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="P14" s="8">
+        <v>302</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P14" s="7">
         <v>17101101</v>
       </c>
-      <c r="R14" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="S14" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="T14" s="8">
+      <c r="R14" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="S14" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="T14" s="7">
         <v>1710</v>
       </c>
-      <c r="AQ14" s="8">
+      <c r="AQ14" s="7">
         <v>1</v>
       </c>
-      <c r="AR14" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="AS14" s="8">
+      <c r="AR14" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="AS14" s="7">
         <v>2</v>
       </c>
-      <c r="AT14" s="8">
+      <c r="AT14" s="7">
         <v>1</v>
       </c>
-      <c r="AU14" s="7"/>
-      <c r="AV14" s="8">
+      <c r="AU14" s="8"/>
+      <c r="AV14" s="7">
         <v>32</v>
       </c>
-      <c r="AW14" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="AX14" s="8">
+      <c r="AW14" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="AX14" s="7">
         <v>4</v>
       </c>
-      <c r="AY14" s="8">
+      <c r="AY14" s="7">
         <v>2</v>
       </c>
-      <c r="AZ14" s="7"/>
-      <c r="BA14" s="8">
+      <c r="AZ14" s="8"/>
+      <c r="BA14" s="7">
         <v>34</v>
       </c>
-      <c r="BB14" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="BC14" s="8">
+      <c r="BB14" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="BC14" s="7">
         <v>6</v>
       </c>
-      <c r="BD14" s="8">
+      <c r="BD14" s="7">
         <v>3</v>
       </c>
     </row>
@@ -4301,806 +4209,526 @@
       <c r="A15" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <v>1710</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>3200</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="7">
         <v>60000000</v>
       </c>
-      <c r="G15" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>294</v>
+      <c r="G15" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>304</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="P15" s="8">
+        <v>302</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P15" s="7">
         <v>17101101</v>
       </c>
-      <c r="R15" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="S15" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="T15" s="8">
+      <c r="R15" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="S15" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="T15" s="7">
         <v>1710</v>
       </c>
-      <c r="AQ15" s="8">
+      <c r="AQ15" s="7">
         <v>1</v>
       </c>
-      <c r="AR15" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="AS15" s="8">
+      <c r="AR15" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="AS15" s="7">
         <v>2</v>
       </c>
-      <c r="AT15" s="8">
+      <c r="AT15" s="7">
         <v>1</v>
       </c>
-      <c r="AU15" s="7"/>
-      <c r="AV15" s="8">
+      <c r="AU15" s="8"/>
+      <c r="AV15" s="7">
         <v>32</v>
       </c>
-      <c r="AW15" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="AX15" s="8">
+      <c r="AW15" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="AX15" s="7">
         <v>4</v>
       </c>
-      <c r="AY15" s="8">
+      <c r="AY15" s="7">
         <v>2</v>
       </c>
-      <c r="AZ15" s="7"/>
-      <c r="BA15" s="8">
+      <c r="AZ15" s="8"/>
+      <c r="BA15" s="7">
         <v>34</v>
       </c>
-      <c r="BB15" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="BC15" s="8">
+      <c r="BB15" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="BC15" s="7">
         <v>6</v>
       </c>
-      <c r="BD15" s="8">
+      <c r="BD15" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B16" s="8">
+        <v>305</v>
+      </c>
+      <c r="B16" s="7">
         <v>1710</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <v>3200</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>295</v>
+      <c r="G16" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>307</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="P16" s="8">
+        <v>302</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P16" s="7">
         <v>17101101</v>
       </c>
-      <c r="R16" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="S16" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="T16" s="8">
+      <c r="R16" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="S16" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="T16" s="7">
         <v>1710</v>
       </c>
-      <c r="AQ16" s="8">
+      <c r="AQ16" s="7">
         <v>1</v>
       </c>
-      <c r="AR16" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="AS16" s="8">
+      <c r="AR16" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="AS16" s="7">
         <v>2</v>
       </c>
-      <c r="AT16" s="8">
+      <c r="AT16" s="7">
         <v>1</v>
       </c>
-      <c r="AU16" s="7"/>
-      <c r="AV16" s="8">
+      <c r="AU16" s="8"/>
+      <c r="AV16" s="7">
         <v>32</v>
       </c>
-      <c r="AW16" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="AX16" s="8">
+      <c r="AW16" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="AX16" s="7">
         <v>4</v>
       </c>
-      <c r="AY16" s="8">
+      <c r="AY16" s="7">
         <v>2</v>
       </c>
-      <c r="AZ16" s="7"/>
-      <c r="BA16" s="8">
+      <c r="AZ16" s="8"/>
+      <c r="BA16" s="7">
         <v>34</v>
       </c>
-      <c r="BB16" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="BC16" s="8">
+      <c r="BB16" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="BC16" s="7">
         <v>6</v>
       </c>
-      <c r="BD16" s="8">
+      <c r="BD16" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <v>1710</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="7">
         <v>3200</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="7">
         <v>60000000</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P17" s="7">
+        <v>17101101</v>
+      </c>
+      <c r="R17" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="S17" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="T17" s="7">
+        <v>1710</v>
+      </c>
+      <c r="AQ17" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR17" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="AS17" s="7">
+        <v>2</v>
+      </c>
+      <c r="AT17" s="7">
+        <v>1</v>
+      </c>
+      <c r="AU17" s="8"/>
+      <c r="AV17" s="7">
+        <v>32</v>
+      </c>
+      <c r="AW17" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="AX17" s="7">
+        <v>4</v>
+      </c>
+      <c r="AY17" s="7">
+        <v>2</v>
+      </c>
+      <c r="AZ17" s="8"/>
+      <c r="BA17" s="7">
+        <v>34</v>
+      </c>
+      <c r="BB17" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="BC17" s="7">
+        <v>6</v>
+      </c>
+      <c r="BD17" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B18" s="7">
+        <v>1710</v>
+      </c>
+      <c r="C18" s="7">
+        <v>3200</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P18" s="7">
+        <v>17101101</v>
+      </c>
+      <c r="R18" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="S18" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="T18" s="7">
+        <v>1710</v>
+      </c>
+      <c r="AQ18" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR18" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="AS18" s="7">
+        <v>2</v>
+      </c>
+      <c r="AT18" s="7">
+        <v>1</v>
+      </c>
+      <c r="AU18" s="8"/>
+      <c r="AV18" s="7">
+        <v>32</v>
+      </c>
+      <c r="AW18" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="AX18" s="7">
+        <v>4</v>
+      </c>
+      <c r="AY18" s="7">
+        <v>2</v>
+      </c>
+      <c r="AZ18" s="8"/>
+      <c r="BA18" s="7">
+        <v>34</v>
+      </c>
+      <c r="BB18" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="BC18" s="7">
+        <v>6</v>
+      </c>
+      <c r="BD18" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B19" s="7">
+        <v>1710</v>
+      </c>
+      <c r="C19" s="7">
+        <v>3200</v>
+      </c>
+      <c r="E19" s="7">
+        <v>60000000</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P19" s="7">
+        <v>17101101</v>
+      </c>
+      <c r="R19" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="S19" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="T19" s="7">
+        <v>1710</v>
+      </c>
+      <c r="AQ19" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR19" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="AS19" s="7">
+        <v>2</v>
+      </c>
+      <c r="AT19" s="7">
+        <v>1</v>
+      </c>
+      <c r="AU19" s="8"/>
+      <c r="AV19" s="7">
+        <v>32</v>
+      </c>
+      <c r="AW19" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="AX19" s="7">
+        <v>4</v>
+      </c>
+      <c r="AY19" s="7">
+        <v>2</v>
+      </c>
+      <c r="AZ19" s="8"/>
+      <c r="BA19" s="7">
+        <v>34</v>
+      </c>
+      <c r="BB19" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="BC19" s="7">
+        <v>6</v>
+      </c>
+      <c r="BD19" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="7">
+        <v>1710</v>
+      </c>
+      <c r="C20" s="7">
+        <v>3200</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="H17" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="P17" s="8">
+      <c r="H20" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P20" s="7">
         <v>17101101</v>
       </c>
-      <c r="R17" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="S17" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="T17" s="8">
+      <c r="R20" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="S20" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="T20" s="7">
         <v>1710</v>
       </c>
-      <c r="AQ17" s="8">
+      <c r="AQ20" s="7">
         <v>1</v>
       </c>
-      <c r="AR17" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="AS17" s="8">
+      <c r="AR20" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="AS20" s="7">
         <v>2</v>
       </c>
-      <c r="AT17" s="8">
+      <c r="AT20" s="7">
         <v>1</v>
       </c>
-      <c r="AU17" s="7"/>
-      <c r="AV17" s="8">
+      <c r="AU20" s="8"/>
+      <c r="AV20" s="7">
         <v>32</v>
       </c>
-      <c r="AW17" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="AX17" s="8">
+      <c r="AW20" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="AX20" s="7">
         <v>4</v>
       </c>
-      <c r="AY17" s="8">
+      <c r="AY20" s="7">
         <v>2</v>
       </c>
-      <c r="AZ17" s="7"/>
-      <c r="BA17" s="8">
+      <c r="AZ20" s="8"/>
+      <c r="BA20" s="7">
         <v>34</v>
       </c>
-      <c r="BB17" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="BC17" s="8">
+      <c r="BB20" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="BC20" s="7">
         <v>6</v>
       </c>
-      <c r="BD17" s="8">
+      <c r="BD20" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:67" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="B18" s="14">
+    <row r="21" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B21" s="7">
         <v>1710</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C21" s="7">
         <v>3200</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="J18" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="14">
+      <c r="E21" s="7">
+        <v>60000000</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P21" s="7">
         <v>17101101</v>
       </c>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="S18" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="T18" s="14">
+      <c r="R21" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="S21" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="T21" s="7">
         <v>1710</v>
       </c>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
-      <c r="AA18" s="13"/>
-      <c r="AB18" s="13"/>
-      <c r="AC18" s="13"/>
-      <c r="AD18" s="13"/>
-      <c r="AE18" s="13"/>
-      <c r="AF18" s="13"/>
-      <c r="AG18" s="13"/>
-      <c r="AH18" s="13"/>
-      <c r="AI18" s="13"/>
-      <c r="AJ18" s="13"/>
-      <c r="AK18" s="13"/>
-      <c r="AL18" s="13"/>
-      <c r="AM18" s="13"/>
-      <c r="AN18" s="13"/>
-      <c r="AO18" s="13"/>
-      <c r="AP18" s="13"/>
-      <c r="AQ18" s="14">
+      <c r="AQ21" s="7">
         <v>1</v>
       </c>
-      <c r="AR18" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="AS18" s="14">
+      <c r="AR21" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="AS21" s="7">
         <v>2</v>
       </c>
-      <c r="AT18" s="14">
+      <c r="AT21" s="7">
         <v>1</v>
       </c>
-      <c r="AU18" s="15"/>
-      <c r="AV18" s="14">
+      <c r="AU21" s="8"/>
+      <c r="AV21" s="7">
         <v>32</v>
       </c>
-      <c r="AW18" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="AX18" s="14">
+      <c r="AW21" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="AX21" s="7">
         <v>4</v>
       </c>
-      <c r="AY18" s="14">
+      <c r="AY21" s="7">
         <v>2</v>
       </c>
-      <c r="AZ18" s="15"/>
-      <c r="BA18" s="14">
+      <c r="AZ21" s="8"/>
+      <c r="BA21" s="7">
         <v>34</v>
       </c>
-      <c r="BB18" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="BC18" s="14">
+      <c r="BB21" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="BC21" s="7">
         <v>6</v>
       </c>
-      <c r="BD18" s="14">
+      <c r="BD21" s="7">
         <v>3</v>
       </c>
-      <c r="BE18" s="13"/>
-      <c r="BF18" s="13"/>
-      <c r="BG18" s="13"/>
-      <c r="BH18" s="13"/>
-      <c r="BI18" s="13"/>
-      <c r="BJ18" s="13"/>
-      <c r="BK18" s="13"/>
-      <c r="BL18" s="13"/>
-      <c r="BM18" s="13"/>
-      <c r="BN18" s="13"/>
-      <c r="BO18" s="13"/>
-    </row>
-    <row r="19" spans="1:67" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="B19" s="14">
-        <v>1710</v>
-      </c>
-      <c r="C19" s="14">
-        <v>3200</v>
-      </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="14">
-        <v>60000000</v>
-      </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="H19" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="J19" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="14">
-        <v>17101101</v>
-      </c>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="S19" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="T19" s="14">
-        <v>1710</v>
-      </c>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="13"/>
-      <c r="AA19" s="13"/>
-      <c r="AB19" s="13"/>
-      <c r="AC19" s="13"/>
-      <c r="AD19" s="13"/>
-      <c r="AE19" s="13"/>
-      <c r="AF19" s="13"/>
-      <c r="AG19" s="13"/>
-      <c r="AH19" s="13"/>
-      <c r="AI19" s="13"/>
-      <c r="AJ19" s="13"/>
-      <c r="AK19" s="13"/>
-      <c r="AL19" s="13"/>
-      <c r="AM19" s="13"/>
-      <c r="AN19" s="13"/>
-      <c r="AO19" s="13"/>
-      <c r="AP19" s="13"/>
-      <c r="AQ19" s="14">
-        <v>1</v>
-      </c>
-      <c r="AR19" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="AS19" s="14">
-        <v>2</v>
-      </c>
-      <c r="AT19" s="14">
-        <v>1</v>
-      </c>
-      <c r="AU19" s="15"/>
-      <c r="AV19" s="14">
-        <v>32</v>
-      </c>
-      <c r="AW19" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="AX19" s="14">
-        <v>4</v>
-      </c>
-      <c r="AY19" s="14">
-        <v>2</v>
-      </c>
-      <c r="AZ19" s="15"/>
-      <c r="BA19" s="14">
-        <v>34</v>
-      </c>
-      <c r="BB19" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="BC19" s="14">
-        <v>6</v>
-      </c>
-      <c r="BD19" s="14">
-        <v>3</v>
-      </c>
-      <c r="BE19" s="13"/>
-      <c r="BF19" s="13"/>
-      <c r="BG19" s="13"/>
-      <c r="BH19" s="13"/>
-      <c r="BI19" s="13"/>
-      <c r="BJ19" s="13"/>
-      <c r="BK19" s="13"/>
-      <c r="BL19" s="13"/>
-      <c r="BM19" s="13"/>
-      <c r="BN19" s="13"/>
-      <c r="BO19" s="13"/>
-    </row>
-    <row r="20" spans="1:67" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="B20" s="14">
-        <v>1710</v>
-      </c>
-      <c r="C20" s="14">
-        <v>3200</v>
-      </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="16" t="s">
-        <v>321</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="14">
-        <v>17101101</v>
-      </c>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="S20" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="T20" s="14">
-        <v>1710</v>
-      </c>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
-      <c r="X20" s="13"/>
-      <c r="Y20" s="13"/>
-      <c r="Z20" s="13"/>
-      <c r="AA20" s="13"/>
-      <c r="AB20" s="13"/>
-      <c r="AC20" s="13"/>
-      <c r="AD20" s="13"/>
-      <c r="AE20" s="13"/>
-      <c r="AF20" s="13"/>
-      <c r="AG20" s="13"/>
-      <c r="AH20" s="13"/>
-      <c r="AI20" s="13"/>
-      <c r="AJ20" s="13"/>
-      <c r="AK20" s="13"/>
-      <c r="AL20" s="13"/>
-      <c r="AM20" s="13"/>
-      <c r="AN20" s="13"/>
-      <c r="AO20" s="13"/>
-      <c r="AP20" s="13"/>
-      <c r="AQ20" s="14">
-        <v>1</v>
-      </c>
-      <c r="AR20" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="AS20" s="14">
-        <v>2</v>
-      </c>
-      <c r="AT20" s="14">
-        <v>1</v>
-      </c>
-      <c r="AU20" s="15"/>
-      <c r="AV20" s="14">
-        <v>32</v>
-      </c>
-      <c r="AW20" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="AX20" s="14">
-        <v>4</v>
-      </c>
-      <c r="AY20" s="14">
-        <v>2</v>
-      </c>
-      <c r="AZ20" s="15"/>
-      <c r="BA20" s="14">
-        <v>34</v>
-      </c>
-      <c r="BB20" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="BC20" s="14">
-        <v>6</v>
-      </c>
-      <c r="BD20" s="14">
-        <v>3</v>
-      </c>
-      <c r="BE20" s="13"/>
-      <c r="BF20" s="13"/>
-      <c r="BG20" s="13"/>
-      <c r="BH20" s="13"/>
-      <c r="BI20" s="13"/>
-      <c r="BJ20" s="13"/>
-      <c r="BK20" s="13"/>
-      <c r="BL20" s="13"/>
-      <c r="BM20" s="13"/>
-      <c r="BN20" s="13"/>
-      <c r="BO20" s="13"/>
-    </row>
-    <row r="21" spans="1:67" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="B21" s="14">
-        <v>1710</v>
-      </c>
-      <c r="C21" s="14">
-        <v>3200</v>
-      </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="14">
-        <v>60000000</v>
-      </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="16" t="s">
-        <v>322</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="J21" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="14">
-        <v>17101101</v>
-      </c>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="S21" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="T21" s="14">
-        <v>1710</v>
-      </c>
-      <c r="U21" s="13"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="13"/>
-      <c r="Y21" s="13"/>
-      <c r="Z21" s="13"/>
-      <c r="AA21" s="13"/>
-      <c r="AB21" s="13"/>
-      <c r="AC21" s="13"/>
-      <c r="AD21" s="13"/>
-      <c r="AE21" s="13"/>
-      <c r="AF21" s="13"/>
-      <c r="AG21" s="13"/>
-      <c r="AH21" s="13"/>
-      <c r="AI21" s="13"/>
-      <c r="AJ21" s="13"/>
-      <c r="AK21" s="13"/>
-      <c r="AL21" s="13"/>
-      <c r="AM21" s="13"/>
-      <c r="AN21" s="13"/>
-      <c r="AO21" s="13"/>
-      <c r="AP21" s="13"/>
-      <c r="AQ21" s="14">
-        <v>1</v>
-      </c>
-      <c r="AR21" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="AS21" s="14">
-        <v>2</v>
-      </c>
-      <c r="AT21" s="14">
-        <v>1</v>
-      </c>
-      <c r="AU21" s="15"/>
-      <c r="AV21" s="14">
-        <v>32</v>
-      </c>
-      <c r="AW21" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="AX21" s="14">
-        <v>4</v>
-      </c>
-      <c r="AY21" s="14">
-        <v>2</v>
-      </c>
-      <c r="AZ21" s="15"/>
-      <c r="BA21" s="14">
-        <v>34</v>
-      </c>
-      <c r="BB21" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="BC21" s="14">
-        <v>6</v>
-      </c>
-      <c r="BD21" s="14">
-        <v>3</v>
-      </c>
-      <c r="BE21" s="13"/>
-      <c r="BF21" s="13"/>
-      <c r="BG21" s="13"/>
-      <c r="BH21" s="13"/>
-      <c r="BI21" s="13"/>
-      <c r="BJ21" s="13"/>
-      <c r="BK21" s="13"/>
-      <c r="BL21" s="13"/>
-      <c r="BM21" s="13"/>
-      <c r="BN21" s="13"/>
-      <c r="BO21" s="13"/>
-    </row>
-    <row r="22" spans="1:67" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
-      <c r="X22" s="13"/>
-      <c r="Y22" s="13"/>
-      <c r="Z22" s="13"/>
-      <c r="AA22" s="13"/>
-      <c r="AB22" s="13"/>
-      <c r="AC22" s="13"/>
-      <c r="AD22" s="13"/>
-      <c r="AE22" s="13"/>
-      <c r="AF22" s="13"/>
-      <c r="AG22" s="13"/>
-      <c r="AH22" s="13"/>
-      <c r="AI22" s="13"/>
-      <c r="AJ22" s="13"/>
-      <c r="AK22" s="13"/>
-      <c r="AL22" s="13"/>
-      <c r="AM22" s="13"/>
-      <c r="AN22" s="13"/>
-      <c r="AO22" s="13"/>
-      <c r="AP22" s="13"/>
-      <c r="AQ22" s="13"/>
-      <c r="AR22" s="13"/>
-      <c r="AS22" s="13"/>
-      <c r="AT22" s="13"/>
-      <c r="AU22" s="13"/>
-      <c r="AV22" s="13"/>
-      <c r="AW22" s="13"/>
-      <c r="AX22" s="13"/>
-      <c r="AY22" s="13"/>
-      <c r="AZ22" s="13"/>
-      <c r="BA22" s="13"/>
-      <c r="BB22" s="13"/>
-      <c r="BC22" s="13"/>
-      <c r="BD22" s="13"/>
-      <c r="BE22" s="13"/>
-      <c r="BF22" s="13"/>
-      <c r="BG22" s="13"/>
-      <c r="BH22" s="13"/>
-      <c r="BI22" s="13"/>
-      <c r="BJ22" s="13"/>
-      <c r="BK22" s="13"/>
-      <c r="BL22" s="13"/>
-      <c r="BM22" s="13"/>
-      <c r="BN22" s="13"/>
-      <c r="BO22" s="13"/>
-    </row>
-    <row r="23" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-    </row>
-    <row r="24" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-    </row>
-    <row r="25" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-    </row>
-    <row r="26" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-    </row>
-    <row r="27" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-    </row>
-    <row r="28" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-    </row>
-    <row r="29" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-    </row>
-    <row r="30" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-    </row>
-    <row r="31" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-    </row>
-    <row r="32" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
